--- a/equipment_cyg/product/zhong_che_yi_xing/zhong_che_yi_xing_manual.xlsx
+++ b/equipment_cyg/product/zhong_che_yi_xing/zhong_che_yi_xing_manual.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="504" activeTab="4"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="504" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="secs指令" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">secs指令!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">plc!$D$1:$D$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">plc!$D$1:$D$88</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="483">
   <si>
     <t>direction</t>
   </si>
@@ -441,6 +441,15 @@
   <si>
     <t>1：OK
 2：NG</t>
+  </si>
+  <si>
+    <t>track_in_reply_flag</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>进站回复</t>
   </si>
   <si>
     <t>remote_command</t>
@@ -628,34 +637,10 @@
     <t>托盘码</t>
   </si>
   <si>
-    <t>产品1sn</t>
-  </si>
-  <si>
-    <t>产品2sn</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_MES.mes2plc.Interlock.st_1_pallet_mapping[1].code</t>
-  </si>
-  <si>
-    <t>MES回复的产品1</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_MES.mes2plc.Interlock.st_1_pallet_mapping[2].code</t>
-  </si>
-  <si>
-    <t>MES回复的产品2</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_MES.mes2plc.Interlock.st_1_pallet_mapping[1].status</t>
-  </si>
-  <si>
-    <t>MES回复的产品1状态</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_MES.mes2plc.Interlock.st_1_pallet_mapping[2].status</t>
-  </si>
-  <si>
-    <t>MES回复的产品2状态</t>
+    <t>Application.gvl_OPMODE01_MES.mes2plc.Interlock.st_1_status</t>
+  </si>
+  <si>
+    <t>进站回复状态</t>
   </si>
   <si>
     <t>Application.gvl_OPMODE01_MES.mes2plc.geneal.response_InterLock[1]</t>
@@ -931,9 +916,6 @@
     <t>Application.gvl_OPMODE01_MES.mes2plc.geneal.response_partDone[2]</t>
   </si>
   <si>
-    <t>Application.gvl_OPMODE01_MES.mes2plc.Interlock.st_1_status</t>
-  </si>
-  <si>
     <t>设备停止，1：run，2：stop</t>
   </si>
   <si>
@@ -1165,10 +1147,7 @@
     <t>配方名不带冒号</t>
   </si>
   <si>
-    <t>进站不需要回复，只发送进站事件</t>
-  </si>
-  <si>
-    <t>修改完成,待plc修改</t>
+    <t>进站只回复，只发送进站事件</t>
   </si>
   <si>
     <t>取消track_in_reply远程命令</t>
@@ -1190,9 +1169,6 @@
   </si>
   <si>
     <t>需要显示弹框信息</t>
-  </si>
-  <si>
-    <t>修改中</t>
   </si>
   <si>
     <t>低</t>
@@ -1915,7 +1891,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1967,18 +1943,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2587,7 +2551,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2611,7 +2575,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -2620,7 +2584,7 @@
     <xf numFmtId="0" fontId="28" fillId="5" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2629,89 +2593,89 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2950,18 +2914,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2974,12 +2938,6 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2992,7 +2950,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3007,7 +2965,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3019,13 +2977,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3139,13 +3097,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>176530</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3868420</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3163,7 +3121,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="176530" y="26712545"/>
+          <a:off x="176530" y="25521920"/>
           <a:ext cx="11807190" cy="5368290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3181,13 +3139,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>149225</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2091690</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3205,7 +3163,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="149225" y="32008445"/>
+          <a:off x="149225" y="30817820"/>
           <a:ext cx="10057765" cy="2571750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3223,13 +3181,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>92075</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3395345</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3247,7 +3205,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="92075" y="34709735"/>
+          <a:off x="92075" y="33519110"/>
           <a:ext cx="11418570" cy="3177540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3265,13 +3223,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>168275</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3357245</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3289,7 +3247,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="168275" y="38146355"/>
+          <a:off x="168275" y="36955730"/>
           <a:ext cx="11304270" cy="4690110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3307,13 +3265,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>275590</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2042795</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3331,7 +3289,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="275590" y="42844085"/>
+          <a:off x="275590" y="41653460"/>
           <a:ext cx="9882505" cy="3756660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3349,13 +3307,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>351155</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2065020</xdr:colOff>
-      <xdr:row>263</xdr:row>
+      <xdr:row>258</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3373,7 +3331,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="351155" y="46638845"/>
+          <a:off x="351155" y="45448220"/>
           <a:ext cx="9829165" cy="4522470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3391,13 +3349,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>328295</xdr:colOff>
-      <xdr:row>263</xdr:row>
+      <xdr:row>258</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1965960</xdr:colOff>
-      <xdr:row>294</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3415,7 +3373,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="328295" y="51123215"/>
+          <a:off x="328295" y="49932590"/>
           <a:ext cx="9752965" cy="5303520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3433,13 +3391,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>274955</xdr:colOff>
-      <xdr:row>293</xdr:row>
+      <xdr:row>288</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1927860</xdr:colOff>
-      <xdr:row>324</xdr:row>
+      <xdr:row>319</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3457,7 +3415,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="274955" y="56411495"/>
+          <a:off x="274955" y="55220870"/>
           <a:ext cx="9768205" cy="5223510"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3475,13 +3433,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>252095</xdr:colOff>
-      <xdr:row>324</xdr:row>
+      <xdr:row>319</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1935480</xdr:colOff>
-      <xdr:row>350</xdr:row>
+      <xdr:row>345</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3499,7 +3457,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="252095" y="61627385"/>
+          <a:off x="252095" y="60436760"/>
           <a:ext cx="9798685" cy="4511040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3517,13 +3475,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>229235</xdr:colOff>
-      <xdr:row>350</xdr:row>
+      <xdr:row>345</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1874520</xdr:colOff>
-      <xdr:row>381</xdr:row>
+      <xdr:row>376</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3541,7 +3499,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="229235" y="66191765"/>
+          <a:off x="229235" y="65001140"/>
           <a:ext cx="9760585" cy="5238750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3559,13 +3517,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>175895</xdr:colOff>
-      <xdr:row>381</xdr:row>
+      <xdr:row>376</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1889760</xdr:colOff>
-      <xdr:row>412</xdr:row>
+      <xdr:row>407</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3583,7 +3541,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="175895" y="71415275"/>
+          <a:off x="175895" y="70224650"/>
           <a:ext cx="9829165" cy="5246370"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3601,13 +3559,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>198755</xdr:colOff>
-      <xdr:row>412</xdr:row>
+      <xdr:row>407</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3144520</xdr:colOff>
-      <xdr:row>416</xdr:row>
+      <xdr:row>411</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3625,7 +3583,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="198755" y="76714985"/>
+          <a:off x="198755" y="75524360"/>
           <a:ext cx="11061065" cy="640080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3932,230 +3890,230 @@
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17.1333333333333" style="107" customWidth="1"/>
-    <col min="2" max="2" width="9" style="107"/>
-    <col min="3" max="3" width="27.7333333333333" style="107" customWidth="1"/>
-    <col min="4" max="4" width="4.75833333333333" style="107" customWidth="1"/>
-    <col min="5" max="5" width="17.1333333333333" style="107" customWidth="1"/>
-    <col min="6" max="6" width="9" style="107"/>
-    <col min="7" max="7" width="29.525" style="107" customWidth="1"/>
-    <col min="8" max="8" width="42.5" style="107" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="107"/>
+    <col min="1" max="1" width="17.1333333333333" style="105" customWidth="1"/>
+    <col min="2" max="2" width="9" style="105"/>
+    <col min="3" max="3" width="27.7333333333333" style="105" customWidth="1"/>
+    <col min="4" max="4" width="4.75833333333333" style="105" customWidth="1"/>
+    <col min="5" max="5" width="17.1333333333333" style="105" customWidth="1"/>
+    <col min="6" max="6" width="9" style="105"/>
+    <col min="7" max="7" width="29.525" style="105" customWidth="1"/>
+    <col min="8" max="8" width="42.5" style="105" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="105"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="116"/>
-      <c r="E1" s="115" t="s">
+      <c r="D1" s="114"/>
+      <c r="E1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="115" t="s">
+      <c r="G1" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="115" t="s">
+      <c r="H1" s="113" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="117" t="s">
+      <c r="C2" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="117" t="s">
+      <c r="E2" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="117" t="s">
+      <c r="F2" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117" t="s">
+      <c r="G2" s="115"/>
+      <c r="H2" s="115" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:8">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="117" t="s">
+      <c r="E3" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="117" t="s">
+      <c r="F3" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="117"/>
-      <c r="H3" s="118" t="s">
+      <c r="G3" s="115"/>
+      <c r="H3" s="116" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="1:8">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="117" t="s">
+      <c r="E4" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="117" t="s">
+      <c r="F4" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="117" t="s">
+      <c r="G4" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="118" t="s">
+      <c r="H4" s="116" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="117"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="E5" s="117" t="s">
+      <c r="A5" s="115"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="E5" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="117" t="s">
+      <c r="F5" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="117" t="s">
+      <c r="G5" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="117"/>
+      <c r="H5" s="115"/>
     </row>
     <row r="6" ht="54" spans="1:8">
-      <c r="A6" s="117"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="E6" s="117" t="s">
+      <c r="A6" s="115"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="E6" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="117" t="s">
+      <c r="F6" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="118" t="s">
+      <c r="G6" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="118" t="s">
+      <c r="H6" s="116" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="117" t="s">
+      <c r="E7" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="117" t="s">
+      <c r="F7" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="117" t="s">
+      <c r="G7" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="118" t="s">
+      <c r="H7" s="116" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="117" t="s">
+      <c r="B8" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="117" t="s">
+      <c r="C8" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="117" t="s">
+      <c r="E8" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="117" t="s">
+      <c r="F8" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="118" t="s">
+      <c r="G8" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="118" t="s">
+      <c r="H8" s="116" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="117" t="s">
+      <c r="E9" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="117" t="s">
+      <c r="F9" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="117" t="s">
+      <c r="G9" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="117"/>
+      <c r="H9" s="115"/>
     </row>
     <row r="10" ht="27" spans="1:8">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="117" t="s">
+      <c r="E10" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="117" t="s">
+      <c r="F10" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="117" t="s">
+      <c r="G10" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="118" t="s">
+      <c r="H10" s="116" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4193,24 +4151,24 @@
   <sheetData>
     <row r="1" ht="21.75" spans="4:4">
       <c r="D1" s="2" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="4:9">
       <c r="D2" s="3" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>102</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>101</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>102</v>
@@ -4221,7 +4179,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="F3" s="7">
         <v>1</v>
@@ -4230,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I3" s="40" t="s">
         <v>106</v>
@@ -4242,7 +4200,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="8" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="I4" s="41"/>
     </row>
@@ -4252,7 +4210,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="8" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="I5" s="41"/>
     </row>
@@ -4262,7 +4220,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="8" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="I6" s="41"/>
     </row>
@@ -4272,7 +4230,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="8" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="I7" s="42"/>
     </row>
@@ -4281,7 +4239,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="F8" s="7">
         <v>2</v>
@@ -4290,13 +4248,13 @@
         <v>2</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I8" s="40" t="s">
         <v>104</v>
       </c>
       <c r="K8" s="43" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>102</v>
@@ -4309,7 +4267,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="8" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="I9" s="41"/>
       <c r="K9" s="14">
@@ -4319,7 +4277,7 @@
         <v>106</v>
       </c>
       <c r="M9" s="45" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="4:13">
@@ -4328,13 +4286,13 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="8" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I10" s="41"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="45" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="4:13">
@@ -4343,13 +4301,13 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="8" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="I11" s="42"/>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
       <c r="M11" s="45" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="4:13">
@@ -4357,7 +4315,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F12" s="12">
         <v>3</v>
@@ -4366,15 +4324,15 @@
         <v>3</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
       <c r="M12" s="45" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="4:13">
@@ -4382,7 +4340,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="F13" s="15">
         <v>4</v>
@@ -4391,15 +4349,15 @@
         <v>4</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="46" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="4:13">
@@ -4410,10 +4368,10 @@
         <v>5</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="K14" s="14">
         <v>2</v>
@@ -4422,7 +4380,7 @@
         <v>104</v>
       </c>
       <c r="M14" s="45" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="4:13">
@@ -4430,7 +4388,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="F15" s="15">
         <v>5</v>
@@ -4439,15 +4397,15 @@
         <v>4</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
       <c r="M15" s="45" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="4:13">
@@ -4458,15 +4416,15 @@
         <v>5</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
       <c r="M16" s="45" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="4:13">
@@ -4477,15 +4435,15 @@
         <v>6</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="46" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="4:13">
@@ -4493,7 +4451,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F18" s="15">
         <v>6</v>
@@ -4502,19 +4460,19 @@
         <v>4</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="K18" s="11">
         <v>3</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="M18" s="46" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="4:13">
@@ -4522,7 +4480,7 @@
         <v>7</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -4532,10 +4490,10 @@
         <v>4</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="M19" s="46" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="4:9">
@@ -4543,7 +4501,7 @@
         <v>8</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="F20" s="15">
         <v>8</v>
@@ -4552,10 +4510,10 @@
         <v>8</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="4:9">
@@ -4563,7 +4521,7 @@
         <v>9</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -4575,7 +4533,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F22" s="16">
         <v>10</v>
@@ -4584,10 +4542,10 @@
         <v>10</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="4:9">
@@ -4614,16 +4572,16 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="K25" s="47" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="L25" s="48" t="s">
         <v>102</v>
       </c>
       <c r="M25" s="48" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="N25" s="48" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" ht="32.25" spans="4:14">
@@ -4634,20 +4592,20 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="K26" s="49" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="L26" s="50" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="M26" s="50"/>
       <c r="N26" s="50" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="4:14">
       <c r="D27" s="11"/>
       <c r="E27" s="16" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -4657,17 +4615,17 @@
         <v>101</v>
       </c>
       <c r="L27" s="50" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="M27" s="50"/>
       <c r="N27" s="50" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="4:9">
       <c r="D28" s="23"/>
       <c r="E28" s="16" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -4677,45 +4635,45 @@
     <row r="37" ht="14.25"/>
     <row r="38" ht="16.5" spans="4:10">
       <c r="D38" s="24" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="I38" s="51" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="J38" s="52" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="39" ht="16.5" spans="4:10">
       <c r="D39" s="27" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H39" s="11">
         <v>1</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="J39" s="12">
         <v>2</v>
@@ -4725,14 +4683,14 @@
       <c r="D40" s="30"/>
       <c r="E40" s="31"/>
       <c r="F40" s="29" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="G40" s="31"/>
       <c r="H40" s="11">
         <v>2</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="J40" s="12">
         <v>2</v>
@@ -4742,7 +4700,7 @@
       <c r="D41" s="30"/>
       <c r="E41" s="31"/>
       <c r="F41" s="32" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="G41" s="31"/>
     </row>
@@ -4750,7 +4708,7 @@
       <c r="D42" s="30"/>
       <c r="E42" s="31"/>
       <c r="F42" s="33" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G42" s="31"/>
     </row>
@@ -4758,7 +4716,7 @@
       <c r="D43" s="30"/>
       <c r="E43" s="31"/>
       <c r="F43" s="33" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G43" s="31"/>
     </row>
@@ -4766,7 +4724,7 @@
       <c r="D44" s="30"/>
       <c r="E44" s="31"/>
       <c r="F44" s="33" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G44" s="31"/>
     </row>
@@ -4774,7 +4732,7 @@
       <c r="D45" s="30"/>
       <c r="E45" s="31"/>
       <c r="F45" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="G45" s="31"/>
     </row>
@@ -4782,7 +4740,7 @@
       <c r="D46" s="30"/>
       <c r="E46" s="31"/>
       <c r="F46" s="33" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G46" s="31"/>
     </row>
@@ -4790,7 +4748,7 @@
       <c r="D47" s="30"/>
       <c r="E47" s="31"/>
       <c r="F47" s="33" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G47" s="31"/>
     </row>
@@ -4798,7 +4756,7 @@
       <c r="D48" s="30"/>
       <c r="E48" s="31"/>
       <c r="F48" s="33" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G48" s="31"/>
     </row>
@@ -4806,7 +4764,7 @@
       <c r="D49" s="30"/>
       <c r="E49" s="31"/>
       <c r="F49" s="33" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="G49" s="31"/>
     </row>
@@ -4814,7 +4772,7 @@
       <c r="D50" s="30"/>
       <c r="E50" s="31"/>
       <c r="F50" s="33" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G50" s="31"/>
     </row>
@@ -4822,7 +4780,7 @@
       <c r="D51" s="30"/>
       <c r="E51" s="31"/>
       <c r="F51" s="33" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="G51" s="31"/>
     </row>
@@ -4830,23 +4788,23 @@
       <c r="D52" s="34"/>
       <c r="E52" s="35"/>
       <c r="F52" s="36" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G52" s="35"/>
     </row>
     <row r="53" ht="21" spans="4:4">
       <c r="D53" s="37" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="54" ht="15.75" spans="4:4">
       <c r="D54" s="38" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="55" ht="15.75" spans="4:4">
       <c r="D55" s="39" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -4896,483 +4854,483 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="107" customWidth="1"/>
-    <col min="2" max="2" width="30.6333333333333" style="107" customWidth="1"/>
-    <col min="3" max="3" width="25.6333333333333" style="107" customWidth="1"/>
-    <col min="4" max="4" width="11.1333333333333" style="107" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="107" customWidth="1"/>
-    <col min="6" max="6" width="32.625" style="107" customWidth="1"/>
-    <col min="7" max="7" width="17.8833333333333" style="107" customWidth="1"/>
-    <col min="8" max="8" width="28.25" style="107" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="107"/>
+    <col min="1" max="1" width="15.25" style="105" customWidth="1"/>
+    <col min="2" max="2" width="30.6333333333333" style="105" customWidth="1"/>
+    <col min="3" max="3" width="25.6333333333333" style="105" customWidth="1"/>
+    <col min="4" max="4" width="11.1333333333333" style="105" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="105" customWidth="1"/>
+    <col min="6" max="6" width="32.625" style="105" customWidth="1"/>
+    <col min="7" max="7" width="17.8833333333333" style="105" customWidth="1"/>
+    <col min="8" max="8" width="28.25" style="105" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="105"/>
   </cols>
   <sheetData>
-    <row r="1" s="107" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A1" s="99" t="s">
+    <row r="1" s="105" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A1" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="97" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" s="107" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A2" s="100">
+    <row r="2" s="105" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A2" s="98">
         <v>1001</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="100">
+      <c r="D2" s="98">
         <v>1</v>
       </c>
-      <c r="E2" s="100">
+      <c r="E2" s="98">
         <v>501</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="98" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" s="107" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A3" s="100">
+    <row r="3" s="105" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A3" s="98">
         <v>1002</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="100">
+      <c r="D3" s="98">
         <v>2</v>
       </c>
-      <c r="E3" s="100">
+      <c r="E3" s="98">
         <v>502</v>
       </c>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="100" t="s">
+      <c r="G3" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="100" t="s">
+      <c r="H3" s="98" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" s="107" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A4" s="109">
+    <row r="4" s="105" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A4" s="107">
         <v>1003</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="109">
+      <c r="D4" s="107">
         <v>3</v>
       </c>
-      <c r="E4" s="100">
+      <c r="E4" s="98">
         <v>503</v>
       </c>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="100" t="s">
+      <c r="G4" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="100" t="s">
+      <c r="H4" s="98" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" s="107" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A5" s="111"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="100">
+    <row r="5" s="105" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A5" s="109"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="98">
         <v>516</v>
       </c>
-      <c r="F5" s="100" t="s">
+      <c r="F5" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="100" t="s">
+      <c r="G5" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="100" t="s">
+      <c r="H5" s="98" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" s="107" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A6" s="113"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="100">
+    <row r="6" s="105" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A6" s="111"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="98">
         <v>517</v>
       </c>
-      <c r="F6" s="100" t="s">
+      <c r="F6" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="100" t="s">
+      <c r="G6" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="100" t="s">
+      <c r="H6" s="98" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" s="107" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A7" s="111">
+    <row r="7" s="105" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A7" s="109">
         <v>1004</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="111">
+      <c r="D7" s="109">
         <v>4</v>
       </c>
-      <c r="E7" s="100">
+      <c r="E7" s="98">
         <v>504</v>
       </c>
-      <c r="F7" s="100" t="s">
+      <c r="F7" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="100" t="s">
+      <c r="G7" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="100" t="s">
+      <c r="H7" s="98" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" s="107" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A8" s="111"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="100">
+    <row r="8" s="105" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A8" s="109"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="98">
         <v>527</v>
       </c>
-      <c r="F8" s="100" t="s">
+      <c r="F8" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="100" t="s">
+      <c r="G8" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="100" t="s">
+      <c r="H8" s="98" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" s="107" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A9" s="113"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="100">
+    <row r="9" s="105" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A9" s="111"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="98">
         <v>528</v>
       </c>
-      <c r="F9" s="100" t="s">
+      <c r="F9" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="100" t="s">
+      <c r="G9" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="100" t="s">
+      <c r="H9" s="98" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" s="107" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A10" s="109">
+    <row r="10" s="105" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A10" s="107">
         <v>1005</v>
       </c>
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="109">
+      <c r="D10" s="107">
         <v>5</v>
       </c>
-      <c r="E10" s="100">
+      <c r="E10" s="98">
         <v>505</v>
       </c>
-      <c r="F10" s="100" t="s">
+      <c r="F10" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="100" t="s">
+      <c r="G10" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="100" t="s">
+      <c r="H10" s="98" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" s="107" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A11" s="111"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="100">
+    <row r="11" s="105" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A11" s="109"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="98">
         <v>506</v>
       </c>
-      <c r="F11" s="100" t="s">
+      <c r="F11" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="100" t="s">
+      <c r="G11" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="100" t="s">
+      <c r="H11" s="98" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" s="107" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A12" s="111"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="100">
+    <row r="12" s="105" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A12" s="109"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="98">
         <v>507</v>
       </c>
-      <c r="F12" s="100" t="s">
+      <c r="F12" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="100" t="s">
+      <c r="G12" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="100" t="s">
+      <c r="H12" s="98" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" s="107" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A13" s="111"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="100">
+    <row r="13" s="105" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="98">
         <v>508</v>
       </c>
-      <c r="F13" s="100" t="s">
+      <c r="F13" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="100" t="s">
+      <c r="G13" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="100" t="s">
+      <c r="H13" s="98" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" s="107" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A14" s="113"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="100">
+    <row r="14" s="105" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A14" s="111"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="98">
         <v>6</v>
       </c>
-      <c r="E14" s="100">
+      <c r="E14" s="98">
         <v>509</v>
       </c>
-      <c r="F14" s="100" t="s">
+      <c r="F14" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="100" t="s">
+      <c r="G14" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="100" t="s">
+      <c r="H14" s="98" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" s="107" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A15" s="109">
+    <row r="15" s="105" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A15" s="107">
         <v>1006</v>
       </c>
-      <c r="B15" s="109" t="s">
+      <c r="B15" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="110" t="s">
+      <c r="C15" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="109">
+      <c r="D15" s="107">
         <v>7</v>
       </c>
-      <c r="E15" s="100">
+      <c r="E15" s="98">
         <v>506</v>
       </c>
-      <c r="F15" s="100" t="s">
+      <c r="F15" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="100" t="s">
+      <c r="G15" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="100" t="s">
+      <c r="H15" s="98" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" s="107" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A16" s="111"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="100">
+    <row r="16" s="105" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A16" s="109"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="98">
         <v>508</v>
       </c>
-      <c r="F16" s="100" t="s">
+      <c r="F16" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="100" t="s">
+      <c r="G16" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="100" t="s">
+      <c r="H16" s="98" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" s="107" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A17" s="113"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="100">
+    <row r="17" s="105" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A17" s="111"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="98">
         <v>6</v>
       </c>
-      <c r="E17" s="100">
+      <c r="E17" s="98">
         <v>509</v>
       </c>
-      <c r="F17" s="100" t="s">
+      <c r="F17" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="100" t="s">
+      <c r="G17" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="100" t="s">
+      <c r="H17" s="98" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" s="107" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A18" s="109">
+    <row r="18" s="105" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A18" s="107">
         <v>1007</v>
       </c>
-      <c r="B18" s="109" t="s">
+      <c r="B18" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="110" t="s">
+      <c r="C18" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="109">
+      <c r="D18" s="107">
         <v>8</v>
       </c>
-      <c r="E18" s="100">
+      <c r="E18" s="98">
         <v>505</v>
       </c>
-      <c r="F18" s="100" t="s">
+      <c r="F18" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="100" t="s">
+      <c r="G18" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="100" t="s">
+      <c r="H18" s="98" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" s="107" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A19" s="111"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="100">
+    <row r="19" s="105" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A19" s="109"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="98">
         <v>523</v>
       </c>
-      <c r="F19" s="100" t="s">
+      <c r="F19" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="100" t="s">
+      <c r="G19" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="100" t="s">
+      <c r="H19" s="98" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" s="107" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A20" s="111"/>
-      <c r="B20" s="111"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="100">
+    <row r="20" s="105" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A20" s="109"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="98">
         <v>524</v>
       </c>
-      <c r="F20" s="100" t="s">
+      <c r="F20" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="100" t="s">
+      <c r="G20" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="100" t="s">
+      <c r="H20" s="98" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" ht="18.75" spans="1:8">
-      <c r="A21" s="111"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="100">
+      <c r="A21" s="109"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="98">
         <v>525</v>
       </c>
-      <c r="F21" s="100" t="s">
+      <c r="F21" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="100" t="s">
+      <c r="G21" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="100" t="s">
+      <c r="H21" s="98" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="22" ht="18.75" spans="1:8">
-      <c r="A22" s="113"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="100">
+      <c r="A22" s="111"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="98">
         <v>526</v>
       </c>
-      <c r="F22" s="100" t="s">
+      <c r="F22" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="100" t="s">
+      <c r="G22" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="100" t="s">
+      <c r="H22" s="98" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5417,7 +5375,7 @@
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="29.3833333333333" customWidth="1"/>
-    <col min="3" max="3" width="5.38333333333333" style="102" customWidth="1"/>
+    <col min="3" max="3" width="5.38333333333333" style="100" customWidth="1"/>
     <col min="4" max="4" width="29.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5433,10 +5391,10 @@
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:3">
-      <c r="A2" s="103">
+      <c r="A2" s="101">
         <v>0</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="102" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -5444,16 +5402,16 @@
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:4">
-      <c r="A3" s="103">
+      <c r="A3" s="101">
         <v>1</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="102" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="106" t="s">
+      <c r="D3" s="104" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5461,13 +5419,13 @@
       <c r="A4" s="75">
         <v>10</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="102" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="106"/>
+      <c r="D4" s="104"/>
     </row>
     <row r="5" ht="16.5" spans="1:4">
       <c r="A5" s="75">
@@ -5479,7 +5437,7 @@
       <c r="C5" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="106"/>
+      <c r="D5" s="104"/>
     </row>
     <row r="6" ht="16.5" spans="1:4">
       <c r="A6" s="75">
@@ -5491,7 +5449,7 @@
       <c r="C6" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="106"/>
+      <c r="D6" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5505,367 +5463,352 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.13333333333333" style="98" customWidth="1"/>
-    <col min="2" max="2" width="41" style="98" customWidth="1"/>
-    <col min="3" max="3" width="21.3833333333333" style="98" customWidth="1"/>
-    <col min="4" max="4" width="25.1333333333333" style="98" customWidth="1"/>
-    <col min="5" max="5" width="36" style="98" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="98"/>
+    <col min="1" max="1" width="9.13333333333333" style="96" customWidth="1"/>
+    <col min="2" max="2" width="41" style="96" customWidth="1"/>
+    <col min="3" max="3" width="21.3833333333333" style="96" customWidth="1"/>
+    <col min="4" max="4" width="25.1333333333333" style="96" customWidth="1"/>
+    <col min="5" max="5" width="36" style="96" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" s="98" customFormat="1" spans="1:5">
-      <c r="A1" s="99" t="s">
+    <row r="1" s="96" customFormat="1" spans="1:5">
+      <c r="A1" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="97" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" s="98" customFormat="1" ht="37.5" spans="1:5">
-      <c r="A2" s="100">
+    <row r="2" s="96" customFormat="1" ht="37.5" spans="1:5">
+      <c r="A2" s="98">
         <v>501</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="101" t="s">
+      <c r="E2" s="99" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" s="98" customFormat="1" ht="112.5" spans="1:5">
-      <c r="A3" s="100">
+    <row r="3" s="96" customFormat="1" ht="112.5" spans="1:5">
+      <c r="A3" s="98">
         <v>502</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="100" t="s">
+      <c r="D3" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="101" t="s">
+      <c r="E3" s="99" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="100">
+      <c r="A4" s="98">
         <v>503</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="101"/>
+      <c r="E4" s="99"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="100">
+      <c r="A5" s="98">
         <v>504</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="100" t="s">
+      <c r="D5" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="101"/>
+      <c r="E5" s="99"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="100">
+      <c r="A6" s="98">
         <v>505</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="100" t="s">
+      <c r="D6" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="101"/>
+      <c r="E6" s="99"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="100">
+      <c r="A7" s="98">
         <v>506</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="100" t="s">
+      <c r="D7" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="101"/>
+      <c r="E7" s="99"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="100">
+      <c r="A8" s="98">
         <v>507</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="100" t="s">
+      <c r="D8" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="101"/>
+      <c r="E8" s="99"/>
     </row>
     <row r="9" ht="75" spans="1:5">
-      <c r="A9" s="100">
+      <c r="A9" s="98">
         <v>508</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="100" t="s">
+      <c r="D9" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="101" t="s">
+      <c r="E9" s="99" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="100">
+      <c r="A10" s="98">
         <v>509</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="100" t="s">
+      <c r="D10" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="101"/>
+      <c r="E10" s="99"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="100">
+      <c r="A11" s="98">
         <v>511</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="100" t="s">
+      <c r="C11" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="100" t="s">
+      <c r="D11" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="101"/>
+      <c r="E11" s="99"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="100">
+      <c r="A12" s="98">
         <v>512</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="100" t="s">
+      <c r="C12" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="100" t="s">
+      <c r="D12" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="E12" s="101"/>
+      <c r="E12" s="99"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="100">
+      <c r="A13" s="98">
         <v>513</v>
       </c>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="100" t="s">
+      <c r="C13" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="100" t="s">
+      <c r="D13" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="101"/>
+      <c r="E13" s="99"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="100">
+      <c r="A14" s="98">
         <v>514</v>
       </c>
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="100" t="s">
+      <c r="C14" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="100" t="s">
+      <c r="D14" s="98" t="s">
         <v>124</v>
       </c>
-      <c r="E14" s="101"/>
+      <c r="E14" s="99"/>
     </row>
     <row r="15" ht="56.25" spans="1:5">
-      <c r="A15" s="100">
+      <c r="A15" s="98">
         <v>516</v>
       </c>
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="100" t="s">
+      <c r="C15" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="100" t="s">
+      <c r="D15" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="101" t="s">
+      <c r="E15" s="99" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="100">
+      <c r="A16" s="98">
         <v>517</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="100" t="s">
+      <c r="C16" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="100" t="s">
+      <c r="D16" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="101"/>
+      <c r="E16" s="99"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="100">
+      <c r="A17" s="98">
         <v>523</v>
       </c>
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="100" t="s">
+      <c r="C17" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="100" t="s">
+      <c r="D17" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="101"/>
+      <c r="E17" s="99"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="100">
+      <c r="A18" s="98">
         <v>524</v>
       </c>
-      <c r="B18" s="100" t="s">
+      <c r="B18" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="100" t="s">
+      <c r="C18" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="100" t="s">
+      <c r="D18" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="101"/>
+      <c r="E18" s="99"/>
     </row>
     <row r="19" ht="37.5" spans="1:5">
-      <c r="A19" s="100">
+      <c r="A19" s="98">
         <v>525</v>
       </c>
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="100" t="s">
+      <c r="C19" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="100" t="s">
+      <c r="D19" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="101" t="s">
+      <c r="E19" s="99" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="20" ht="37.5" spans="1:5">
-      <c r="A20" s="100">
+      <c r="A20" s="98">
         <v>526</v>
       </c>
-      <c r="B20" s="100" t="s">
+      <c r="B20" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="100" t="s">
+      <c r="C20" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="100" t="s">
+      <c r="D20" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="101" t="s">
+      <c r="E20" s="99" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="100">
-        <v>527</v>
-      </c>
-      <c r="B21" s="100" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="100" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="100" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="101"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="100">
-        <v>528</v>
-      </c>
-      <c r="B22" s="100" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="100" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="100" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="101"/>
+      <c r="A21" s="98">
+        <v>529</v>
+      </c>
+      <c r="B21" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="98" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="98" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="99"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5879,10 +5822,10 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -5893,47 +5836,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="93" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="93" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="94" t="s">
+      <c r="A1" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="92" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="40.5" spans="1:3">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="95" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="96" t="s">
-        <v>130</v>
+      <c r="B2" s="93" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="94" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="95" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="97" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="97" t="s">
-        <v>133</v>
+      <c r="A3" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="95" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="97" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="97" t="s">
-        <v>136</v>
+      <c r="A4" s="93" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="95" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="95" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -5946,12 +5889,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
+      <selection pane="bottomLeft" activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5965,126 +5908,126 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="77" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B1" s="77" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D1" s="77" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E1" s="77" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" s="76" customFormat="1" ht="18.75" spans="1:5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" s="82" customFormat="1" ht="18.75" spans="1:5">
       <c r="A2" s="83" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
       <c r="E2" s="85"/>
     </row>
-    <row r="3" s="76" customFormat="1" ht="18.75" spans="1:5">
+    <row r="3" s="82" customFormat="1" ht="18.75" spans="1:5">
       <c r="A3" s="86" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B3" s="86" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E3" s="87" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" s="76" customFormat="1" ht="18.75" spans="1:5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" s="82" customFormat="1" ht="18.75" spans="1:5">
       <c r="A4" s="83" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B4" s="84"/>
       <c r="C4" s="84"/>
       <c r="D4" s="84"/>
       <c r="E4" s="85"/>
     </row>
-    <row r="5" s="76" customFormat="1" ht="18.75" spans="1:5">
+    <row r="5" s="82" customFormat="1" ht="18.75" spans="1:5">
       <c r="A5" s="84" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B5" s="84" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D5" s="84" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E5" s="85" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" s="76" customFormat="1" ht="18.75" spans="1:5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" s="82" customFormat="1" ht="18.75" spans="1:5">
       <c r="A6" s="83" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B6" s="84"/>
       <c r="C6" s="84"/>
       <c r="D6" s="84"/>
       <c r="E6" s="85"/>
     </row>
-    <row r="7" s="76" customFormat="1" ht="18.75" spans="1:5">
+    <row r="7" s="82" customFormat="1" ht="18.75" spans="1:5">
       <c r="A7" s="84" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C7" s="84" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D7" s="84" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E7" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" s="76" customFormat="1" ht="18.75" spans="1:5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" s="82" customFormat="1" ht="18.75" spans="1:5">
       <c r="A8" s="83" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B8" s="84"/>
       <c r="C8" s="84"/>
       <c r="D8" s="84"/>
       <c r="E8" s="85"/>
     </row>
-    <row r="9" s="76" customFormat="1" ht="18.75" spans="1:5">
+    <row r="9" s="82" customFormat="1" ht="18.75" spans="1:5">
       <c r="A9" s="84" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B9" s="84" t="s">
         <v>57</v>
       </c>
       <c r="C9" s="84" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D9" s="84" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E9" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" s="76" customFormat="1" ht="18.75" spans="1:5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" s="82" customFormat="1" ht="18.75" spans="1:5">
       <c r="A10" s="83" t="s">
         <v>59</v>
       </c>
@@ -6093,220 +6036,220 @@
       <c r="D10" s="84"/>
       <c r="E10" s="85"/>
     </row>
-    <row r="11" s="76" customFormat="1" ht="18.75" spans="1:5">
+    <row r="11" s="82" customFormat="1" ht="18.75" spans="1:5">
       <c r="A11" s="86" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="87" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A12" s="86" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="86" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="86" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="E11" s="87" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A12" s="86" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" s="86" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="E12" s="87" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" s="76" customFormat="1" ht="18.75" spans="1:5">
+    </row>
+    <row r="13" s="82" customFormat="1" ht="18.75" spans="1:5">
       <c r="A13" s="86" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B13" s="86" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C13" s="86" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D13" s="86" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E13" s="87" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" s="76" customFormat="1" ht="18.75" spans="1:5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" s="82" customFormat="1" ht="18.75" spans="1:5">
       <c r="A14" s="86" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B14" s="86" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C14" s="86" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D14" s="86" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E14" s="87" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" s="76" customFormat="1" ht="18.75" spans="1:5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" s="82" customFormat="1" ht="18.75" spans="1:5">
       <c r="A15" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="85" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A16" s="84" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="84" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A17" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="84" t="s">
         <v>167</v>
       </c>
-      <c r="B15" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E15" s="85" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A16" s="84" t="s">
+      <c r="C17" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="85" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A18" s="84" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" s="84" t="s">
         <v>169</v>
       </c>
-      <c r="B16" s="84" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E16" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A17" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="B17" s="84" t="s">
-        <v>164</v>
-      </c>
-      <c r="C17" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E17" s="85" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A18" s="84" t="s">
-        <v>172</v>
-      </c>
-      <c r="B18" s="84" t="s">
-        <v>166</v>
-      </c>
       <c r="C18" s="84" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D18" s="84" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E18" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" s="76" customFormat="1" ht="18.75" spans="1:5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" s="82" customFormat="1" ht="18.75" spans="1:5">
       <c r="A19" s="83" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B19" s="84"/>
       <c r="C19" s="84"/>
       <c r="D19" s="84"/>
       <c r="E19" s="85"/>
     </row>
-    <row r="20" s="76" customFormat="1" ht="18.75" spans="1:5">
+    <row r="20" s="82" customFormat="1" ht="18.75" spans="1:5">
       <c r="A20" s="84" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="85" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A21" s="84" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A22" s="84" t="s">
         <v>174</v>
       </c>
-      <c r="B20" s="84" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E20" s="85" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A21" s="84" t="s">
-        <v>172</v>
-      </c>
-      <c r="B21" s="84" t="s">
-        <v>166</v>
-      </c>
-      <c r="C21" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D21" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E21" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A22" s="84" t="s">
-        <v>171</v>
-      </c>
       <c r="B22" s="84" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C22" s="84" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D22" s="84" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E22" s="85" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" s="76" customFormat="1" ht="18.75" spans="1:5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" s="82" customFormat="1" ht="18.75" spans="1:5">
       <c r="A23" s="86" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B23" s="86" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C23" s="86" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D23" s="86" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E23" s="87" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" s="76" customFormat="1" ht="18.75" spans="1:5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" s="82" customFormat="1" ht="18.75" spans="1:5">
       <c r="A24" s="83" t="s">
         <v>69</v>
       </c>
@@ -6315,1695 +6258,1614 @@
       <c r="D24" s="84"/>
       <c r="E24" s="85"/>
     </row>
-    <row r="25" s="76" customFormat="1" ht="18.75" spans="1:5">
+    <row r="25" s="82" customFormat="1" ht="18.75" spans="1:5">
       <c r="A25" s="84" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B25" s="84" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C25" s="84" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D25" s="84" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E25" s="85" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" s="76" customFormat="1" ht="18.75" spans="1:5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" s="82" customFormat="1" ht="18.75" spans="1:5">
       <c r="A26" s="84" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B26" s="84" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C26" s="84" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D26" s="84" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E26" s="85" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A27" s="84"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A27" s="84" t="s">
+        <v>185</v>
+      </c>
       <c r="B27" s="84" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C27" s="84" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D27" s="84" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E27" s="85" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A28" s="84"/>
-      <c r="B28" s="84" t="s">
-        <v>183</v>
-      </c>
-      <c r="C28" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E28" s="85" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A28" s="86" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" s="86" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="87" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="29" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A29" s="88" t="s">
+      <c r="A29" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="85"/>
+    </row>
+    <row r="30" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A30" s="84" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" s="85" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A31" s="84" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31" s="84" t="s">
         <v>184</v>
       </c>
-      <c r="B29" s="88" t="s">
-        <v>185</v>
-      </c>
-      <c r="C29" s="88" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="E29" s="89" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A30" s="88" t="s">
-        <v>186</v>
-      </c>
-      <c r="B30" s="88" t="s">
-        <v>187</v>
-      </c>
-      <c r="C30" s="88" t="s">
-        <v>144</v>
-      </c>
-      <c r="D30" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="E30" s="89" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="31" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A31" s="88" t="s">
-        <v>188</v>
-      </c>
-      <c r="B31" s="88" t="s">
-        <v>189</v>
-      </c>
-      <c r="C31" s="88" t="s">
-        <v>144</v>
-      </c>
-      <c r="D31" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="E31" s="89" t="s">
-        <v>156</v>
+      <c r="C31" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" s="85" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="32" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A32" s="88" t="s">
-        <v>190</v>
-      </c>
-      <c r="B32" s="88" t="s">
+      <c r="A32" s="84" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32" s="84" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="85" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A33" s="84" t="s">
+        <v>195</v>
+      </c>
+      <c r="B33" s="84" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A34" s="84" t="s">
+        <v>197</v>
+      </c>
+      <c r="B34" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A35" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A36" s="84" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" s="84" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A37" s="84" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" s="84" t="s">
+        <v>203</v>
+      </c>
+      <c r="C37" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A38" s="84" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" s="84" t="s">
+        <v>205</v>
+      </c>
+      <c r="C38" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E38" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A39" s="84" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39" s="84" t="s">
+        <v>207</v>
+      </c>
+      <c r="C39" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A40" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" s="84" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A41" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="B41" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="C41" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A42" s="84" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="C42" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A43" s="84" t="s">
+        <v>214</v>
+      </c>
+      <c r="B43" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A44" s="84" t="s">
+        <v>216</v>
+      </c>
+      <c r="B44" s="84" t="s">
+        <v>217</v>
+      </c>
+      <c r="C44" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E44" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A45" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="B45" s="84" t="s">
+        <v>219</v>
+      </c>
+      <c r="C45" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A46" s="84" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46" s="84" t="s">
+        <v>221</v>
+      </c>
+      <c r="C46" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E46" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A47" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="B47" s="84" t="s">
+        <v>223</v>
+      </c>
+      <c r="C47" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E47" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A48" s="84" t="s">
+        <v>224</v>
+      </c>
+      <c r="B48" s="84" t="s">
+        <v>225</v>
+      </c>
+      <c r="C48" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A49" s="84" t="s">
+        <v>226</v>
+      </c>
+      <c r="B49" s="84" t="s">
+        <v>227</v>
+      </c>
+      <c r="C49" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D49" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A50" s="84" t="s">
+        <v>228</v>
+      </c>
+      <c r="B50" s="84" t="s">
+        <v>229</v>
+      </c>
+      <c r="C50" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A51" s="84" t="s">
+        <v>230</v>
+      </c>
+      <c r="B51" s="84" t="s">
+        <v>231</v>
+      </c>
+      <c r="C51" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A52" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="B52" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="C52" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A53" s="84" t="s">
+        <v>234</v>
+      </c>
+      <c r="B53" s="84" t="s">
+        <v>235</v>
+      </c>
+      <c r="C53" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E53" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A54" s="84" t="s">
+        <v>236</v>
+      </c>
+      <c r="B54" s="84" t="s">
+        <v>237</v>
+      </c>
+      <c r="C54" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A55" s="84" t="s">
+        <v>238</v>
+      </c>
+      <c r="B55" s="84" t="s">
+        <v>239</v>
+      </c>
+      <c r="C55" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E55" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A56" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="B56" s="84" t="s">
+        <v>241</v>
+      </c>
+      <c r="C56" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E56" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A57" s="84" t="s">
+        <v>242</v>
+      </c>
+      <c r="B57" s="84" t="s">
+        <v>243</v>
+      </c>
+      <c r="C57" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D57" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A58" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="B58" s="84" t="s">
+        <v>245</v>
+      </c>
+      <c r="C58" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A59" s="86" t="s">
+        <v>246</v>
+      </c>
+      <c r="B59" s="86" t="s">
+        <v>247</v>
+      </c>
+      <c r="C59" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="E59" s="87" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A60" s="83" t="s">
+        <v>248</v>
+      </c>
+      <c r="B60" s="84"/>
+      <c r="C60" s="84"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="85"/>
+    </row>
+    <row r="61" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A61" s="84" t="s">
+        <v>249</v>
+      </c>
+      <c r="B61" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="C32" s="88" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="E32" s="89" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="33" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A33" s="86" t="s">
-        <v>192</v>
-      </c>
-      <c r="B33" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C33" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="E33" s="87" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A34" s="83" t="s">
+      <c r="C61" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E61" s="85" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A62" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="B62" s="84" t="s">
         <v>194</v>
       </c>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="85"/>
-    </row>
-    <row r="35" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A35" s="84" t="s">
-        <v>195</v>
-      </c>
-      <c r="B35" s="84" t="s">
-        <v>196</v>
-      </c>
-      <c r="C35" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D35" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E35" s="85" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="36" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A36" s="84" t="s">
-        <v>197</v>
-      </c>
-      <c r="B36" s="84" t="s">
-        <v>181</v>
-      </c>
-      <c r="C36" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D36" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E36" s="85" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="37" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A37" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="B37" s="84" t="s">
+      <c r="C62" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D62" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E62" s="85" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A63" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="B63" s="84" t="s">
+        <v>252</v>
+      </c>
+      <c r="C63" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D63" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E63" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A64" s="84" t="s">
+        <v>253</v>
+      </c>
+      <c r="B64" s="84" t="s">
         <v>199</v>
       </c>
-      <c r="C37" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D37" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E37" s="85" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A38" s="84" t="s">
-        <v>200</v>
-      </c>
-      <c r="B38" s="84" t="s">
+      <c r="C64" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D64" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E64" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A65" s="84" t="s">
+        <v>254</v>
+      </c>
+      <c r="B65" s="84" t="s">
         <v>201</v>
       </c>
-      <c r="C38" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E38" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="39" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A39" s="84" t="s">
-        <v>202</v>
-      </c>
-      <c r="B39" s="84" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D39" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E39" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="40" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A40" s="84" t="s">
+      <c r="C65" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D65" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E65" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A66" s="84" t="s">
+        <v>255</v>
+      </c>
+      <c r="B66" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="B40" s="84" t="s">
-        <v>204</v>
-      </c>
-      <c r="C40" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D40" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E40" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="41" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A41" s="84" t="s">
+      <c r="C66" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D66" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E66" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="67" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A67" s="84" t="s">
+        <v>256</v>
+      </c>
+      <c r="B67" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="B41" s="84" t="s">
-        <v>206</v>
-      </c>
-      <c r="C41" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E41" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="42" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A42" s="84" t="s">
+      <c r="C67" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D67" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E67" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A68" s="84" t="s">
+        <v>257</v>
+      </c>
+      <c r="B68" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="B42" s="84" t="s">
-        <v>208</v>
-      </c>
-      <c r="C42" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E42" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="43" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A43" s="84" t="s">
-        <v>209</v>
-      </c>
-      <c r="B43" s="84" t="s">
-        <v>210</v>
-      </c>
-      <c r="C43" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D43" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E43" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="44" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A44" s="84" t="s">
-        <v>211</v>
-      </c>
-      <c r="B44" s="84" t="s">
-        <v>212</v>
-      </c>
-      <c r="C44" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D44" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E44" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="45" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A45" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="B45" s="84" t="s">
-        <v>214</v>
-      </c>
-      <c r="C45" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D45" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E45" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="46" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A46" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="B46" s="84" t="s">
-        <v>216</v>
-      </c>
-      <c r="C46" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D46" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E46" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="47" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A47" s="84" t="s">
-        <v>217</v>
-      </c>
-      <c r="B47" s="84" t="s">
-        <v>218</v>
-      </c>
-      <c r="C47" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D47" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E47" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="48" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A48" s="84" t="s">
-        <v>219</v>
-      </c>
-      <c r="B48" s="84" t="s">
-        <v>220</v>
-      </c>
-      <c r="C48" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D48" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E48" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="49" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A49" s="84" t="s">
-        <v>221</v>
-      </c>
-      <c r="B49" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="C49" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D49" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E49" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="50" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A50" s="84" t="s">
-        <v>223</v>
-      </c>
-      <c r="B50" s="84" t="s">
-        <v>224</v>
-      </c>
-      <c r="C50" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D50" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E50" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="51" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A51" s="84" t="s">
-        <v>225</v>
-      </c>
-      <c r="B51" s="84" t="s">
-        <v>226</v>
-      </c>
-      <c r="C51" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D51" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E51" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="52" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A52" s="84" t="s">
-        <v>227</v>
-      </c>
-      <c r="B52" s="84" t="s">
-        <v>228</v>
-      </c>
-      <c r="C52" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D52" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E52" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="53" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A53" s="84" t="s">
-        <v>229</v>
-      </c>
-      <c r="B53" s="84" t="s">
-        <v>230</v>
-      </c>
-      <c r="C53" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D53" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E53" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A54" s="84" t="s">
-        <v>231</v>
-      </c>
-      <c r="B54" s="84" t="s">
-        <v>232</v>
-      </c>
-      <c r="C54" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D54" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E54" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="55" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A55" s="84" t="s">
-        <v>233</v>
-      </c>
-      <c r="B55" s="84" t="s">
-        <v>234</v>
-      </c>
-      <c r="C55" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D55" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E55" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="56" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A56" s="84" t="s">
-        <v>235</v>
-      </c>
-      <c r="B56" s="84" t="s">
-        <v>236</v>
-      </c>
-      <c r="C56" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D56" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E56" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="57" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A57" s="84" t="s">
-        <v>237</v>
-      </c>
-      <c r="B57" s="84" t="s">
-        <v>238</v>
-      </c>
-      <c r="C57" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D57" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E57" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="58" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A58" s="84" t="s">
-        <v>239</v>
-      </c>
-      <c r="B58" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="C58" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D58" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E58" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="59" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A59" s="84" t="s">
-        <v>241</v>
-      </c>
-      <c r="B59" s="84" t="s">
-        <v>242</v>
-      </c>
-      <c r="C59" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D59" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E59" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="60" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A60" s="84" t="s">
-        <v>243</v>
-      </c>
-      <c r="B60" s="84" t="s">
-        <v>244</v>
-      </c>
-      <c r="C60" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D60" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E60" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="61" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A61" s="84" t="s">
-        <v>245</v>
-      </c>
-      <c r="B61" s="84" t="s">
-        <v>246</v>
-      </c>
-      <c r="C61" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D61" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E61" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="62" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A62" s="84" t="s">
-        <v>247</v>
-      </c>
-      <c r="B62" s="84" t="s">
-        <v>248</v>
-      </c>
-      <c r="C62" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D62" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E62" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="63" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A63" s="84" t="s">
-        <v>249</v>
-      </c>
-      <c r="B63" s="84" t="s">
-        <v>250</v>
-      </c>
-      <c r="C63" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D63" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E63" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="64" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A64" s="86" t="s">
-        <v>251</v>
-      </c>
-      <c r="B64" s="86" t="s">
-        <v>252</v>
-      </c>
-      <c r="C64" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="D64" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="E64" s="87" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="65" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A65" s="83" t="s">
-        <v>253</v>
-      </c>
-      <c r="B65" s="84"/>
-      <c r="C65" s="84"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="85"/>
-    </row>
-    <row r="66" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A66" s="84" t="s">
-        <v>254</v>
-      </c>
-      <c r="B66" s="84" t="s">
-        <v>196</v>
-      </c>
-      <c r="C66" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D66" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E66" s="85" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="67" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A67" s="84" t="s">
-        <v>255</v>
-      </c>
-      <c r="B67" s="84" t="s">
-        <v>199</v>
-      </c>
-      <c r="C67" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D67" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E67" s="85" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="68" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A68" s="84" t="s">
-        <v>256</v>
-      </c>
-      <c r="B68" s="84" t="s">
-        <v>257</v>
-      </c>
       <c r="C68" s="84" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D68" s="84" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E68" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="69" s="76" customFormat="1" ht="18.75" spans="1:5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" s="82" customFormat="1" ht="18.75" spans="1:5">
       <c r="A69" s="84" t="s">
         <v>258</v>
       </c>
       <c r="B69" s="84" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C69" s="84" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D69" s="84" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E69" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="70" s="76" customFormat="1" ht="18.75" spans="1:5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" s="82" customFormat="1" ht="18.75" spans="1:5">
       <c r="A70" s="84" t="s">
         <v>259</v>
       </c>
       <c r="B70" s="84" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C70" s="84" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D70" s="84" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E70" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="71" s="76" customFormat="1" ht="18.75" spans="1:5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" s="82" customFormat="1" ht="18.75" spans="1:5">
       <c r="A71" s="84" t="s">
         <v>260</v>
       </c>
       <c r="B71" s="84" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C71" s="84" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D71" s="84" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E71" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="72" s="76" customFormat="1" ht="18.75" spans="1:5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="72" s="82" customFormat="1" ht="18.75" spans="1:5">
       <c r="A72" s="84" t="s">
         <v>261</v>
       </c>
       <c r="B72" s="84" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C72" s="84" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D72" s="84" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E72" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="73" s="76" customFormat="1" ht="18.75" spans="1:5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" s="82" customFormat="1" ht="18.75" spans="1:5">
       <c r="A73" s="84" t="s">
         <v>262</v>
       </c>
       <c r="B73" s="84" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C73" s="84" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D73" s="84" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E73" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="74" s="76" customFormat="1" ht="18.75" spans="1:5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" s="82" customFormat="1" ht="18.75" spans="1:5">
       <c r="A74" s="84" t="s">
         <v>263</v>
       </c>
       <c r="B74" s="84" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C74" s="84" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D74" s="84" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E74" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="75" s="76" customFormat="1" ht="18.75" spans="1:5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" s="82" customFormat="1" ht="18.75" spans="1:5">
       <c r="A75" s="84" t="s">
         <v>264</v>
       </c>
       <c r="B75" s="84" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C75" s="84" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D75" s="84" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E75" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="76" s="76" customFormat="1" ht="18.75" spans="1:5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" s="82" customFormat="1" ht="18.75" spans="1:5">
       <c r="A76" s="84" t="s">
         <v>265</v>
       </c>
       <c r="B76" s="84" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C76" s="84" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D76" s="84" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E76" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="77" s="76" customFormat="1" ht="18.75" spans="1:5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="77" s="82" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A77" s="84" t="s">
         <v>266</v>
       </c>
       <c r="B77" s="84" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C77" s="84" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D77" s="84" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E77" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="78" s="76" customFormat="1" ht="18.75" spans="1:5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" s="82" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A78" s="84" t="s">
         <v>267</v>
       </c>
       <c r="B78" s="84" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C78" s="84" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D78" s="84" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E78" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="79" s="76" customFormat="1" ht="18.75" spans="1:5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" s="82" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A79" s="84" t="s">
         <v>268</v>
       </c>
       <c r="B79" s="84" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C79" s="84" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D79" s="84" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E79" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="80" s="76" customFormat="1" ht="18.75" spans="1:5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" s="82" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A80" s="84" t="s">
         <v>269</v>
       </c>
       <c r="B80" s="84" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C80" s="84" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D80" s="84" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E80" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="81" s="76" customFormat="1" ht="18.75" spans="1:5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" s="82" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A81" s="84" t="s">
         <v>270</v>
       </c>
       <c r="B81" s="84" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C81" s="84" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D81" s="84" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E81" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="82" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" s="82" customFormat="1" ht="16" customHeight="1" spans="1:9">
       <c r="A82" s="84" t="s">
         <v>271</v>
       </c>
       <c r="B82" s="84" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C82" s="84" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D82" s="84" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E82" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="83" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
+        <v>159</v>
+      </c>
+      <c r="I82" s="82">
+        <f>SUM(B79)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" s="82" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A83" s="84" t="s">
         <v>272</v>
       </c>
       <c r="B83" s="84" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C83" s="84" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D83" s="84" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E83" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="84" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="84" s="82" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A84" s="84" t="s">
         <v>273</v>
       </c>
       <c r="B84" s="84" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C84" s="84" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D84" s="84" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E84" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="85" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="85" s="82" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A85" s="84" t="s">
         <v>274</v>
       </c>
       <c r="B85" s="84" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C85" s="84" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D85" s="84" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E85" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="86" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="86" s="82" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A86" s="84" t="s">
         <v>275</v>
       </c>
       <c r="B86" s="84" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C86" s="84" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D86" s="84" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E86" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="87" s="76" customFormat="1" ht="16" customHeight="1" spans="1:9">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" s="82" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A87" s="84" t="s">
         <v>276</v>
       </c>
       <c r="B87" s="84" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C87" s="84" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D87" s="84" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E87" s="85" t="s">
-        <v>156</v>
-      </c>
-      <c r="I87" s="76">
-        <f>SUM(B84)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A88" s="84" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A88" s="86" t="s">
         <v>277</v>
       </c>
-      <c r="B88" s="84" t="s">
-        <v>242</v>
-      </c>
-      <c r="C88" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D88" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E88" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="89" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A89" s="84" t="s">
+      <c r="B88" s="86" t="s">
+        <v>247</v>
+      </c>
+      <c r="C88" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="D88" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="E88" s="87" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="89" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A89" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="B89" s="84"/>
+      <c r="C89" s="84"/>
+      <c r="D89" s="84"/>
+      <c r="E89" s="85"/>
+    </row>
+    <row r="90" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A90" s="86" t="s">
+        <v>185</v>
+      </c>
+      <c r="B90" s="86" t="s">
         <v>278</v>
       </c>
-      <c r="B89" s="84" t="s">
-        <v>244</v>
-      </c>
-      <c r="C89" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D89" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E89" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="90" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A90" s="84" t="s">
+      <c r="C90" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="D90" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="E90" s="87" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="91" customFormat="1" spans="4:9">
+      <c r="D91" s="88"/>
+      <c r="E91" s="88"/>
+      <c r="F91" s="88"/>
+      <c r="G91" s="89"/>
+      <c r="H91" s="88"/>
+      <c r="I91" s="89"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="89" t="s">
         <v>279</v>
       </c>
-      <c r="B90" s="84" t="s">
-        <v>246</v>
-      </c>
-      <c r="C90" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D90" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E90" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="91" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A91" s="84" t="s">
+      <c r="B92" s="88" t="s">
         <v>280</v>
       </c>
-      <c r="B91" s="84" t="s">
-        <v>248</v>
-      </c>
-      <c r="C91" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D91" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E91" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="92" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A92" s="84" t="s">
+      <c r="C92" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="D92" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="E92" s="88" t="s">
         <v>281</v>
       </c>
-      <c r="B92" s="84" t="s">
-        <v>250</v>
-      </c>
-      <c r="C92" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D92" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="93" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A93" s="86" t="s">
+      <c r="F92" s="88"/>
+      <c r="G92" s="89"/>
+      <c r="H92" s="88"/>
+      <c r="I92" s="89"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
         <v>282</v>
       </c>
-      <c r="B93" s="86" t="s">
-        <v>252</v>
-      </c>
-      <c r="C93" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="D93" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="E93" s="87" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="94" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A94" s="83" t="s">
-        <v>133</v>
-      </c>
-      <c r="B94" s="84"/>
-      <c r="C94" s="84"/>
-      <c r="D94" s="84"/>
-      <c r="E94" s="85"/>
-    </row>
-    <row r="95" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A95" s="86" t="s">
+      <c r="B93" s="88" t="s">
         <v>283</v>
       </c>
-      <c r="B95" s="86" t="s">
+      <c r="C93" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="D93" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="E93" s="88" t="s">
+        <v>159</v>
+      </c>
+      <c r="F93" s="88"/>
+      <c r="G93" s="89"/>
+      <c r="H93" s="88"/>
+      <c r="I93" s="89"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
         <v>284</v>
       </c>
-      <c r="C95" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="D95" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="E95" s="87" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="96" customFormat="1" spans="4:9">
-      <c r="D96" s="90"/>
-      <c r="E96" s="90"/>
-      <c r="F96" s="90"/>
-      <c r="G96" s="91"/>
-      <c r="H96" s="90"/>
-      <c r="I96" s="91"/>
+      <c r="B94" s="88" t="s">
+        <v>285</v>
+      </c>
+      <c r="C94" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="D94" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="E94" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="F94" s="88"/>
+      <c r="G94" s="89"/>
+      <c r="H94" s="88"/>
+      <c r="I94" s="89"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>287</v>
+      </c>
+      <c r="B95" s="88" t="s">
+        <v>288</v>
+      </c>
+      <c r="C95" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="D95" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="E95" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="F95" s="88"/>
+      <c r="G95" s="89"/>
+      <c r="H95" s="88"/>
+      <c r="I95" s="89"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>289</v>
+      </c>
+      <c r="B96" s="88" t="s">
+        <v>290</v>
+      </c>
+      <c r="C96" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="D96" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="E96" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="F96" s="88"/>
+      <c r="G96" s="89"/>
+      <c r="H96" s="88"/>
+      <c r="I96" s="89"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="91" t="s">
-        <v>285</v>
-      </c>
-      <c r="B97" s="90" t="s">
+      <c r="A97" t="s">
+        <v>291</v>
+      </c>
+      <c r="B97" s="88" t="s">
+        <v>292</v>
+      </c>
+      <c r="C97" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="D97" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="E97" s="88" t="s">
         <v>286</v>
       </c>
-      <c r="C97" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D97" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="E97" s="90" t="s">
-        <v>287</v>
-      </c>
-      <c r="F97" s="90"/>
-      <c r="G97" s="91"/>
-      <c r="H97" s="90"/>
-      <c r="I97" s="91"/>
+      <c r="F97" s="88"/>
+      <c r="G97" s="89"/>
+      <c r="H97" s="88"/>
+      <c r="I97" s="89"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>288</v>
-      </c>
-      <c r="B98" s="90" t="s">
-        <v>289</v>
-      </c>
-      <c r="C98" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D98" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="E98" s="90" t="s">
-        <v>156</v>
-      </c>
-      <c r="F98" s="90"/>
-      <c r="G98" s="91"/>
-      <c r="H98" s="90"/>
-      <c r="I98" s="91"/>
+        <v>293</v>
+      </c>
+      <c r="B98" s="88" t="s">
+        <v>294</v>
+      </c>
+      <c r="C98" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="D98" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="E98" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="F98" s="88"/>
+      <c r="G98" s="89"/>
+      <c r="H98" s="88"/>
+      <c r="I98" s="89"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>290</v>
-      </c>
-      <c r="B99" s="90" t="s">
-        <v>291</v>
-      </c>
-      <c r="C99" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D99" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="E99" s="90" t="s">
-        <v>292</v>
-      </c>
-      <c r="F99" s="90"/>
-      <c r="G99" s="91"/>
-      <c r="H99" s="90"/>
-      <c r="I99" s="91"/>
+        <v>295</v>
+      </c>
+      <c r="B99" s="88" t="s">
+        <v>296</v>
+      </c>
+      <c r="C99" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="D99" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="E99" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="F99" s="88"/>
+      <c r="G99" s="89"/>
+      <c r="H99" s="88"/>
+      <c r="I99" s="89"/>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>293</v>
-      </c>
-      <c r="B100" s="90" t="s">
-        <v>294</v>
-      </c>
-      <c r="C100" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D100" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="E100" s="90" t="s">
-        <v>292</v>
-      </c>
-      <c r="F100" s="90"/>
-      <c r="G100" s="91"/>
-      <c r="H100" s="90"/>
-      <c r="I100" s="91"/>
+        <v>297</v>
+      </c>
+      <c r="B100" s="88" t="s">
+        <v>298</v>
+      </c>
+      <c r="C100" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="D100" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="E100" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="F100" s="88"/>
+      <c r="G100" s="89"/>
+      <c r="H100" s="88"/>
+      <c r="I100" s="89"/>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>295</v>
-      </c>
-      <c r="B101" s="90" t="s">
-        <v>296</v>
-      </c>
-      <c r="C101" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D101" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="E101" s="90" t="s">
-        <v>292</v>
-      </c>
-      <c r="F101" s="90"/>
-      <c r="G101" s="91"/>
-      <c r="H101" s="90"/>
-      <c r="I101" s="91"/>
+        <v>299</v>
+      </c>
+      <c r="B101" s="88" t="s">
+        <v>300</v>
+      </c>
+      <c r="C101" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="D101" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="E101" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="F101" s="88"/>
+      <c r="G101" s="89"/>
+      <c r="H101" s="88"/>
+      <c r="I101" s="89"/>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>297</v>
-      </c>
-      <c r="B102" s="90" t="s">
-        <v>298</v>
-      </c>
-      <c r="C102" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D102" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="E102" s="90" t="s">
-        <v>292</v>
-      </c>
-      <c r="F102" s="90"/>
-      <c r="G102" s="91"/>
-      <c r="H102" s="90"/>
-      <c r="I102" s="91"/>
+        <v>301</v>
+      </c>
+      <c r="B102" s="88" t="s">
+        <v>302</v>
+      </c>
+      <c r="C102" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="D102" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="E102" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="F102" s="88"/>
+      <c r="G102" s="89"/>
+      <c r="H102" s="88"/>
+      <c r="I102" s="89"/>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>299</v>
-      </c>
-      <c r="B103" s="90" t="s">
-        <v>300</v>
-      </c>
-      <c r="C103" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D103" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="E103" s="90" t="s">
-        <v>292</v>
-      </c>
-      <c r="F103" s="90"/>
-      <c r="G103" s="91"/>
-      <c r="H103" s="90"/>
-      <c r="I103" s="91"/>
+        <v>303</v>
+      </c>
+      <c r="B103" s="88" t="s">
+        <v>304</v>
+      </c>
+      <c r="C103" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="D103" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="E103" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="F103" s="88"/>
+      <c r="G103" s="89"/>
+      <c r="H103" s="88"/>
+      <c r="I103" s="89"/>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>301</v>
-      </c>
-      <c r="B104" s="90" t="s">
-        <v>302</v>
-      </c>
-      <c r="C104" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D104" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="E104" s="90" t="s">
-        <v>292</v>
-      </c>
-      <c r="F104" s="90"/>
-      <c r="G104" s="91"/>
-      <c r="H104" s="90"/>
-      <c r="I104" s="91"/>
+        <v>305</v>
+      </c>
+      <c r="B104" s="88" t="s">
+        <v>306</v>
+      </c>
+      <c r="C104" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="D104" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="E104" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="F104" s="88"/>
+      <c r="G104" s="89"/>
+      <c r="H104" s="88"/>
+      <c r="I104" s="89"/>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>303</v>
-      </c>
-      <c r="B105" s="90" t="s">
-        <v>304</v>
-      </c>
-      <c r="C105" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D105" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="E105" s="90" t="s">
-        <v>292</v>
-      </c>
-      <c r="F105" s="90"/>
-      <c r="G105" s="91"/>
-      <c r="H105" s="90"/>
-      <c r="I105" s="91"/>
+        <v>307</v>
+      </c>
+      <c r="B105" s="88" t="s">
+        <v>308</v>
+      </c>
+      <c r="C105" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="D105" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="E105" s="88" t="s">
+        <v>159</v>
+      </c>
+      <c r="F105" s="88"/>
+      <c r="G105" s="89"/>
+      <c r="H105" s="88"/>
+      <c r="I105" s="89"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>305</v>
-      </c>
-      <c r="B106" s="90" t="s">
-        <v>306</v>
-      </c>
-      <c r="C106" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D106" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="E106" s="90" t="s">
-        <v>292</v>
-      </c>
-      <c r="F106" s="90"/>
-      <c r="G106" s="91"/>
-      <c r="H106" s="90"/>
-      <c r="I106" s="91"/>
+        <v>309</v>
+      </c>
+      <c r="B106" s="88" t="s">
+        <v>310</v>
+      </c>
+      <c r="C106" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="D106" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="E106" s="88" t="s">
+        <v>311</v>
+      </c>
+      <c r="F106" s="88"/>
+      <c r="G106" s="89"/>
+      <c r="H106" s="88"/>
+      <c r="I106" s="89"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>307</v>
-      </c>
-      <c r="B107" s="90" t="s">
-        <v>308</v>
-      </c>
-      <c r="C107" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D107" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="E107" s="90" t="s">
-        <v>292</v>
-      </c>
-      <c r="F107" s="90"/>
-      <c r="G107" s="91"/>
-      <c r="H107" s="90"/>
-      <c r="I107" s="91"/>
+        <v>312</v>
+      </c>
+      <c r="B107" s="88" t="s">
+        <v>313</v>
+      </c>
+      <c r="C107" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="D107" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="E107" s="88" t="s">
+        <v>311</v>
+      </c>
+      <c r="F107" s="88"/>
+      <c r="G107" s="89"/>
+      <c r="H107" s="88"/>
+      <c r="I107" s="89"/>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>309</v>
-      </c>
-      <c r="B108" s="90" t="s">
-        <v>310</v>
-      </c>
-      <c r="C108" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D108" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="E108" s="90" t="s">
-        <v>292</v>
-      </c>
-      <c r="F108" s="90"/>
-      <c r="G108" s="91"/>
-      <c r="H108" s="90"/>
-      <c r="I108" s="91"/>
+        <v>314</v>
+      </c>
+      <c r="B108" s="88" t="s">
+        <v>315</v>
+      </c>
+      <c r="C108" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="D108" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="E108" s="88" t="s">
+        <v>311</v>
+      </c>
+      <c r="F108" s="88"/>
+      <c r="G108" s="89"/>
+      <c r="H108" s="88"/>
+      <c r="I108" s="89"/>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
+        <v>316</v>
+      </c>
+      <c r="B109" s="88" t="s">
+        <v>317</v>
+      </c>
+      <c r="C109" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="D109" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="E109" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="B109" s="90" t="s">
-        <v>312</v>
-      </c>
-      <c r="C109" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D109" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="E109" s="90" t="s">
-        <v>292</v>
-      </c>
-      <c r="F109" s="90"/>
-      <c r="G109" s="91"/>
-      <c r="H109" s="90"/>
-      <c r="I109" s="91"/>
+      <c r="F109" s="88"/>
+      <c r="G109" s="89"/>
+      <c r="H109" s="88"/>
+      <c r="I109" s="89"/>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>313</v>
-      </c>
-      <c r="B110" s="90" t="s">
-        <v>314</v>
-      </c>
-      <c r="C110" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D110" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="E110" s="90" t="s">
-        <v>156</v>
-      </c>
-      <c r="F110" s="90"/>
-      <c r="G110" s="91"/>
-      <c r="H110" s="90"/>
-      <c r="I110" s="91"/>
+        <v>318</v>
+      </c>
+      <c r="B110" s="88" t="s">
+        <v>319</v>
+      </c>
+      <c r="C110" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="D110" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="E110" s="88" t="s">
+        <v>311</v>
+      </c>
+      <c r="F110" s="88"/>
+      <c r="G110" s="89"/>
+      <c r="H110" s="88"/>
+      <c r="I110" s="89"/>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>315</v>
-      </c>
-      <c r="B111" s="90" t="s">
-        <v>316</v>
-      </c>
-      <c r="C111" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D111" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="E111" s="90" t="s">
-        <v>317</v>
-      </c>
-      <c r="F111" s="90"/>
-      <c r="G111" s="91"/>
-      <c r="H111" s="90"/>
-      <c r="I111" s="91"/>
+        <v>320</v>
+      </c>
+      <c r="B111" s="88" t="s">
+        <v>321</v>
+      </c>
+      <c r="C111" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="D111" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="E111" s="88" t="s">
+        <v>311</v>
+      </c>
+      <c r="F111" s="88"/>
+      <c r="G111" s="89"/>
+      <c r="H111" s="88"/>
+      <c r="I111" s="89"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>318</v>
-      </c>
-      <c r="B112" s="90" t="s">
-        <v>319</v>
-      </c>
-      <c r="C112" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D112" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="E112" s="90" t="s">
-        <v>317</v>
-      </c>
-      <c r="F112" s="90"/>
-      <c r="G112" s="91"/>
-      <c r="H112" s="90"/>
-      <c r="I112" s="91"/>
+        <v>322</v>
+      </c>
+      <c r="B112" s="88" t="s">
+        <v>323</v>
+      </c>
+      <c r="C112" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="D112" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="E112" s="88" t="s">
+        <v>311</v>
+      </c>
+      <c r="F112" s="88"/>
+      <c r="G112" s="89"/>
+      <c r="H112" s="88"/>
+      <c r="I112" s="89"/>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>320</v>
-      </c>
-      <c r="B113" s="90" t="s">
-        <v>321</v>
-      </c>
-      <c r="C113" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D113" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="E113" s="90" t="s">
-        <v>317</v>
-      </c>
-      <c r="F113" s="90"/>
-      <c r="G113" s="91"/>
-      <c r="H113" s="90"/>
-      <c r="I113" s="91"/>
-    </row>
-    <row r="114" spans="1:9">
+        <v>324</v>
+      </c>
+      <c r="B113" s="88" t="s">
+        <v>325</v>
+      </c>
+      <c r="C113" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="D113" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="E113" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="F113" s="88"/>
+      <c r="G113" s="89"/>
+      <c r="H113" s="88"/>
+      <c r="I113" s="89"/>
+    </row>
+    <row r="114" ht="24" spans="1:9">
       <c r="A114" t="s">
-        <v>322</v>
-      </c>
-      <c r="B114" s="90" t="s">
-        <v>323</v>
-      </c>
-      <c r="C114" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D114" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="E114" s="90" t="s">
-        <v>317</v>
-      </c>
-      <c r="F114" s="90"/>
-      <c r="G114" s="91"/>
-      <c r="H114" s="90"/>
-      <c r="I114" s="91"/>
-    </row>
-    <row r="115" spans="1:9">
+        <v>326</v>
+      </c>
+      <c r="B114" s="88" t="s">
+        <v>327</v>
+      </c>
+      <c r="C114" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="D114" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="E114" s="88" t="s">
+        <v>328</v>
+      </c>
+      <c r="F114" s="88"/>
+      <c r="G114" s="89"/>
+      <c r="H114" s="88"/>
+      <c r="I114" s="89"/>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>324</v>
-      </c>
-      <c r="B115" s="90" t="s">
-        <v>325</v>
-      </c>
-      <c r="C115" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D115" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="E115" s="90" t="s">
-        <v>317</v>
-      </c>
-      <c r="F115" s="90"/>
-      <c r="G115" s="91"/>
-      <c r="H115" s="90"/>
-      <c r="I115" s="91"/>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" t="s">
-        <v>326</v>
-      </c>
-      <c r="B116" s="90" t="s">
-        <v>327</v>
-      </c>
-      <c r="C116" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D116" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="E116" s="90" t="s">
-        <v>317</v>
-      </c>
-      <c r="F116" s="90"/>
-      <c r="G116" s="91"/>
-      <c r="H116" s="90"/>
-      <c r="I116" s="91"/>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117" t="s">
-        <v>328</v>
-      </c>
-      <c r="B117" s="90" t="s">
         <v>329</v>
       </c>
-      <c r="C117" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D117" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="E117" s="90" t="s">
-        <v>317</v>
-      </c>
-      <c r="F117" s="90"/>
-      <c r="G117" s="91"/>
-      <c r="H117" s="90"/>
-      <c r="I117" s="91"/>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" t="s">
+      <c r="B115" s="88" t="s">
         <v>330</v>
       </c>
-      <c r="B118" s="90" t="s">
+      <c r="C115" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="D115" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="E115" s="88" t="s">
         <v>331</v>
-      </c>
-      <c r="C118" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D118" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="E118" s="90" t="s">
-        <v>292</v>
-      </c>
-      <c r="F118" s="90"/>
-      <c r="G118" s="91"/>
-      <c r="H118" s="90"/>
-      <c r="I118" s="91"/>
-    </row>
-    <row r="119" ht="24" spans="1:9">
-      <c r="A119" t="s">
-        <v>332</v>
-      </c>
-      <c r="B119" s="90" t="s">
-        <v>333</v>
-      </c>
-      <c r="C119" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D119" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="E119" s="90" t="s">
-        <v>334</v>
-      </c>
-      <c r="F119" s="90"/>
-      <c r="G119" s="91"/>
-      <c r="H119" s="90"/>
-      <c r="I119" s="91"/>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" t="s">
-        <v>335</v>
-      </c>
-      <c r="B120" s="90" t="s">
-        <v>336</v>
-      </c>
-      <c r="C120" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D120" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="E120" s="90" t="s">
-        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -8017,10 +7879,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="J24 E16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8036,34 +7898,34 @@
     <row r="1" spans="1:11">
       <c r="A1" s="77"/>
       <c r="B1" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>335</v>
+      </c>
+      <c r="F1" s="77" t="s">
+        <v>336</v>
+      </c>
+      <c r="G1" s="77" t="s">
+        <v>337</v>
+      </c>
+      <c r="H1" s="77" t="s">
         <v>338</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="I1" s="77" t="s">
+        <v>337</v>
+      </c>
+      <c r="J1" s="77" t="s">
         <v>339</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="K1" s="77" t="s">
         <v>340</v>
-      </c>
-      <c r="E1" s="77" t="s">
-        <v>341</v>
-      </c>
-      <c r="F1" s="77" t="s">
-        <v>342</v>
-      </c>
-      <c r="G1" s="77" t="s">
-        <v>343</v>
-      </c>
-      <c r="H1" s="77" t="s">
-        <v>344</v>
-      </c>
-      <c r="I1" s="77" t="s">
-        <v>343</v>
-      </c>
-      <c r="J1" s="77" t="s">
-        <v>345</v>
-      </c>
-      <c r="K1" s="77" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -8071,32 +7933,32 @@
         <v>33</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C2" s="79">
-        <v>45181</v>
+        <v>45547</v>
       </c>
       <c r="D2" s="79" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E2" s="79">
-        <v>45189</v>
+        <v>45555</v>
       </c>
       <c r="F2" s="79">
-        <v>45188</v>
+        <v>45554</v>
       </c>
       <c r="G2" s="78" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H2" s="78"/>
       <c r="I2" s="78" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="J2" s="78" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K2" s="78" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8104,32 +7966,32 @@
         <v>24</v>
       </c>
       <c r="B3" s="78" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C3" s="79">
-        <v>45181</v>
+        <v>45547</v>
       </c>
       <c r="D3" s="79" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E3" s="79">
-        <v>45189</v>
+        <v>45555</v>
       </c>
       <c r="F3" s="79">
-        <v>45188</v>
+        <v>45554</v>
       </c>
       <c r="G3" s="78" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H3" s="78"/>
       <c r="I3" s="78" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="J3" s="78" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K3" s="78" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -8137,191 +7999,193 @@
         <v>28</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C4" s="79">
-        <v>45181</v>
+        <v>45547</v>
       </c>
       <c r="D4" s="79" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E4" s="79">
-        <v>45189</v>
+        <v>45555</v>
       </c>
       <c r="F4" s="79">
-        <v>45188</v>
+        <v>45554</v>
       </c>
       <c r="G4" s="78" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H4" s="78"/>
       <c r="I4" s="78" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="J4" s="78" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K4" s="78" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="78"/>
       <c r="B5" s="78" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C5" s="79">
-        <v>45181</v>
+        <v>45547</v>
       </c>
       <c r="D5" s="79" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E5" s="79">
-        <v>45189</v>
+        <v>45555</v>
       </c>
       <c r="F5" s="79">
-        <v>45188</v>
+        <v>45554</v>
       </c>
       <c r="G5" s="78" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H5" s="78" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I5" s="78" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="J5" s="78" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K5" s="78" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="78"/>
       <c r="B6" s="78" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C6" s="79">
-        <v>45181</v>
+        <v>45547</v>
       </c>
       <c r="D6" s="79" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E6" s="79">
-        <v>45189</v>
+        <v>45555</v>
       </c>
       <c r="F6" s="79">
-        <v>45188</v>
+        <v>45554</v>
       </c>
       <c r="G6" s="78" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H6" s="78"/>
       <c r="I6" s="78" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="J6" s="78" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K6" s="78" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="78"/>
       <c r="B7" s="78" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C7" s="79">
-        <v>45181</v>
+        <v>45547</v>
       </c>
       <c r="D7" s="79" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E7" s="79">
-        <v>45189</v>
+        <v>45555</v>
       </c>
       <c r="F7" s="79">
-        <v>45188</v>
+        <v>45554</v>
       </c>
       <c r="G7" s="78" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H7" s="78" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="I7" s="78" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="J7" s="78" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K7" s="78" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:11">
       <c r="A8" s="78"/>
       <c r="B8" s="78" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C8" s="79">
-        <v>45188</v>
+        <v>45554</v>
       </c>
       <c r="D8" s="79" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E8" s="79">
-        <v>45189</v>
+        <v>45555</v>
       </c>
       <c r="F8" s="79">
-        <v>45188</v>
+        <v>45554</v>
       </c>
       <c r="G8" s="78" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H8" s="78"/>
       <c r="I8" s="78" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="J8" s="78" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K8" s="78" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" s="76" customFormat="1" spans="1:11">
       <c r="A9" s="80"/>
       <c r="B9" s="80" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C9" s="81">
-        <v>45189</v>
+        <v>45555</v>
       </c>
       <c r="D9" s="81" t="s">
-        <v>348</v>
-      </c>
-      <c r="E9" s="81"/>
+        <v>342</v>
+      </c>
+      <c r="E9" s="79">
+        <v>45577</v>
+      </c>
       <c r="F9" s="81">
-        <v>45207</v>
-      </c>
-      <c r="G9" s="81" t="s">
-        <v>362</v>
+        <v>45573</v>
+      </c>
+      <c r="G9" s="78" t="s">
+        <v>343</v>
       </c>
       <c r="H9" s="80" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="I9" s="80" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="J9" s="80" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="K9" s="80" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" s="76" customFormat="1" spans="1:11">
@@ -8329,32 +8193,34 @@
         <v>14</v>
       </c>
       <c r="B10" s="80" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C10" s="81">
-        <v>45181</v>
+        <v>45547</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>348</v>
-      </c>
-      <c r="E10" s="81"/>
+        <v>342</v>
+      </c>
+      <c r="E10" s="79">
+        <v>45577</v>
+      </c>
       <c r="F10" s="81">
-        <v>45207</v>
-      </c>
-      <c r="G10" s="81" t="s">
-        <v>362</v>
+        <v>45573</v>
+      </c>
+      <c r="G10" s="78" t="s">
+        <v>343</v>
       </c>
       <c r="H10" s="80" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="I10" s="80" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="J10" s="80" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="K10" s="80" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" s="76" customFormat="1" spans="1:11">
@@ -8362,32 +8228,37 @@
         <v>37</v>
       </c>
       <c r="B11" s="80" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C11" s="81">
-        <v>45181</v>
+        <v>45547</v>
       </c>
       <c r="D11" s="81" t="s">
-        <v>348</v>
-      </c>
-      <c r="E11" s="81"/>
+        <v>342</v>
+      </c>
+      <c r="E11" s="79">
+        <v>45577</v>
+      </c>
       <c r="F11" s="81">
-        <v>45207</v>
-      </c>
-      <c r="G11" s="81" t="s">
-        <v>370</v>
+        <v>45573</v>
+      </c>
+      <c r="G11" s="78" t="s">
+        <v>343</v>
       </c>
       <c r="H11" s="80"/>
       <c r="I11" s="80" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="J11" s="80" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="K11" s="80" t="s">
-        <v>371</v>
-      </c>
-    </row>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="12" s="76" customFormat="1"/>
+    <row r="13" s="76" customFormat="1"/>
+    <row r="14" s="76" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -8414,41 +8285,41 @@
   <sheetData>
     <row r="1" ht="21" spans="1:5">
       <c r="A1" s="74" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B1" s="74" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D1" s="74" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="E1" s="74" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" ht="21" spans="1:5">
       <c r="A2" s="74" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E2" s="75" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" ht="21" spans="1:5">
       <c r="A3" s="74" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B3" s="14">
         <v>5</v>
@@ -8465,44 +8336,44 @@
     </row>
     <row r="4" ht="21" spans="1:6">
       <c r="A4" s="74" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E4" s="75" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="F4" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" ht="21" spans="1:5">
       <c r="A5" s="74" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="E5" s="75" t="s">
         <v>380</v>
-      </c>
-      <c r="E5" s="75" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="6" ht="21" spans="1:5">
       <c r="A6" s="74" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B6" s="14">
         <v>1</v>
@@ -8519,22 +8390,22 @@
     </row>
     <row r="7" ht="21" spans="1:5">
       <c r="A7" s="74" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="75" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" ht="21" spans="1:5">
       <c r="A8" s="74" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B8" s="75">
         <v>0</v>
@@ -8551,7 +8422,7 @@
     </row>
     <row r="9" ht="21" spans="1:5">
       <c r="A9" s="74" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B9" s="75">
         <v>0</v>
@@ -8594,13 +8465,13 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="53" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D1" s="56"/>
       <c r="E1" s="57"/>
@@ -8613,16 +8484,16 @@
       <c r="A2" s="59"/>
       <c r="B2" s="60"/>
       <c r="C2" s="61" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F2" s="62" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G2" s="63"/>
     </row>
@@ -8631,23 +8502,23 @@
         <v>4000</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D3" s="66"/>
       <c r="E3" s="67"/>
       <c r="F3" s="64"/>
       <c r="G3" s="67" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="64"/>
       <c r="B4" s="68"/>
       <c r="C4" s="66" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D4" s="66"/>
       <c r="E4" s="67"/>
@@ -8659,16 +8530,16 @@
         <v>4001</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D5" s="66"/>
       <c r="E5" s="67"/>
       <c r="F5" s="64"/>
       <c r="G5" s="67" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8676,23 +8547,23 @@
         <v>4002</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D6" s="66"/>
       <c r="E6" s="67"/>
       <c r="F6" s="64"/>
       <c r="G6" s="69" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="71"/>
       <c r="B7" s="68"/>
       <c r="C7" s="66" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="D7" s="66"/>
       <c r="E7" s="67"/>
@@ -8703,10 +8574,10 @@
       <c r="A8" s="71"/>
       <c r="B8" s="68"/>
       <c r="C8" s="66" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E8" s="67"/>
       <c r="F8" s="64"/>
@@ -8716,7 +8587,7 @@
       <c r="A9" s="72"/>
       <c r="B9" s="73"/>
       <c r="C9" s="66" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="D9" s="66"/>
       <c r="E9" s="66"/>
@@ -8728,13 +8599,13 @@
         <v>4003</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="E10" s="66"/>
       <c r="F10" s="66"/>
@@ -8744,10 +8615,10 @@
       <c r="A11" s="72"/>
       <c r="B11" s="73"/>
       <c r="C11" s="66" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="D11" s="66" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="E11" s="66"/>
       <c r="F11" s="66"/>
@@ -8758,10 +8629,10 @@
         <v>4004</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C12" s="66" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="D12" s="66"/>
       <c r="E12" s="66"/>
@@ -8772,7 +8643,7 @@
       <c r="A13" s="72"/>
       <c r="B13" s="73"/>
       <c r="C13" s="66" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D13" s="66"/>
       <c r="E13" s="66"/>
@@ -8784,10 +8655,10 @@
         <v>4005</v>
       </c>
       <c r="B14" s="70" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C14" s="66" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D14" s="66"/>
       <c r="E14" s="66"/>
@@ -8798,7 +8669,7 @@
       <c r="A15" s="72"/>
       <c r="B15" s="73"/>
       <c r="C15" s="66" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D15" s="66"/>
       <c r="E15" s="66"/>
@@ -8810,10 +8681,10 @@
         <v>4006</v>
       </c>
       <c r="B16" s="70" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="D16" s="66"/>
       <c r="E16" s="66"/>
@@ -8824,7 +8695,7 @@
       <c r="A17" s="72"/>
       <c r="B17" s="73"/>
       <c r="C17" s="66" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D17" s="66"/>
       <c r="E17" s="66"/>
@@ -8836,10 +8707,10 @@
         <v>4007</v>
       </c>
       <c r="B18" s="70" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="D18" s="66"/>
       <c r="E18" s="66"/>
@@ -8850,7 +8721,7 @@
       <c r="A19" s="72"/>
       <c r="B19" s="73"/>
       <c r="C19" s="66" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D19" s="66"/>
       <c r="E19" s="66"/>
@@ -8862,10 +8733,10 @@
         <v>4008</v>
       </c>
       <c r="B20" s="70" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C20" s="66" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="D20" s="66"/>
       <c r="E20" s="67"/>
@@ -8876,7 +8747,7 @@
       <c r="A21" s="72"/>
       <c r="B21" s="73"/>
       <c r="C21" s="66" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="D21" s="66"/>
       <c r="E21" s="67"/>

--- a/equipment_cyg/product/zhong_che_yi_xing/zhong_che_yi_xing_manual.xlsx
+++ b/equipment_cyg/product/zhong_che_yi_xing/zhong_che_yi_xing_manual.xlsx
@@ -2675,7 +2675,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2920,13 +2920,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3895,225 +3889,225 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17.1333333333333" style="105" customWidth="1"/>
-    <col min="2" max="2" width="9" style="105"/>
-    <col min="3" max="3" width="27.7333333333333" style="105" customWidth="1"/>
-    <col min="4" max="4" width="4.75833333333333" style="105" customWidth="1"/>
-    <col min="5" max="5" width="17.1333333333333" style="105" customWidth="1"/>
-    <col min="6" max="6" width="9" style="105"/>
-    <col min="7" max="7" width="29.525" style="105" customWidth="1"/>
-    <col min="8" max="8" width="42.5" style="105" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="105"/>
+    <col min="1" max="1" width="17.1333333333333" style="103" customWidth="1"/>
+    <col min="2" max="2" width="9" style="103"/>
+    <col min="3" max="3" width="27.7333333333333" style="103" customWidth="1"/>
+    <col min="4" max="4" width="4.75833333333333" style="103" customWidth="1"/>
+    <col min="5" max="5" width="17.1333333333333" style="103" customWidth="1"/>
+    <col min="6" max="6" width="9" style="103"/>
+    <col min="7" max="7" width="29.525" style="103" customWidth="1"/>
+    <col min="8" max="8" width="42.5" style="103" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="103"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="114"/>
-      <c r="E1" s="113" t="s">
+      <c r="D1" s="112"/>
+      <c r="E1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="113" t="s">
+      <c r="G1" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="113" t="s">
+      <c r="H1" s="111" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="115" t="s">
+      <c r="E2" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="115" t="s">
+      <c r="F2" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115" t="s">
+      <c r="G2" s="113"/>
+      <c r="H2" s="113" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:8">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="115" t="s">
+      <c r="E3" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="115" t="s">
+      <c r="F3" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="115"/>
-      <c r="H3" s="116" t="s">
+      <c r="G3" s="113"/>
+      <c r="H3" s="114" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="1:8">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="115" t="s">
+      <c r="E4" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="115" t="s">
+      <c r="F4" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="115" t="s">
+      <c r="G4" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="116" t="s">
+      <c r="H4" s="114" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="115"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="E5" s="115" t="s">
+      <c r="A5" s="113"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="E5" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="115" t="s">
+      <c r="F5" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="115" t="s">
+      <c r="G5" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="115"/>
+      <c r="H5" s="113"/>
     </row>
     <row r="6" ht="54" spans="1:8">
-      <c r="A6" s="115"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="E6" s="115" t="s">
+      <c r="A6" s="113"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="E6" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="115" t="s">
+      <c r="F6" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="116" t="s">
+      <c r="G6" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="116" t="s">
+      <c r="H6" s="114" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="115" t="s">
+      <c r="E7" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="115" t="s">
+      <c r="F7" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="115" t="s">
+      <c r="G7" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="116" t="s">
+      <c r="H7" s="114" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="115" t="s">
+      <c r="E8" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="115" t="s">
+      <c r="F8" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="116" t="s">
+      <c r="G8" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="116" t="s">
+      <c r="H8" s="114" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="115" t="s">
+      <c r="A9" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="113" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="115" t="s">
+      <c r="E9" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="115" t="s">
+      <c r="F9" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="115" t="s">
+      <c r="G9" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="115"/>
+      <c r="H9" s="113"/>
     </row>
     <row r="10" ht="27" spans="1:8">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="115" t="s">
+      <c r="E10" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="115" t="s">
+      <c r="F10" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="115" t="s">
+      <c r="G10" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="116" t="s">
+      <c r="H10" s="114" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4859,478 +4853,478 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="105" customWidth="1"/>
-    <col min="2" max="2" width="30.6333333333333" style="105" customWidth="1"/>
-    <col min="3" max="3" width="25.6333333333333" style="105" customWidth="1"/>
-    <col min="4" max="4" width="11.1333333333333" style="105" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="105" customWidth="1"/>
-    <col min="6" max="6" width="32.625" style="105" customWidth="1"/>
-    <col min="7" max="7" width="17.8833333333333" style="105" customWidth="1"/>
-    <col min="8" max="8" width="28.25" style="105" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="105"/>
+    <col min="1" max="1" width="15.25" style="103" customWidth="1"/>
+    <col min="2" max="2" width="30.6333333333333" style="103" customWidth="1"/>
+    <col min="3" max="3" width="25.6333333333333" style="103" customWidth="1"/>
+    <col min="4" max="4" width="11.1333333333333" style="103" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="103" customWidth="1"/>
+    <col min="6" max="6" width="32.625" style="103" customWidth="1"/>
+    <col min="7" max="7" width="17.8833333333333" style="103" customWidth="1"/>
+    <col min="8" max="8" width="28.25" style="103" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="103"/>
   </cols>
   <sheetData>
-    <row r="1" s="105" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A1" s="97" t="s">
+    <row r="1" s="103" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A1" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="97" t="s">
+      <c r="G1" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="97" t="s">
+      <c r="H1" s="95" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" s="105" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A2" s="98">
+    <row r="2" s="103" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A2" s="96">
         <v>1001</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="98">
+      <c r="D2" s="96">
         <v>1</v>
       </c>
-      <c r="E2" s="98">
+      <c r="E2" s="96">
         <v>501</v>
       </c>
-      <c r="F2" s="98" t="s">
+      <c r="F2" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="98" t="s">
+      <c r="G2" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="98" t="s">
+      <c r="H2" s="96" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" s="105" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A3" s="98">
+    <row r="3" s="103" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A3" s="96">
         <v>1002</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="98">
+      <c r="D3" s="96">
         <v>2</v>
       </c>
-      <c r="E3" s="98">
+      <c r="E3" s="96">
         <v>502</v>
       </c>
-      <c r="F3" s="98" t="s">
+      <c r="F3" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="98" t="s">
+      <c r="G3" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="98" t="s">
+      <c r="H3" s="96" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" s="105" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A4" s="107">
+    <row r="4" s="103" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A4" s="105">
         <v>1003</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="107">
+      <c r="D4" s="105">
         <v>3</v>
       </c>
-      <c r="E4" s="98">
+      <c r="E4" s="96">
         <v>503</v>
       </c>
-      <c r="F4" s="98" t="s">
+      <c r="F4" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="98" t="s">
+      <c r="G4" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="98" t="s">
+      <c r="H4" s="96" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" s="105" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A5" s="109"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="98">
+    <row r="5" s="103" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A5" s="107"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="96">
         <v>516</v>
       </c>
-      <c r="F5" s="98" t="s">
+      <c r="F5" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="98" t="s">
+      <c r="G5" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="98" t="s">
+      <c r="H5" s="96" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" s="105" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A6" s="111"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="98">
+    <row r="6" s="103" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A6" s="109"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="96">
         <v>517</v>
       </c>
-      <c r="F6" s="98" t="s">
+      <c r="F6" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="98" t="s">
+      <c r="G6" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="98" t="s">
+      <c r="H6" s="96" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" s="105" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A7" s="109">
+    <row r="7" s="103" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A7" s="107">
         <v>1004</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="106" t="s">
+      <c r="C7" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="109">
+      <c r="D7" s="107">
         <v>4</v>
       </c>
-      <c r="E7" s="98">
+      <c r="E7" s="96">
         <v>504</v>
       </c>
-      <c r="F7" s="98" t="s">
+      <c r="F7" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="98" t="s">
+      <c r="G7" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="98" t="s">
+      <c r="H7" s="96" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" s="105" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A8" s="109"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="98">
+    <row r="8" s="103" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="96">
         <v>527</v>
       </c>
-      <c r="F8" s="98" t="s">
+      <c r="F8" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="98" t="s">
+      <c r="G8" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="98" t="s">
+      <c r="H8" s="96" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" s="105" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A9" s="111"/>
-      <c r="B9" s="111"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="98">
+    <row r="9" s="103" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A9" s="109"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="96">
         <v>528</v>
       </c>
-      <c r="F9" s="98" t="s">
+      <c r="F9" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="98" t="s">
+      <c r="G9" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="98" t="s">
+      <c r="H9" s="96" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" s="105" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A10" s="107">
+    <row r="10" s="103" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A10" s="105">
         <v>1005</v>
       </c>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="108" t="s">
+      <c r="C10" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="107">
+      <c r="D10" s="105">
         <v>5</v>
       </c>
-      <c r="E10" s="98">
+      <c r="E10" s="96">
         <v>505</v>
       </c>
-      <c r="F10" s="98" t="s">
+      <c r="F10" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="98" t="s">
+      <c r="G10" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="98" t="s">
+      <c r="H10" s="96" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" s="105" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A11" s="109"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="98">
+    <row r="11" s="103" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A11" s="107"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="96">
         <v>506</v>
       </c>
-      <c r="F11" s="98" t="s">
+      <c r="F11" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="98" t="s">
+      <c r="G11" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="98" t="s">
+      <c r="H11" s="96" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" s="105" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A12" s="109"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="98">
+    <row r="12" s="103" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="96">
         <v>507</v>
       </c>
-      <c r="F12" s="98" t="s">
+      <c r="F12" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="98" t="s">
+      <c r="G12" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="98" t="s">
+      <c r="H12" s="96" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" s="105" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A13" s="109"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="98">
+    <row r="13" s="103" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A13" s="107"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="96">
         <v>508</v>
       </c>
-      <c r="F13" s="98" t="s">
+      <c r="F13" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="98" t="s">
+      <c r="G13" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="98" t="s">
+      <c r="H13" s="96" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" s="105" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A14" s="111"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="98">
+    <row r="14" s="103" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A14" s="109"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="96">
         <v>6</v>
       </c>
-      <c r="E14" s="98">
+      <c r="E14" s="96">
         <v>509</v>
       </c>
-      <c r="F14" s="98" t="s">
+      <c r="F14" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="98" t="s">
+      <c r="G14" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="98" t="s">
+      <c r="H14" s="96" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" s="105" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A15" s="107">
+    <row r="15" s="103" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A15" s="105">
         <v>1006</v>
       </c>
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="107">
+      <c r="D15" s="105">
         <v>7</v>
       </c>
-      <c r="E15" s="98">
+      <c r="E15" s="96">
         <v>506</v>
       </c>
-      <c r="F15" s="98" t="s">
+      <c r="F15" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="98" t="s">
+      <c r="G15" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="98" t="s">
+      <c r="H15" s="96" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" s="105" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A16" s="109"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="98">
+    <row r="16" s="103" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A16" s="107"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="96">
         <v>508</v>
       </c>
-      <c r="F16" s="98" t="s">
+      <c r="F16" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="98" t="s">
+      <c r="G16" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="98" t="s">
+      <c r="H16" s="96" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" s="105" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A17" s="111"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="98">
+    <row r="17" s="103" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A17" s="109"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="96">
         <v>6</v>
       </c>
-      <c r="E17" s="98">
+      <c r="E17" s="96">
         <v>509</v>
       </c>
-      <c r="F17" s="98" t="s">
+      <c r="F17" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="98" t="s">
+      <c r="G17" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="98" t="s">
+      <c r="H17" s="96" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" s="105" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A18" s="107">
+    <row r="18" s="103" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A18" s="105">
         <v>1007</v>
       </c>
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="107">
+      <c r="D18" s="105">
         <v>8</v>
       </c>
-      <c r="E18" s="98">
+      <c r="E18" s="96">
         <v>505</v>
       </c>
-      <c r="F18" s="98" t="s">
+      <c r="F18" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="98" t="s">
+      <c r="G18" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="98" t="s">
+      <c r="H18" s="96" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" s="105" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A19" s="109"/>
-      <c r="B19" s="109"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="98">
+    <row r="19" s="103" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A19" s="107"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="96">
         <v>523</v>
       </c>
-      <c r="F19" s="98" t="s">
+      <c r="F19" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="98" t="s">
+      <c r="G19" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="98" t="s">
+      <c r="H19" s="96" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" s="105" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A20" s="109"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="98">
+    <row r="20" s="103" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A20" s="107"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="96">
         <v>524</v>
       </c>
-      <c r="F20" s="98" t="s">
+      <c r="F20" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="98" t="s">
+      <c r="G20" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="98" t="s">
+      <c r="H20" s="96" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" ht="18.75" spans="1:8">
-      <c r="A21" s="109"/>
-      <c r="B21" s="109"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="98">
+      <c r="A21" s="107"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="96">
         <v>525</v>
       </c>
-      <c r="F21" s="98" t="s">
+      <c r="F21" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="98" t="s">
+      <c r="G21" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="98" t="s">
+      <c r="H21" s="96" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="22" ht="18.75" spans="1:8">
-      <c r="A22" s="111"/>
-      <c r="B22" s="111"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="98">
+      <c r="A22" s="109"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="96">
         <v>526</v>
       </c>
-      <c r="F22" s="98" t="s">
+      <c r="F22" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="98" t="s">
+      <c r="G22" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="98" t="s">
+      <c r="H22" s="96" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5375,7 +5369,7 @@
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="29.3833333333333" customWidth="1"/>
-    <col min="3" max="3" width="5.38333333333333" style="100" customWidth="1"/>
+    <col min="3" max="3" width="5.38333333333333" style="98" customWidth="1"/>
     <col min="4" max="4" width="29.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5391,10 +5385,10 @@
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:3">
-      <c r="A2" s="101">
+      <c r="A2" s="99">
         <v>0</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="100" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -5402,16 +5396,16 @@
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:4">
-      <c r="A3" s="101">
+      <c r="A3" s="99">
         <v>1</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="101" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="102" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5419,13 +5413,13 @@
       <c r="A4" s="75">
         <v>10</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="100" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="104"/>
+      <c r="D4" s="102"/>
     </row>
     <row r="5" ht="16.5" spans="1:4">
       <c r="A5" s="75">
@@ -5437,7 +5431,7 @@
       <c r="C5" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="104"/>
+      <c r="D5" s="102"/>
     </row>
     <row r="6" ht="16.5" spans="1:4">
       <c r="A6" s="75">
@@ -5449,7 +5443,7 @@
       <c r="C6" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="104"/>
+      <c r="D6" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5473,342 +5467,342 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.13333333333333" style="96" customWidth="1"/>
-    <col min="2" max="2" width="41" style="96" customWidth="1"/>
-    <col min="3" max="3" width="21.3833333333333" style="96" customWidth="1"/>
-    <col min="4" max="4" width="25.1333333333333" style="96" customWidth="1"/>
-    <col min="5" max="5" width="36" style="96" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="96"/>
+    <col min="1" max="1" width="9.13333333333333" style="94" customWidth="1"/>
+    <col min="2" max="2" width="41" style="94" customWidth="1"/>
+    <col min="3" max="3" width="21.3833333333333" style="94" customWidth="1"/>
+    <col min="4" max="4" width="25.1333333333333" style="94" customWidth="1"/>
+    <col min="5" max="5" width="36" style="94" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" s="96" customFormat="1" spans="1:5">
-      <c r="A1" s="97" t="s">
+    <row r="1" s="94" customFormat="1" spans="1:5">
+      <c r="A1" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="95" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" s="96" customFormat="1" ht="37.5" spans="1:5">
-      <c r="A2" s="98">
+    <row r="2" s="94" customFormat="1" ht="37.5" spans="1:5">
+      <c r="A2" s="96">
         <v>501</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="98" t="s">
+      <c r="D2" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="99" t="s">
+      <c r="E2" s="97" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" s="96" customFormat="1" ht="112.5" spans="1:5">
-      <c r="A3" s="98">
+    <row r="3" s="94" customFormat="1" ht="112.5" spans="1:5">
+      <c r="A3" s="96">
         <v>502</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="98" t="s">
+      <c r="D3" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="99" t="s">
+      <c r="E3" s="97" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="98">
+      <c r="A4" s="96">
         <v>503</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="99"/>
+      <c r="E4" s="97"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="98">
+      <c r="A5" s="96">
         <v>504</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="99"/>
+      <c r="E5" s="97"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="98">
+      <c r="A6" s="96">
         <v>505</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="98" t="s">
+      <c r="D6" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="99"/>
+      <c r="E6" s="97"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="98">
+      <c r="A7" s="96">
         <v>506</v>
       </c>
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="98" t="s">
+      <c r="D7" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="99"/>
+      <c r="E7" s="97"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="98">
+      <c r="A8" s="96">
         <v>507</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="98" t="s">
+      <c r="C8" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="98" t="s">
+      <c r="D8" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="99"/>
+      <c r="E8" s="97"/>
     </row>
     <row r="9" ht="75" spans="1:5">
-      <c r="A9" s="98">
+      <c r="A9" s="96">
         <v>508</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="98" t="s">
+      <c r="C9" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="97" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="98">
+      <c r="A10" s="96">
         <v>509</v>
       </c>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="98" t="s">
+      <c r="C10" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="98" t="s">
+      <c r="D10" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="99"/>
+      <c r="E10" s="97"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="98">
+      <c r="A11" s="96">
         <v>511</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="98" t="s">
+      <c r="C11" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="98" t="s">
+      <c r="D11" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="99"/>
+      <c r="E11" s="97"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="98">
+      <c r="A12" s="96">
         <v>512</v>
       </c>
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="96" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="98" t="s">
+      <c r="C12" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="98" t="s">
+      <c r="D12" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="E12" s="99"/>
+      <c r="E12" s="97"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="98">
+      <c r="A13" s="96">
         <v>513</v>
       </c>
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="98" t="s">
+      <c r="C13" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="98" t="s">
+      <c r="D13" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="99"/>
+      <c r="E13" s="97"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="98">
+      <c r="A14" s="96">
         <v>514</v>
       </c>
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="98" t="s">
+      <c r="C14" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="98" t="s">
+      <c r="D14" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="E14" s="99"/>
+      <c r="E14" s="97"/>
     </row>
     <row r="15" ht="56.25" spans="1:5">
-      <c r="A15" s="98">
+      <c r="A15" s="96">
         <v>516</v>
       </c>
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="98" t="s">
+      <c r="D15" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="99" t="s">
+      <c r="E15" s="97" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="98">
+      <c r="A16" s="96">
         <v>517</v>
       </c>
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="98" t="s">
+      <c r="C16" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="98" t="s">
+      <c r="D16" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="99"/>
+      <c r="E16" s="97"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="98">
+      <c r="A17" s="96">
         <v>523</v>
       </c>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="98" t="s">
+      <c r="C17" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="98" t="s">
+      <c r="D17" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="99"/>
+      <c r="E17" s="97"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="98">
+      <c r="A18" s="96">
         <v>524</v>
       </c>
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="98" t="s">
+      <c r="C18" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="98" t="s">
+      <c r="D18" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="99"/>
+      <c r="E18" s="97"/>
     </row>
     <row r="19" ht="37.5" spans="1:5">
-      <c r="A19" s="98">
+      <c r="A19" s="96">
         <v>525</v>
       </c>
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="98" t="s">
+      <c r="C19" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="98" t="s">
+      <c r="D19" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="99" t="s">
+      <c r="E19" s="97" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="20" ht="37.5" spans="1:5">
-      <c r="A20" s="98">
+      <c r="A20" s="96">
         <v>526</v>
       </c>
-      <c r="B20" s="98" t="s">
+      <c r="B20" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="98" t="s">
+      <c r="C20" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="98" t="s">
+      <c r="D20" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="99" t="s">
+      <c r="E20" s="97" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="98">
+      <c r="A21" s="96">
         <v>529</v>
       </c>
-      <c r="B21" s="98" t="s">
+      <c r="B21" s="96" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="98" t="s">
+      <c r="C21" s="96" t="s">
         <v>128</v>
       </c>
-      <c r="D21" s="98" t="s">
+      <c r="D21" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="99"/>
+      <c r="E21" s="97"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5836,46 +5830,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="90" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="40.5" spans="1:3">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="91" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="92" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="93" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="93" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="93" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5892,9 +5886,9 @@
   <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E115" sqref="E115"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5923,1948 +5917,1948 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A2" s="83" t="s">
+    <row r="2" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A2" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85"/>
-    </row>
-    <row r="3" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A3" s="86" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="83"/>
+    </row>
+    <row r="3" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A3" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="85" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A4" s="83" t="s">
+    <row r="4" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A4" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="85"/>
-    </row>
-    <row r="5" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A5" s="84" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="83"/>
+    </row>
+    <row r="5" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A5" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="85" t="s">
+      <c r="C5" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="83" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="6" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A6" s="83" t="s">
+    <row r="6" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A6" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="85"/>
-    </row>
-    <row r="7" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A7" s="84" t="s">
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="83"/>
+    </row>
+    <row r="7" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A7" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" s="85" t="s">
+      <c r="C7" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="8" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A8" s="83" t="s">
+    <row r="8" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A8" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="85"/>
-    </row>
-    <row r="9" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A9" s="84" t="s">
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="83"/>
+    </row>
+    <row r="9" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A9" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" s="85" t="s">
+      <c r="C9" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="10" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A10" s="83" t="s">
+    <row r="10" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A10" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="85"/>
-    </row>
-    <row r="11" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A11" s="86" t="s">
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="83"/>
+    </row>
+    <row r="11" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A11" s="84" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="E11" s="87" t="s">
+      <c r="E11" s="85" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="12" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A12" s="86" t="s">
+    <row r="12" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A12" s="84" t="s">
         <v>164</v>
       </c>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="87" t="s">
+      <c r="E12" s="85" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="13" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A13" s="86" t="s">
+    <row r="13" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A13" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="84" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="86" t="s">
+      <c r="D13" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="87" t="s">
+      <c r="E13" s="85" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A14" s="86" t="s">
+    <row r="14" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A14" s="84" t="s">
         <v>168</v>
       </c>
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="84" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="86" t="s">
+      <c r="D14" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="E14" s="87" t="s">
+      <c r="E14" s="85" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="15" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A15" s="84" t="s">
+    <row r="15" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A15" s="80" t="s">
         <v>170</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="80" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E15" s="85" t="s">
+      <c r="C15" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="83" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="16" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A16" s="84" t="s">
+    <row r="16" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A16" s="80" t="s">
         <v>172</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="80" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E16" s="85" t="s">
+      <c r="C16" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="17" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A17" s="84" t="s">
+    <row r="17" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A17" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="80" t="s">
         <v>167</v>
       </c>
-      <c r="C17" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D17" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E17" s="85" t="s">
+      <c r="C17" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="83" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="18" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A18" s="84" t="s">
+    <row r="18" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A18" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="80" t="s">
         <v>169</v>
       </c>
-      <c r="C18" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E18" s="85" t="s">
+      <c r="C18" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A19" s="83" t="s">
+    <row r="19" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A19" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="85"/>
-    </row>
-    <row r="20" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A20" s="84" t="s">
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="83"/>
+    </row>
+    <row r="20" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A20" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="C20" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E20" s="85" t="s">
+      <c r="C20" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="83" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="21" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A21" s="84" t="s">
+    <row r="21" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A21" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="80" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E21" s="85" t="s">
+      <c r="C21" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A22" s="84" t="s">
+    <row r="22" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A22" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="80" t="s">
         <v>167</v>
       </c>
-      <c r="C22" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D22" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E22" s="85" t="s">
+      <c r="C22" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="83" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="23" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A23" s="86" t="s">
+    <row r="23" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A23" s="84" t="s">
         <v>179</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="84" t="s">
         <v>180</v>
       </c>
-      <c r="C23" s="86" t="s">
+      <c r="C23" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="D23" s="86" t="s">
+      <c r="D23" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="E23" s="87" t="s">
+      <c r="E23" s="85" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="24" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A24" s="83" t="s">
+    <row r="24" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A24" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="85"/>
-    </row>
-    <row r="25" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A25" s="84" t="s">
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="83"/>
+    </row>
+    <row r="25" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A25" s="80" t="s">
         <v>181</v>
       </c>
-      <c r="B25" s="84" t="s">
+      <c r="B25" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="C25" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D25" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E25" s="85" t="s">
+      <c r="C25" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="83" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="26" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A26" s="84" t="s">
+    <row r="26" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A26" s="80" t="s">
         <v>183</v>
       </c>
-      <c r="B26" s="84" t="s">
+      <c r="B26" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="C26" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E26" s="85" t="s">
+      <c r="C26" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" s="83" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="27" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A27" s="84" t="s">
+    <row r="27" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A27" s="80" t="s">
         <v>185</v>
       </c>
-      <c r="B27" s="84" t="s">
+      <c r="B27" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="C27" s="84" t="s">
+      <c r="C27" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="D27" s="84" t="s">
+      <c r="D27" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="E27" s="85" t="s">
+      <c r="E27" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="28" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A28" s="86" t="s">
+    <row r="28" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A28" s="84" t="s">
         <v>187</v>
       </c>
-      <c r="B28" s="86" t="s">
+      <c r="B28" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="C28" s="86" t="s">
+      <c r="C28" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="86" t="s">
+      <c r="D28" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="E28" s="87" t="s">
+      <c r="E28" s="85" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="29" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A29" s="83" t="s">
+    <row r="29" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A29" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="85"/>
-    </row>
-    <row r="30" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A30" s="84" t="s">
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="83"/>
+    </row>
+    <row r="30" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A30" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="B30" s="84" t="s">
+      <c r="B30" s="80" t="s">
         <v>191</v>
       </c>
-      <c r="C30" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D30" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E30" s="85" t="s">
+      <c r="C30" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" s="83" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="31" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A31" s="84" t="s">
+    <row r="31" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A31" s="80" t="s">
         <v>192</v>
       </c>
-      <c r="B31" s="84" t="s">
+      <c r="B31" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="C31" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D31" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E31" s="85" t="s">
+      <c r="C31" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" s="83" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A32" s="84" t="s">
+    <row r="32" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A32" s="80" t="s">
         <v>193</v>
       </c>
-      <c r="B32" s="84" t="s">
+      <c r="B32" s="80" t="s">
         <v>194</v>
       </c>
-      <c r="C32" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D32" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E32" s="85" t="s">
+      <c r="C32" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="83" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="33" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A33" s="84" t="s">
+    <row r="33" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A33" s="80" t="s">
         <v>195</v>
       </c>
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="80" t="s">
         <v>196</v>
       </c>
-      <c r="C33" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D33" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E33" s="85" t="s">
+      <c r="C33" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="34" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A34" s="84" t="s">
+    <row r="34" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A34" s="80" t="s">
         <v>197</v>
       </c>
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D34" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E34" s="85" t="s">
+      <c r="C34" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="35" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A35" s="84" t="s">
+    <row r="35" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A35" s="80" t="s">
         <v>198</v>
       </c>
-      <c r="B35" s="84" t="s">
+      <c r="B35" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="C35" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D35" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E35" s="85" t="s">
+      <c r="C35" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A36" s="84" t="s">
+    <row r="36" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A36" s="80" t="s">
         <v>200</v>
       </c>
-      <c r="B36" s="84" t="s">
+      <c r="B36" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="C36" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D36" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E36" s="85" t="s">
+      <c r="C36" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="37" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A37" s="84" t="s">
+    <row r="37" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A37" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="B37" s="84" t="s">
+      <c r="B37" s="80" t="s">
         <v>203</v>
       </c>
-      <c r="C37" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D37" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E37" s="85" t="s">
+      <c r="C37" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="38" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A38" s="84" t="s">
+    <row r="38" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A38" s="80" t="s">
         <v>204</v>
       </c>
-      <c r="B38" s="84" t="s">
+      <c r="B38" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="C38" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D38" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E38" s="85" t="s">
+      <c r="C38" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E38" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="39" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A39" s="84" t="s">
+    <row r="39" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A39" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="B39" s="84" t="s">
+      <c r="B39" s="80" t="s">
         <v>207</v>
       </c>
-      <c r="C39" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D39" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E39" s="85" t="s">
+      <c r="C39" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A40" s="84" t="s">
+    <row r="40" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A40" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="B40" s="84" t="s">
+      <c r="B40" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="C40" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D40" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E40" s="85" t="s">
+      <c r="C40" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="41" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A41" s="84" t="s">
+    <row r="41" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A41" s="80" t="s">
         <v>210</v>
       </c>
-      <c r="B41" s="84" t="s">
+      <c r="B41" s="80" t="s">
         <v>211</v>
       </c>
-      <c r="C41" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D41" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E41" s="85" t="s">
+      <c r="C41" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="42" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A42" s="84" t="s">
+    <row r="42" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A42" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="B42" s="84" t="s">
+      <c r="B42" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="C42" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D42" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E42" s="85" t="s">
+      <c r="C42" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="43" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A43" s="84" t="s">
+    <row r="43" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A43" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="B43" s="84" t="s">
+      <c r="B43" s="80" t="s">
         <v>215</v>
       </c>
-      <c r="C43" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D43" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E43" s="85" t="s">
+      <c r="C43" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="44" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A44" s="84" t="s">
+    <row r="44" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A44" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="B44" s="84" t="s">
+      <c r="B44" s="80" t="s">
         <v>217</v>
       </c>
-      <c r="C44" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D44" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E44" s="85" t="s">
+      <c r="C44" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E44" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="45" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A45" s="84" t="s">
+    <row r="45" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A45" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="B45" s="84" t="s">
+      <c r="B45" s="80" t="s">
         <v>219</v>
       </c>
-      <c r="C45" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D45" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E45" s="85" t="s">
+      <c r="C45" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="46" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A46" s="84" t="s">
+    <row r="46" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A46" s="80" t="s">
         <v>220</v>
       </c>
-      <c r="B46" s="84" t="s">
+      <c r="B46" s="80" t="s">
         <v>221</v>
       </c>
-      <c r="C46" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D46" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E46" s="85" t="s">
+      <c r="C46" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E46" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="47" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A47" s="84" t="s">
+    <row r="47" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A47" s="80" t="s">
         <v>222</v>
       </c>
-      <c r="B47" s="84" t="s">
+      <c r="B47" s="80" t="s">
         <v>223</v>
       </c>
-      <c r="C47" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D47" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E47" s="85" t="s">
+      <c r="C47" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E47" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="48" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A48" s="84" t="s">
+    <row r="48" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A48" s="80" t="s">
         <v>224</v>
       </c>
-      <c r="B48" s="84" t="s">
+      <c r="B48" s="80" t="s">
         <v>225</v>
       </c>
-      <c r="C48" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D48" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E48" s="85" t="s">
+      <c r="C48" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="49" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A49" s="84" t="s">
+    <row r="49" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A49" s="80" t="s">
         <v>226</v>
       </c>
-      <c r="B49" s="84" t="s">
+      <c r="B49" s="80" t="s">
         <v>227</v>
       </c>
-      <c r="C49" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D49" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E49" s="85" t="s">
+      <c r="C49" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D49" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="50" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A50" s="84" t="s">
+    <row r="50" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A50" s="80" t="s">
         <v>228</v>
       </c>
-      <c r="B50" s="84" t="s">
+      <c r="B50" s="80" t="s">
         <v>229</v>
       </c>
-      <c r="C50" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D50" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E50" s="85" t="s">
+      <c r="C50" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="51" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A51" s="84" t="s">
+    <row r="51" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A51" s="80" t="s">
         <v>230</v>
       </c>
-      <c r="B51" s="84" t="s">
+      <c r="B51" s="80" t="s">
         <v>231</v>
       </c>
-      <c r="C51" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D51" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E51" s="85" t="s">
+      <c r="C51" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="52" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A52" s="84" t="s">
+    <row r="52" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A52" s="80" t="s">
         <v>232</v>
       </c>
-      <c r="B52" s="84" t="s">
+      <c r="B52" s="80" t="s">
         <v>233</v>
       </c>
-      <c r="C52" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D52" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E52" s="85" t="s">
+      <c r="C52" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="53" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A53" s="84" t="s">
+    <row r="53" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A53" s="80" t="s">
         <v>234</v>
       </c>
-      <c r="B53" s="84" t="s">
+      <c r="B53" s="80" t="s">
         <v>235</v>
       </c>
-      <c r="C53" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D53" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E53" s="85" t="s">
+      <c r="C53" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E53" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="54" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A54" s="84" t="s">
+    <row r="54" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A54" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="B54" s="84" t="s">
+      <c r="B54" s="80" t="s">
         <v>237</v>
       </c>
-      <c r="C54" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D54" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E54" s="85" t="s">
+      <c r="C54" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="55" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A55" s="84" t="s">
+    <row r="55" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A55" s="80" t="s">
         <v>238</v>
       </c>
-      <c r="B55" s="84" t="s">
+      <c r="B55" s="80" t="s">
         <v>239</v>
       </c>
-      <c r="C55" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D55" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E55" s="85" t="s">
+      <c r="C55" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E55" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="56" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A56" s="84" t="s">
+    <row r="56" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A56" s="80" t="s">
         <v>240</v>
       </c>
-      <c r="B56" s="84" t="s">
+      <c r="B56" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="C56" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D56" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E56" s="85" t="s">
+      <c r="C56" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E56" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="57" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A57" s="84" t="s">
+    <row r="57" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A57" s="80" t="s">
         <v>242</v>
       </c>
-      <c r="B57" s="84" t="s">
+      <c r="B57" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="C57" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D57" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E57" s="85" t="s">
+      <c r="C57" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D57" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="58" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A58" s="84" t="s">
+    <row r="58" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A58" s="80" t="s">
         <v>244</v>
       </c>
-      <c r="B58" s="84" t="s">
+      <c r="B58" s="80" t="s">
         <v>245</v>
       </c>
-      <c r="C58" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D58" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E58" s="85" t="s">
+      <c r="C58" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="59" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A59" s="86" t="s">
+    <row r="59" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A59" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="B59" s="86" t="s">
+      <c r="B59" s="84" t="s">
         <v>247</v>
       </c>
-      <c r="C59" s="86" t="s">
+      <c r="C59" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="D59" s="86" t="s">
+      <c r="D59" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="E59" s="87" t="s">
+      <c r="E59" s="85" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="60" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A60" s="83" t="s">
+    <row r="60" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A60" s="82" t="s">
         <v>248</v>
       </c>
-      <c r="B60" s="84"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="84"/>
-      <c r="E60" s="85"/>
-    </row>
-    <row r="61" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A61" s="84" t="s">
+      <c r="B60" s="80"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="80"/>
+      <c r="E60" s="83"/>
+    </row>
+    <row r="61" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A61" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="B61" s="84" t="s">
+      <c r="B61" s="80" t="s">
         <v>191</v>
       </c>
-      <c r="C61" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D61" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E61" s="85" t="s">
+      <c r="C61" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E61" s="83" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="62" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A62" s="84" t="s">
+    <row r="62" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A62" s="80" t="s">
         <v>250</v>
       </c>
-      <c r="B62" s="84" t="s">
+      <c r="B62" s="80" t="s">
         <v>194</v>
       </c>
-      <c r="C62" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D62" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E62" s="85" t="s">
+      <c r="C62" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D62" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E62" s="83" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="63" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A63" s="84" t="s">
+    <row r="63" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A63" s="80" t="s">
         <v>251</v>
       </c>
-      <c r="B63" s="84" t="s">
+      <c r="B63" s="80" t="s">
         <v>252</v>
       </c>
-      <c r="C63" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D63" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E63" s="85" t="s">
+      <c r="C63" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D63" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E63" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="64" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A64" s="84" t="s">
+    <row r="64" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A64" s="80" t="s">
         <v>253</v>
       </c>
-      <c r="B64" s="84" t="s">
+      <c r="B64" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="C64" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D64" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E64" s="85" t="s">
+      <c r="C64" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D64" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E64" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="65" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A65" s="84" t="s">
+    <row r="65" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A65" s="80" t="s">
         <v>254</v>
       </c>
-      <c r="B65" s="84" t="s">
+      <c r="B65" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="C65" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D65" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E65" s="85" t="s">
+      <c r="C65" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D65" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E65" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="66" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A66" s="84" t="s">
+    <row r="66" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A66" s="80" t="s">
         <v>255</v>
       </c>
-      <c r="B66" s="84" t="s">
+      <c r="B66" s="80" t="s">
         <v>203</v>
       </c>
-      <c r="C66" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D66" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E66" s="85" t="s">
+      <c r="C66" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D66" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E66" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="67" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A67" s="84" t="s">
+    <row r="67" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A67" s="80" t="s">
         <v>256</v>
       </c>
-      <c r="B67" s="84" t="s">
+      <c r="B67" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="C67" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D67" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E67" s="85" t="s">
+      <c r="C67" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D67" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E67" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="68" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A68" s="84" t="s">
+    <row r="68" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A68" s="80" t="s">
         <v>257</v>
       </c>
-      <c r="B68" s="84" t="s">
+      <c r="B68" s="80" t="s">
         <v>207</v>
       </c>
-      <c r="C68" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D68" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E68" s="85" t="s">
+      <c r="C68" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D68" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E68" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="69" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A69" s="84" t="s">
+    <row r="69" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A69" s="80" t="s">
         <v>258</v>
       </c>
-      <c r="B69" s="84" t="s">
+      <c r="B69" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="C69" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D69" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E69" s="85" t="s">
+      <c r="C69" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D69" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="70" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A70" s="84" t="s">
+    <row r="70" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A70" s="80" t="s">
         <v>259</v>
       </c>
-      <c r="B70" s="84" t="s">
+      <c r="B70" s="80" t="s">
         <v>211</v>
       </c>
-      <c r="C70" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D70" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E70" s="85" t="s">
+      <c r="C70" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D70" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E70" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="71" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A71" s="84" t="s">
+    <row r="71" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A71" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="B71" s="84" t="s">
+      <c r="B71" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="C71" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D71" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E71" s="85" t="s">
+      <c r="C71" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D71" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="72" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A72" s="84" t="s">
+    <row r="72" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A72" s="80" t="s">
         <v>261</v>
       </c>
-      <c r="B72" s="84" t="s">
+      <c r="B72" s="80" t="s">
         <v>215</v>
       </c>
-      <c r="C72" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D72" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E72" s="85" t="s">
+      <c r="C72" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D72" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E72" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="73" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A73" s="84" t="s">
+    <row r="73" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A73" s="80" t="s">
         <v>262</v>
       </c>
-      <c r="B73" s="84" t="s">
+      <c r="B73" s="80" t="s">
         <v>217</v>
       </c>
-      <c r="C73" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D73" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E73" s="85" t="s">
+      <c r="C73" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D73" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E73" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="74" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A74" s="84" t="s">
+    <row r="74" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A74" s="80" t="s">
         <v>263</v>
       </c>
-      <c r="B74" s="84" t="s">
+      <c r="B74" s="80" t="s">
         <v>219</v>
       </c>
-      <c r="C74" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D74" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E74" s="85" t="s">
+      <c r="C74" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D74" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E74" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="75" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A75" s="84" t="s">
+    <row r="75" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A75" s="80" t="s">
         <v>264</v>
       </c>
-      <c r="B75" s="84" t="s">
+      <c r="B75" s="80" t="s">
         <v>221</v>
       </c>
-      <c r="C75" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D75" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E75" s="85" t="s">
+      <c r="C75" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E75" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="76" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A76" s="84" t="s">
+    <row r="76" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A76" s="80" t="s">
         <v>265</v>
       </c>
-      <c r="B76" s="84" t="s">
+      <c r="B76" s="80" t="s">
         <v>223</v>
       </c>
-      <c r="C76" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D76" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E76" s="85" t="s">
+      <c r="C76" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D76" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E76" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="77" s="82" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A77" s="84" t="s">
+    <row r="77" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
+      <c r="A77" s="80" t="s">
         <v>266</v>
       </c>
-      <c r="B77" s="84" t="s">
+      <c r="B77" s="80" t="s">
         <v>225</v>
       </c>
-      <c r="C77" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D77" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E77" s="85" t="s">
+      <c r="C77" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D77" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E77" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="78" s="82" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A78" s="84" t="s">
+    <row r="78" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
+      <c r="A78" s="80" t="s">
         <v>267</v>
       </c>
-      <c r="B78" s="84" t="s">
+      <c r="B78" s="80" t="s">
         <v>227</v>
       </c>
-      <c r="C78" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D78" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E78" s="85" t="s">
+      <c r="C78" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D78" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E78" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="79" s="82" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A79" s="84" t="s">
+    <row r="79" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
+      <c r="A79" s="80" t="s">
         <v>268</v>
       </c>
-      <c r="B79" s="84" t="s">
+      <c r="B79" s="80" t="s">
         <v>229</v>
       </c>
-      <c r="C79" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D79" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E79" s="85" t="s">
+      <c r="C79" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D79" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E79" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="80" s="82" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A80" s="84" t="s">
+    <row r="80" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
+      <c r="A80" s="80" t="s">
         <v>269</v>
       </c>
-      <c r="B80" s="84" t="s">
+      <c r="B80" s="80" t="s">
         <v>231</v>
       </c>
-      <c r="C80" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D80" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E80" s="85" t="s">
+      <c r="C80" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D80" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E80" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="81" s="82" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A81" s="84" t="s">
+    <row r="81" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
+      <c r="A81" s="80" t="s">
         <v>270</v>
       </c>
-      <c r="B81" s="84" t="s">
+      <c r="B81" s="80" t="s">
         <v>233</v>
       </c>
-      <c r="C81" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D81" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E81" s="85" t="s">
+      <c r="C81" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D81" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E81" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="82" s="82" customFormat="1" ht="16" customHeight="1" spans="1:9">
-      <c r="A82" s="84" t="s">
+    <row r="82" s="76" customFormat="1" ht="16" customHeight="1" spans="1:9">
+      <c r="A82" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="B82" s="84" t="s">
+      <c r="B82" s="80" t="s">
         <v>235</v>
       </c>
-      <c r="C82" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D82" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E82" s="85" t="s">
+      <c r="C82" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D82" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E82" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="I82" s="82">
+      <c r="I82" s="76">
         <f>SUM(B79)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="83" s="82" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A83" s="84" t="s">
+    <row r="83" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
+      <c r="A83" s="80" t="s">
         <v>272</v>
       </c>
-      <c r="B83" s="84" t="s">
+      <c r="B83" s="80" t="s">
         <v>237</v>
       </c>
-      <c r="C83" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D83" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E83" s="85" t="s">
+      <c r="C83" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D83" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E83" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="84" s="82" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A84" s="84" t="s">
+    <row r="84" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
+      <c r="A84" s="80" t="s">
         <v>273</v>
       </c>
-      <c r="B84" s="84" t="s">
+      <c r="B84" s="80" t="s">
         <v>239</v>
       </c>
-      <c r="C84" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D84" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E84" s="85" t="s">
+      <c r="C84" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D84" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E84" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="85" s="82" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A85" s="84" t="s">
+    <row r="85" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
+      <c r="A85" s="80" t="s">
         <v>274</v>
       </c>
-      <c r="B85" s="84" t="s">
+      <c r="B85" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="C85" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D85" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E85" s="85" t="s">
+      <c r="C85" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D85" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E85" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="86" s="82" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A86" s="84" t="s">
+    <row r="86" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
+      <c r="A86" s="80" t="s">
         <v>275</v>
       </c>
-      <c r="B86" s="84" t="s">
+      <c r="B86" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="C86" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D86" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E86" s="85" t="s">
+      <c r="C86" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D86" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E86" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="87" s="82" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A87" s="84" t="s">
+    <row r="87" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
+      <c r="A87" s="80" t="s">
         <v>276</v>
       </c>
-      <c r="B87" s="84" t="s">
+      <c r="B87" s="80" t="s">
         <v>245</v>
       </c>
-      <c r="C87" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D87" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E87" s="85" t="s">
+      <c r="C87" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D87" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E87" s="83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="88" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A88" s="86" t="s">
+    <row r="88" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A88" s="84" t="s">
         <v>277</v>
       </c>
-      <c r="B88" s="86" t="s">
+      <c r="B88" s="84" t="s">
         <v>247</v>
       </c>
-      <c r="C88" s="86" t="s">
+      <c r="C88" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="D88" s="86" t="s">
+      <c r="D88" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="E88" s="87" t="s">
+      <c r="E88" s="85" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="89" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A89" s="83" t="s">
+    <row r="89" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A89" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="B89" s="84"/>
-      <c r="C89" s="84"/>
-      <c r="D89" s="84"/>
-      <c r="E89" s="85"/>
-    </row>
-    <row r="90" s="82" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A90" s="86" t="s">
+      <c r="B89" s="80"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="80"/>
+      <c r="E89" s="83"/>
+    </row>
+    <row r="90" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A90" s="84" t="s">
         <v>185</v>
       </c>
-      <c r="B90" s="86" t="s">
+      <c r="B90" s="84" t="s">
         <v>278</v>
       </c>
-      <c r="C90" s="86" t="s">
+      <c r="C90" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="D90" s="86" t="s">
+      <c r="D90" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="E90" s="87" t="s">
+      <c r="E90" s="85" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="91" customFormat="1" spans="4:9">
-      <c r="D91" s="88"/>
-      <c r="E91" s="88"/>
-      <c r="F91" s="88"/>
-      <c r="G91" s="89"/>
-      <c r="H91" s="88"/>
-      <c r="I91" s="89"/>
+      <c r="D91" s="86"/>
+      <c r="E91" s="86"/>
+      <c r="F91" s="86"/>
+      <c r="G91" s="87"/>
+      <c r="H91" s="86"/>
+      <c r="I91" s="87"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="89" t="s">
+      <c r="A92" s="87" t="s">
         <v>279</v>
       </c>
-      <c r="B92" s="88" t="s">
+      <c r="B92" s="86" t="s">
         <v>280</v>
       </c>
-      <c r="C92" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="D92" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="E92" s="88" t="s">
+      <c r="C92" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="D92" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="E92" s="86" t="s">
         <v>281</v>
       </c>
-      <c r="F92" s="88"/>
-      <c r="G92" s="89"/>
-      <c r="H92" s="88"/>
-      <c r="I92" s="89"/>
+      <c r="F92" s="86"/>
+      <c r="G92" s="87"/>
+      <c r="H92" s="86"/>
+      <c r="I92" s="87"/>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>282</v>
       </c>
-      <c r="B93" s="88" t="s">
+      <c r="B93" s="86" t="s">
         <v>283</v>
       </c>
-      <c r="C93" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="D93" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="E93" s="88" t="s">
+      <c r="C93" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="D93" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="E93" s="86" t="s">
         <v>159</v>
       </c>
-      <c r="F93" s="88"/>
-      <c r="G93" s="89"/>
-      <c r="H93" s="88"/>
-      <c r="I93" s="89"/>
+      <c r="F93" s="86"/>
+      <c r="G93" s="87"/>
+      <c r="H93" s="86"/>
+      <c r="I93" s="87"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>284</v>
       </c>
-      <c r="B94" s="88" t="s">
+      <c r="B94" s="86" t="s">
         <v>285</v>
       </c>
-      <c r="C94" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="D94" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="E94" s="88" t="s">
+      <c r="C94" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="D94" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="E94" s="86" t="s">
         <v>286</v>
       </c>
-      <c r="F94" s="88"/>
-      <c r="G94" s="89"/>
-      <c r="H94" s="88"/>
-      <c r="I94" s="89"/>
+      <c r="F94" s="86"/>
+      <c r="G94" s="87"/>
+      <c r="H94" s="86"/>
+      <c r="I94" s="87"/>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>287</v>
       </c>
-      <c r="B95" s="88" t="s">
+      <c r="B95" s="86" t="s">
         <v>288</v>
       </c>
-      <c r="C95" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="D95" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="E95" s="88" t="s">
+      <c r="C95" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="D95" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="E95" s="86" t="s">
         <v>286</v>
       </c>
-      <c r="F95" s="88"/>
-      <c r="G95" s="89"/>
-      <c r="H95" s="88"/>
-      <c r="I95" s="89"/>
+      <c r="F95" s="86"/>
+      <c r="G95" s="87"/>
+      <c r="H95" s="86"/>
+      <c r="I95" s="87"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>289</v>
       </c>
-      <c r="B96" s="88" t="s">
+      <c r="B96" s="86" t="s">
         <v>290</v>
       </c>
-      <c r="C96" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="D96" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="E96" s="88" t="s">
+      <c r="C96" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="D96" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="E96" s="86" t="s">
         <v>286</v>
       </c>
-      <c r="F96" s="88"/>
-      <c r="G96" s="89"/>
-      <c r="H96" s="88"/>
-      <c r="I96" s="89"/>
+      <c r="F96" s="86"/>
+      <c r="G96" s="87"/>
+      <c r="H96" s="86"/>
+      <c r="I96" s="87"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>291</v>
       </c>
-      <c r="B97" s="88" t="s">
+      <c r="B97" s="86" t="s">
         <v>292</v>
       </c>
-      <c r="C97" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="D97" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="E97" s="88" t="s">
+      <c r="C97" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="D97" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="E97" s="86" t="s">
         <v>286</v>
       </c>
-      <c r="F97" s="88"/>
-      <c r="G97" s="89"/>
-      <c r="H97" s="88"/>
-      <c r="I97" s="89"/>
+      <c r="F97" s="86"/>
+      <c r="G97" s="87"/>
+      <c r="H97" s="86"/>
+      <c r="I97" s="87"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>293</v>
       </c>
-      <c r="B98" s="88" t="s">
+      <c r="B98" s="86" t="s">
         <v>294</v>
       </c>
-      <c r="C98" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="D98" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="E98" s="88" t="s">
+      <c r="C98" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="D98" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="E98" s="86" t="s">
         <v>286</v>
       </c>
-      <c r="F98" s="88"/>
-      <c r="G98" s="89"/>
-      <c r="H98" s="88"/>
-      <c r="I98" s="89"/>
+      <c r="F98" s="86"/>
+      <c r="G98" s="87"/>
+      <c r="H98" s="86"/>
+      <c r="I98" s="87"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>295</v>
       </c>
-      <c r="B99" s="88" t="s">
+      <c r="B99" s="86" t="s">
         <v>296</v>
       </c>
-      <c r="C99" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="D99" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="E99" s="88" t="s">
+      <c r="C99" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="D99" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="E99" s="86" t="s">
         <v>286</v>
       </c>
-      <c r="F99" s="88"/>
-      <c r="G99" s="89"/>
-      <c r="H99" s="88"/>
-      <c r="I99" s="89"/>
+      <c r="F99" s="86"/>
+      <c r="G99" s="87"/>
+      <c r="H99" s="86"/>
+      <c r="I99" s="87"/>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>297</v>
       </c>
-      <c r="B100" s="88" t="s">
+      <c r="B100" s="86" t="s">
         <v>298</v>
       </c>
-      <c r="C100" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="D100" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="E100" s="88" t="s">
+      <c r="C100" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="D100" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="E100" s="86" t="s">
         <v>286</v>
       </c>
-      <c r="F100" s="88"/>
-      <c r="G100" s="89"/>
-      <c r="H100" s="88"/>
-      <c r="I100" s="89"/>
+      <c r="F100" s="86"/>
+      <c r="G100" s="87"/>
+      <c r="H100" s="86"/>
+      <c r="I100" s="87"/>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>299</v>
       </c>
-      <c r="B101" s="88" t="s">
+      <c r="B101" s="86" t="s">
         <v>300</v>
       </c>
-      <c r="C101" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="D101" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="E101" s="88" t="s">
+      <c r="C101" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="D101" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="E101" s="86" t="s">
         <v>286</v>
       </c>
-      <c r="F101" s="88"/>
-      <c r="G101" s="89"/>
-      <c r="H101" s="88"/>
-      <c r="I101" s="89"/>
+      <c r="F101" s="86"/>
+      <c r="G101" s="87"/>
+      <c r="H101" s="86"/>
+      <c r="I101" s="87"/>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>301</v>
       </c>
-      <c r="B102" s="88" t="s">
+      <c r="B102" s="86" t="s">
         <v>302</v>
       </c>
-      <c r="C102" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="D102" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="E102" s="88" t="s">
+      <c r="C102" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="D102" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="E102" s="86" t="s">
         <v>286</v>
       </c>
-      <c r="F102" s="88"/>
-      <c r="G102" s="89"/>
-      <c r="H102" s="88"/>
-      <c r="I102" s="89"/>
+      <c r="F102" s="86"/>
+      <c r="G102" s="87"/>
+      <c r="H102" s="86"/>
+      <c r="I102" s="87"/>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>303</v>
       </c>
-      <c r="B103" s="88" t="s">
+      <c r="B103" s="86" t="s">
         <v>304</v>
       </c>
-      <c r="C103" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="D103" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="E103" s="88" t="s">
+      <c r="C103" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="D103" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="E103" s="86" t="s">
         <v>286</v>
       </c>
-      <c r="F103" s="88"/>
-      <c r="G103" s="89"/>
-      <c r="H103" s="88"/>
-      <c r="I103" s="89"/>
+      <c r="F103" s="86"/>
+      <c r="G103" s="87"/>
+      <c r="H103" s="86"/>
+      <c r="I103" s="87"/>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>305</v>
       </c>
-      <c r="B104" s="88" t="s">
+      <c r="B104" s="86" t="s">
         <v>306</v>
       </c>
-      <c r="C104" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="D104" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="E104" s="88" t="s">
+      <c r="C104" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="D104" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="E104" s="86" t="s">
         <v>286</v>
       </c>
-      <c r="F104" s="88"/>
-      <c r="G104" s="89"/>
-      <c r="H104" s="88"/>
-      <c r="I104" s="89"/>
+      <c r="F104" s="86"/>
+      <c r="G104" s="87"/>
+      <c r="H104" s="86"/>
+      <c r="I104" s="87"/>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>307</v>
       </c>
-      <c r="B105" s="88" t="s">
+      <c r="B105" s="86" t="s">
         <v>308</v>
       </c>
-      <c r="C105" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="D105" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="E105" s="88" t="s">
+      <c r="C105" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="D105" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="E105" s="86" t="s">
         <v>159</v>
       </c>
-      <c r="F105" s="88"/>
-      <c r="G105" s="89"/>
-      <c r="H105" s="88"/>
-      <c r="I105" s="89"/>
+      <c r="F105" s="86"/>
+      <c r="G105" s="87"/>
+      <c r="H105" s="86"/>
+      <c r="I105" s="87"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>309</v>
       </c>
-      <c r="B106" s="88" t="s">
+      <c r="B106" s="86" t="s">
         <v>310</v>
       </c>
-      <c r="C106" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="D106" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="E106" s="88" t="s">
+      <c r="C106" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="D106" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="E106" s="86" t="s">
         <v>311</v>
       </c>
-      <c r="F106" s="88"/>
-      <c r="G106" s="89"/>
-      <c r="H106" s="88"/>
-      <c r="I106" s="89"/>
+      <c r="F106" s="86"/>
+      <c r="G106" s="87"/>
+      <c r="H106" s="86"/>
+      <c r="I106" s="87"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>312</v>
       </c>
-      <c r="B107" s="88" t="s">
+      <c r="B107" s="86" t="s">
         <v>313</v>
       </c>
-      <c r="C107" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="D107" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="E107" s="88" t="s">
+      <c r="C107" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="D107" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="E107" s="86" t="s">
         <v>311</v>
       </c>
-      <c r="F107" s="88"/>
-      <c r="G107" s="89"/>
-      <c r="H107" s="88"/>
-      <c r="I107" s="89"/>
+      <c r="F107" s="86"/>
+      <c r="G107" s="87"/>
+      <c r="H107" s="86"/>
+      <c r="I107" s="87"/>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>314</v>
       </c>
-      <c r="B108" s="88" t="s">
+      <c r="B108" s="86" t="s">
         <v>315</v>
       </c>
-      <c r="C108" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="D108" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="E108" s="88" t="s">
+      <c r="C108" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="D108" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="E108" s="86" t="s">
         <v>311</v>
       </c>
-      <c r="F108" s="88"/>
-      <c r="G108" s="89"/>
-      <c r="H108" s="88"/>
-      <c r="I108" s="89"/>
+      <c r="F108" s="86"/>
+      <c r="G108" s="87"/>
+      <c r="H108" s="86"/>
+      <c r="I108" s="87"/>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>316</v>
       </c>
-      <c r="B109" s="88" t="s">
+      <c r="B109" s="86" t="s">
         <v>317</v>
       </c>
-      <c r="C109" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="D109" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="E109" s="88" t="s">
+      <c r="C109" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="D109" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="E109" s="86" t="s">
         <v>311</v>
       </c>
-      <c r="F109" s="88"/>
-      <c r="G109" s="89"/>
-      <c r="H109" s="88"/>
-      <c r="I109" s="89"/>
+      <c r="F109" s="86"/>
+      <c r="G109" s="87"/>
+      <c r="H109" s="86"/>
+      <c r="I109" s="87"/>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>318</v>
       </c>
-      <c r="B110" s="88" t="s">
+      <c r="B110" s="86" t="s">
         <v>319</v>
       </c>
-      <c r="C110" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="D110" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="E110" s="88" t="s">
+      <c r="C110" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="D110" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="E110" s="86" t="s">
         <v>311</v>
       </c>
-      <c r="F110" s="88"/>
-      <c r="G110" s="89"/>
-      <c r="H110" s="88"/>
-      <c r="I110" s="89"/>
+      <c r="F110" s="86"/>
+      <c r="G110" s="87"/>
+      <c r="H110" s="86"/>
+      <c r="I110" s="87"/>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>320</v>
       </c>
-      <c r="B111" s="88" t="s">
+      <c r="B111" s="86" t="s">
         <v>321</v>
       </c>
-      <c r="C111" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="D111" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="E111" s="88" t="s">
+      <c r="C111" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="D111" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="E111" s="86" t="s">
         <v>311</v>
       </c>
-      <c r="F111" s="88"/>
-      <c r="G111" s="89"/>
-      <c r="H111" s="88"/>
-      <c r="I111" s="89"/>
+      <c r="F111" s="86"/>
+      <c r="G111" s="87"/>
+      <c r="H111" s="86"/>
+      <c r="I111" s="87"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>322</v>
       </c>
-      <c r="B112" s="88" t="s">
+      <c r="B112" s="86" t="s">
         <v>323</v>
       </c>
-      <c r="C112" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="D112" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="E112" s="88" t="s">
+      <c r="C112" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="D112" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="E112" s="86" t="s">
         <v>311</v>
       </c>
-      <c r="F112" s="88"/>
-      <c r="G112" s="89"/>
-      <c r="H112" s="88"/>
-      <c r="I112" s="89"/>
+      <c r="F112" s="86"/>
+      <c r="G112" s="87"/>
+      <c r="H112" s="86"/>
+      <c r="I112" s="87"/>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>324</v>
       </c>
-      <c r="B113" s="88" t="s">
+      <c r="B113" s="86" t="s">
         <v>325</v>
       </c>
-      <c r="C113" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="D113" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="E113" s="88" t="s">
+      <c r="C113" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="D113" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="E113" s="86" t="s">
         <v>286</v>
       </c>
-      <c r="F113" s="88"/>
-      <c r="G113" s="89"/>
-      <c r="H113" s="88"/>
-      <c r="I113" s="89"/>
+      <c r="F113" s="86"/>
+      <c r="G113" s="87"/>
+      <c r="H113" s="86"/>
+      <c r="I113" s="87"/>
     </row>
     <row r="114" ht="24" spans="1:9">
       <c r="A114" t="s">
         <v>326</v>
       </c>
-      <c r="B114" s="88" t="s">
+      <c r="B114" s="86" t="s">
         <v>327</v>
       </c>
-      <c r="C114" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="D114" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="E114" s="88" t="s">
+      <c r="C114" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="D114" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="E114" s="86" t="s">
         <v>328</v>
       </c>
-      <c r="F114" s="88"/>
-      <c r="G114" s="89"/>
-      <c r="H114" s="88"/>
-      <c r="I114" s="89"/>
+      <c r="F114" s="86"/>
+      <c r="G114" s="87"/>
+      <c r="H114" s="86"/>
+      <c r="I114" s="87"/>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>329</v>
       </c>
-      <c r="B115" s="88" t="s">
+      <c r="B115" s="86" t="s">
         <v>330</v>
       </c>
-      <c r="C115" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="D115" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="E115" s="88" t="s">
+      <c r="C115" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="D115" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="E115" s="86" t="s">
         <v>331</v>
       </c>
     </row>

--- a/equipment_cyg/product/zhong_che_yi_xing/zhong_che_yi_xing_manual.xlsx
+++ b/equipment_cyg/product/zhong_che_yi_xing/zhong_che_yi_xing_manual.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="504" activeTab="5"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="504"/>
   </bookViews>
   <sheets>
     <sheet name="secs指令" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="491">
   <si>
     <t>direction</t>
   </si>
@@ -218,7 +218,7 @@
     <t>运行状态变化</t>
   </si>
   <si>
-    <t>currnet_machine_state</t>
+    <t>current_machine_state</t>
   </si>
   <si>
     <t>当前运行状态</t>
@@ -384,6 +384,21 @@
   </si>
   <si>
     <t>FrameSN</t>
+  </si>
+  <si>
+    <t>svid</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>value_type</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
   <si>
     <t>values</t>
@@ -455,10 +470,10 @@
     <t>remote_command</t>
   </si>
   <si>
-    <t>param_values</t>
-  </si>
-  <si>
-    <t>["recipe_id_name","recipe_id_name_value"]</t>
+    <t>params</t>
+  </si>
+  <si>
+    <t>recipe_id_name</t>
   </si>
   <si>
     <r>
@@ -484,19 +499,22 @@
     </r>
   </si>
   <si>
+    <t>equipment_start</t>
+  </si>
+  <si>
+    <t>设备启动</t>
+  </si>
+  <si>
     <t>equipment_stop</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>设备停止</t>
   </si>
   <si>
     <t>track_in_reply</t>
   </si>
   <si>
-    <t>["state","state_value"]</t>
+    <t>state</t>
   </si>
   <si>
     <t>1:ok,2:ng</t>
@@ -916,7 +934,13 @@
     <t>Application.gvl_OPMODE01_MES.mes2plc.geneal.response_partDone[2]</t>
   </si>
   <si>
-    <t>设备停止，1：run，2：stop</t>
+    <t>进站设备停止，1：run，2：stop</t>
+  </si>
+  <si>
+    <t>Application.gvl_OPMODE01_MES.Stop_command</t>
+  </si>
+  <si>
+    <t>拨针设备停止，1：stop</t>
   </si>
   <si>
     <t>Application.gvl_OPMODE01_RECIPE.ActiveParameters.Direction_selection.Direction_selection[0..50]</t>
@@ -1597,11 +1621,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -2675,7 +2700,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2953,6 +2978,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2986,6 +3014,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2995,11 +3032,20 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3091,13 +3137,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>176530</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3868420</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3115,7 +3161,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="176530" y="25521920"/>
+          <a:off x="176530" y="25760045"/>
           <a:ext cx="11807190" cy="5368290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3133,13 +3179,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>149225</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2091690</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3157,7 +3203,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="149225" y="30817820"/>
+          <a:off x="149225" y="31055945"/>
           <a:ext cx="10057765" cy="2571750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3175,13 +3221,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>92075</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3395345</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3199,7 +3245,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="92075" y="33519110"/>
+          <a:off x="92075" y="33757235"/>
           <a:ext cx="11418570" cy="3177540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3217,13 +3263,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>168275</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3357245</xdr:colOff>
-      <xdr:row>209</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3241,7 +3287,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="168275" y="36955730"/>
+          <a:off x="168275" y="37193855"/>
           <a:ext cx="11304270" cy="4690110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3259,13 +3305,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>275590</xdr:colOff>
-      <xdr:row>209</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2042795</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>232</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3283,7 +3329,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="275590" y="41653460"/>
+          <a:off x="275590" y="41891585"/>
           <a:ext cx="9882505" cy="3756660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3301,13 +3347,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>351155</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>232</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2065020</xdr:colOff>
-      <xdr:row>258</xdr:row>
+      <xdr:row>259</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3325,7 +3371,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="351155" y="45448220"/>
+          <a:off x="351155" y="45686345"/>
           <a:ext cx="9829165" cy="4522470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3343,13 +3389,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>328295</xdr:colOff>
-      <xdr:row>258</xdr:row>
+      <xdr:row>259</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1965960</xdr:colOff>
-      <xdr:row>289</xdr:row>
+      <xdr:row>290</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3367,7 +3413,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="328295" y="49932590"/>
+          <a:off x="328295" y="50170715"/>
           <a:ext cx="9752965" cy="5303520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3385,13 +3431,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>274955</xdr:colOff>
-      <xdr:row>288</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1927860</xdr:colOff>
-      <xdr:row>319</xdr:row>
+      <xdr:row>320</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3409,7 +3455,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="274955" y="55220870"/>
+          <a:off x="274955" y="55458995"/>
           <a:ext cx="9768205" cy="5223510"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3427,13 +3473,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>252095</xdr:colOff>
-      <xdr:row>319</xdr:row>
+      <xdr:row>320</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1935480</xdr:colOff>
-      <xdr:row>345</xdr:row>
+      <xdr:row>346</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3451,7 +3497,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="252095" y="60436760"/>
+          <a:off x="252095" y="60674885"/>
           <a:ext cx="9798685" cy="4511040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3469,13 +3515,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>229235</xdr:colOff>
-      <xdr:row>345</xdr:row>
+      <xdr:row>346</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1874520</xdr:colOff>
-      <xdr:row>376</xdr:row>
+      <xdr:row>377</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3493,7 +3539,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="229235" y="65001140"/>
+          <a:off x="229235" y="65239265"/>
           <a:ext cx="9760585" cy="5238750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3511,13 +3557,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>175895</xdr:colOff>
-      <xdr:row>376</xdr:row>
+      <xdr:row>377</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1889760</xdr:colOff>
-      <xdr:row>407</xdr:row>
+      <xdr:row>408</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3535,7 +3581,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="175895" y="70224650"/>
+          <a:off x="175895" y="70462775"/>
           <a:ext cx="9829165" cy="5246370"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3553,13 +3599,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>198755</xdr:colOff>
-      <xdr:row>407</xdr:row>
+      <xdr:row>408</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3144520</xdr:colOff>
-      <xdr:row>411</xdr:row>
+      <xdr:row>412</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3577,7 +3623,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="198755" y="75524360"/>
+          <a:off x="198755" y="75762485"/>
           <a:ext cx="11061065" cy="640080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3881,233 +3927,233 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17.1333333333333" style="103" customWidth="1"/>
-    <col min="2" max="2" width="9" style="103"/>
-    <col min="3" max="3" width="27.7333333333333" style="103" customWidth="1"/>
-    <col min="4" max="4" width="4.75833333333333" style="103" customWidth="1"/>
-    <col min="5" max="5" width="17.1333333333333" style="103" customWidth="1"/>
-    <col min="6" max="6" width="9" style="103"/>
-    <col min="7" max="7" width="29.525" style="103" customWidth="1"/>
-    <col min="8" max="8" width="42.5" style="103" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="103"/>
+    <col min="1" max="1" width="17.1333333333333" style="104" customWidth="1"/>
+    <col min="2" max="2" width="9" style="104"/>
+    <col min="3" max="3" width="27.7333333333333" style="104" customWidth="1"/>
+    <col min="4" max="4" width="4.75833333333333" style="104" customWidth="1"/>
+    <col min="5" max="5" width="17.1333333333333" style="104" customWidth="1"/>
+    <col min="6" max="6" width="9" style="104"/>
+    <col min="7" max="7" width="29.525" style="104" customWidth="1"/>
+    <col min="8" max="8" width="42.5" style="104" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="104"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="111" t="s">
+      <c r="C1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="112"/>
-      <c r="E1" s="111" t="s">
+      <c r="D1" s="119"/>
+      <c r="E1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="111" t="s">
+      <c r="F1" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="111" t="s">
+      <c r="G1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="111" t="s">
+      <c r="H1" s="118" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="113" t="s">
+      <c r="E2" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="113" t="s">
+      <c r="F2" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113" t="s">
+      <c r="G2" s="120"/>
+      <c r="H2" s="120" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:8">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="113" t="s">
+      <c r="E3" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="113" t="s">
+      <c r="F3" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="113"/>
-      <c r="H3" s="114" t="s">
+      <c r="G3" s="120"/>
+      <c r="H3" s="121" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="1:8">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="113" t="s">
+      <c r="E4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="113" t="s">
+      <c r="F4" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="113" t="s">
+      <c r="G4" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="114" t="s">
+      <c r="H4" s="121" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="113"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="E5" s="113" t="s">
+      <c r="A5" s="120"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="E5" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="113" t="s">
+      <c r="F5" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="113" t="s">
+      <c r="G5" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="113"/>
+      <c r="H5" s="120"/>
     </row>
     <row r="6" ht="54" spans="1:8">
-      <c r="A6" s="113"/>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="E6" s="113" t="s">
+      <c r="A6" s="120"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="E6" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="113" t="s">
+      <c r="F6" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="114" t="s">
+      <c r="G6" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="114" t="s">
+      <c r="H6" s="121" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="114" t="s">
+      <c r="C7" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="113" t="s">
+      <c r="E7" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="113" t="s">
+      <c r="F7" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="113" t="s">
+      <c r="G7" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="114" t="s">
+      <c r="H7" s="121" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="113" t="s">
+      <c r="B8" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="113" t="s">
+      <c r="E8" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="113" t="s">
+      <c r="F8" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="114" t="s">
+      <c r="G8" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="114" t="s">
+      <c r="H8" s="121" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="113" t="s">
+      <c r="A9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="113" t="s">
+      <c r="B9" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="113" t="s">
+      <c r="C9" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="113" t="s">
+      <c r="E9" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="113" t="s">
+      <c r="F9" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="113" t="s">
+      <c r="G9" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="113"/>
+      <c r="H9" s="120"/>
     </row>
     <row r="10" ht="27" spans="1:8">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="113" t="s">
+      <c r="C10" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="113" t="s">
+      <c r="E10" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="113" t="s">
+      <c r="F10" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="113" t="s">
+      <c r="G10" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="114" t="s">
+      <c r="H10" s="121" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4145,24 +4191,24 @@
   <sheetData>
     <row r="1" ht="21.75" spans="4:4">
       <c r="D1" s="2" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="4:9">
       <c r="D2" s="3" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>102</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>101</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>102</v>
@@ -4173,7 +4219,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="F3" s="7">
         <v>1</v>
@@ -4182,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="I3" s="40" t="s">
         <v>106</v>
@@ -4194,7 +4240,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="8" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="I4" s="41"/>
     </row>
@@ -4204,7 +4250,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="8" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="I5" s="41"/>
     </row>
@@ -4214,7 +4260,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="8" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="I6" s="41"/>
     </row>
@@ -4224,7 +4270,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="8" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="I7" s="42"/>
     </row>
@@ -4233,7 +4279,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="F8" s="7">
         <v>2</v>
@@ -4242,13 +4288,13 @@
         <v>2</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="I8" s="40" t="s">
         <v>104</v>
       </c>
       <c r="K8" s="43" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>102</v>
@@ -4261,7 +4307,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="8" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="I9" s="41"/>
       <c r="K9" s="14">
@@ -4271,7 +4317,7 @@
         <v>106</v>
       </c>
       <c r="M9" s="45" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="4:13">
@@ -4280,13 +4326,13 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="8" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="I10" s="41"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="45" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="4:13">
@@ -4295,13 +4341,13 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="8" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="I11" s="42"/>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
       <c r="M11" s="45" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="4:13">
@@ -4309,7 +4355,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="F12" s="12">
         <v>3</v>
@@ -4318,15 +4364,15 @@
         <v>3</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
       <c r="M12" s="45" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="4:13">
@@ -4334,7 +4380,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="F13" s="15">
         <v>4</v>
@@ -4343,15 +4389,15 @@
         <v>4</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="46" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="4:13">
@@ -4362,10 +4408,10 @@
         <v>5</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="K14" s="14">
         <v>2</v>
@@ -4374,7 +4420,7 @@
         <v>104</v>
       </c>
       <c r="M14" s="45" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="4:13">
@@ -4382,7 +4428,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="F15" s="15">
         <v>5</v>
@@ -4391,15 +4437,15 @@
         <v>4</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
       <c r="M15" s="45" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="4:13">
@@ -4410,15 +4456,15 @@
         <v>5</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
       <c r="M16" s="45" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="4:13">
@@ -4429,15 +4475,15 @@
         <v>6</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="46" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="4:13">
@@ -4445,7 +4491,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="F18" s="15">
         <v>6</v>
@@ -4454,19 +4500,19 @@
         <v>4</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="K18" s="11">
         <v>3</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="M18" s="46" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="4:13">
@@ -4474,7 +4520,7 @@
         <v>7</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -4484,10 +4530,10 @@
         <v>4</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="M19" s="46" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="4:9">
@@ -4495,7 +4541,7 @@
         <v>8</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="F20" s="15">
         <v>8</v>
@@ -4504,10 +4550,10 @@
         <v>8</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="4:9">
@@ -4515,7 +4561,7 @@
         <v>9</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -4527,7 +4573,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="F22" s="16">
         <v>10</v>
@@ -4536,10 +4582,10 @@
         <v>10</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="4:9">
@@ -4566,16 +4612,16 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="K25" s="47" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="L25" s="48" t="s">
         <v>102</v>
       </c>
       <c r="M25" s="48" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="N25" s="48" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" ht="32.25" spans="4:14">
@@ -4586,20 +4632,20 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="K26" s="49" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="L26" s="50" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="M26" s="50"/>
       <c r="N26" s="50" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="4:14">
       <c r="D27" s="11"/>
       <c r="E27" s="16" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -4609,17 +4655,17 @@
         <v>101</v>
       </c>
       <c r="L27" s="50" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="M27" s="50"/>
       <c r="N27" s="50" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="4:9">
       <c r="D28" s="23"/>
       <c r="E28" s="16" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -4629,45 +4675,45 @@
     <row r="37" ht="14.25"/>
     <row r="38" ht="16.5" spans="4:10">
       <c r="D38" s="24" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="I38" s="51" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="J38" s="52" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
     </row>
     <row r="39" ht="16.5" spans="4:10">
       <c r="D39" s="27" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="H39" s="11">
         <v>1</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="J39" s="12">
         <v>2</v>
@@ -4677,14 +4723,14 @@
       <c r="D40" s="30"/>
       <c r="E40" s="31"/>
       <c r="F40" s="29" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="G40" s="31"/>
       <c r="H40" s="11">
         <v>2</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="J40" s="12">
         <v>2</v>
@@ -4694,7 +4740,7 @@
       <c r="D41" s="30"/>
       <c r="E41" s="31"/>
       <c r="F41" s="32" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="G41" s="31"/>
     </row>
@@ -4702,7 +4748,7 @@
       <c r="D42" s="30"/>
       <c r="E42" s="31"/>
       <c r="F42" s="33" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="G42" s="31"/>
     </row>
@@ -4710,7 +4756,7 @@
       <c r="D43" s="30"/>
       <c r="E43" s="31"/>
       <c r="F43" s="33" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="G43" s="31"/>
     </row>
@@ -4718,7 +4764,7 @@
       <c r="D44" s="30"/>
       <c r="E44" s="31"/>
       <c r="F44" s="33" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="G44" s="31"/>
     </row>
@@ -4726,7 +4772,7 @@
       <c r="D45" s="30"/>
       <c r="E45" s="31"/>
       <c r="F45" s="33" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="G45" s="31"/>
     </row>
@@ -4734,7 +4780,7 @@
       <c r="D46" s="30"/>
       <c r="E46" s="31"/>
       <c r="F46" s="33" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="G46" s="31"/>
     </row>
@@ -4742,7 +4788,7 @@
       <c r="D47" s="30"/>
       <c r="E47" s="31"/>
       <c r="F47" s="33" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="G47" s="31"/>
     </row>
@@ -4750,7 +4796,7 @@
       <c r="D48" s="30"/>
       <c r="E48" s="31"/>
       <c r="F48" s="33" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="G48" s="31"/>
     </row>
@@ -4758,7 +4804,7 @@
       <c r="D49" s="30"/>
       <c r="E49" s="31"/>
       <c r="F49" s="33" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="G49" s="31"/>
     </row>
@@ -4766,7 +4812,7 @@
       <c r="D50" s="30"/>
       <c r="E50" s="31"/>
       <c r="F50" s="33" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="G50" s="31"/>
     </row>
@@ -4774,7 +4820,7 @@
       <c r="D51" s="30"/>
       <c r="E51" s="31"/>
       <c r="F51" s="33" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="G51" s="31"/>
     </row>
@@ -4782,23 +4828,23 @@
       <c r="D52" s="34"/>
       <c r="E52" s="35"/>
       <c r="F52" s="36" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="G52" s="35"/>
     </row>
     <row r="53" ht="21" spans="4:4">
       <c r="D53" s="37" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
     <row r="54" ht="15.75" spans="4:4">
       <c r="D54" s="38" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
     </row>
     <row r="55" ht="15.75" spans="4:4">
       <c r="D55" s="39" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -4848,483 +4894,483 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15:D16"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="103" customWidth="1"/>
-    <col min="2" max="2" width="30.6333333333333" style="103" customWidth="1"/>
-    <col min="3" max="3" width="25.6333333333333" style="103" customWidth="1"/>
-    <col min="4" max="4" width="11.1333333333333" style="103" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="103" customWidth="1"/>
-    <col min="6" max="6" width="32.625" style="103" customWidth="1"/>
-    <col min="7" max="7" width="17.8833333333333" style="103" customWidth="1"/>
-    <col min="8" max="8" width="28.25" style="103" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="103"/>
+    <col min="1" max="1" width="15.25" style="105" customWidth="1"/>
+    <col min="2" max="2" width="30.6333333333333" style="104" customWidth="1"/>
+    <col min="3" max="3" width="25.6333333333333" style="104" customWidth="1"/>
+    <col min="4" max="4" width="11.1333333333333" style="104" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="104" customWidth="1"/>
+    <col min="6" max="6" width="32.625" style="104" customWidth="1"/>
+    <col min="7" max="7" width="17.8833333333333" style="104" customWidth="1"/>
+    <col min="8" max="8" width="28.25" style="104" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="104"/>
   </cols>
   <sheetData>
-    <row r="1" s="103" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A1" s="95" t="s">
+    <row r="1" s="104" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A1" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="95" t="s">
+      <c r="H1" s="96" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" s="103" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A2" s="96">
+    <row r="2" s="104" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A2" s="107">
         <v>1001</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="96">
+      <c r="D2" s="107">
         <v>1</v>
       </c>
-      <c r="E2" s="96">
+      <c r="E2" s="107">
         <v>501</v>
       </c>
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="96" t="s">
+      <c r="G2" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="97" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" s="103" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A3" s="96">
+    <row r="3" s="104" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A3" s="107">
         <v>1002</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="96">
+      <c r="D3" s="107">
         <v>2</v>
       </c>
-      <c r="E3" s="96">
+      <c r="E3" s="107">
         <v>502</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="96" t="s">
+      <c r="G3" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="96" t="s">
+      <c r="H3" s="97" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" s="103" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A4" s="105">
+    <row r="4" s="104" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A4" s="111">
         <v>1003</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="105">
+      <c r="D4" s="111">
         <v>3</v>
       </c>
-      <c r="E4" s="96">
+      <c r="E4" s="107">
         <v>503</v>
       </c>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="96" t="s">
+      <c r="G4" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="96" t="s">
+      <c r="H4" s="97" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" s="103" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A5" s="107"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="96">
+    <row r="5" s="104" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A5" s="112"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="107">
         <v>516</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="F5" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="96" t="s">
+      <c r="G5" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="96" t="s">
+      <c r="H5" s="97" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" s="103" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A6" s="109"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="96">
+    <row r="6" s="104" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A6" s="115"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="107">
         <v>517</v>
       </c>
-      <c r="F6" s="96" t="s">
+      <c r="F6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="96" t="s">
+      <c r="G6" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="96" t="s">
+      <c r="H6" s="97" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" s="103" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A7" s="107">
+    <row r="7" s="104" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A7" s="112">
         <v>1004</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="107">
+      <c r="D7" s="111">
         <v>4</v>
       </c>
-      <c r="E7" s="96">
+      <c r="E7" s="107">
         <v>504</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="96" t="s">
+      <c r="H7" s="97" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" s="103" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="96">
+    <row r="8" s="104" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A8" s="112"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="107">
         <v>527</v>
       </c>
-      <c r="F8" s="96" t="s">
+      <c r="F8" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="96" t="s">
+      <c r="G8" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="96" t="s">
+      <c r="H8" s="97" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" s="103" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A9" s="109"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="96">
+    <row r="9" s="104" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A9" s="115"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="107">
         <v>528</v>
       </c>
-      <c r="F9" s="96" t="s">
+      <c r="F9" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="96" t="s">
+      <c r="G9" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="96" t="s">
+      <c r="H9" s="97" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" s="103" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A10" s="105">
+    <row r="10" s="104" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A10" s="111">
         <v>1005</v>
       </c>
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="106" t="s">
+      <c r="C10" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="105">
+      <c r="D10" s="111">
         <v>5</v>
       </c>
-      <c r="E10" s="96">
+      <c r="E10" s="107">
         <v>505</v>
       </c>
-      <c r="F10" s="96" t="s">
+      <c r="F10" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="96" t="s">
+      <c r="G10" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="96" t="s">
+      <c r="H10" s="97" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" s="103" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A11" s="107"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="96">
+    <row r="11" s="104" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A11" s="112"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="107">
         <v>506</v>
       </c>
-      <c r="F11" s="96" t="s">
+      <c r="F11" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="96" t="s">
+      <c r="G11" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="96" t="s">
+      <c r="H11" s="97" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" s="103" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="96">
+    <row r="12" s="104" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A12" s="112"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="107">
         <v>507</v>
       </c>
-      <c r="F12" s="96" t="s">
+      <c r="F12" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="96" t="s">
+      <c r="G12" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="96" t="s">
+      <c r="H12" s="97" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" s="103" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="96">
+    <row r="13" s="104" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A13" s="112"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="107">
         <v>508</v>
       </c>
-      <c r="F13" s="96" t="s">
+      <c r="F13" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="96" t="s">
+      <c r="G13" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="96" t="s">
+      <c r="H13" s="97" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" s="103" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A14" s="109"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="96">
+    <row r="14" s="104" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A14" s="115"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="107">
         <v>6</v>
       </c>
-      <c r="E14" s="96">
+      <c r="E14" s="107">
         <v>509</v>
       </c>
-      <c r="F14" s="96" t="s">
+      <c r="F14" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="96" t="s">
+      <c r="G14" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="96" t="s">
+      <c r="H14" s="97" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" s="103" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A15" s="105">
+    <row r="15" s="104" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A15" s="111">
         <v>1006</v>
       </c>
-      <c r="B15" s="105" t="s">
+      <c r="B15" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="106" t="s">
+      <c r="C15" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="105">
+      <c r="D15" s="111">
         <v>7</v>
       </c>
-      <c r="E15" s="96">
+      <c r="E15" s="107">
         <v>506</v>
       </c>
-      <c r="F15" s="96" t="s">
+      <c r="F15" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="96" t="s">
+      <c r="G15" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="96" t="s">
+      <c r="H15" s="97" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" s="103" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A16" s="107"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="96">
+    <row r="16" s="104" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A16" s="112"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="107">
         <v>508</v>
       </c>
-      <c r="F16" s="96" t="s">
+      <c r="F16" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="96" t="s">
+      <c r="G16" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="96" t="s">
+      <c r="H16" s="97" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" s="103" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A17" s="109"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="96">
+    <row r="17" s="104" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A17" s="115"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="107">
         <v>6</v>
       </c>
-      <c r="E17" s="96">
+      <c r="E17" s="107">
         <v>509</v>
       </c>
-      <c r="F17" s="96" t="s">
+      <c r="F17" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="96" t="s">
+      <c r="G17" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="96" t="s">
+      <c r="H17" s="97" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" s="103" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A18" s="105">
+    <row r="18" s="104" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A18" s="111">
         <v>1007</v>
       </c>
-      <c r="B18" s="105" t="s">
+      <c r="B18" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="106" t="s">
+      <c r="C18" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="105">
+      <c r="D18" s="111">
         <v>8</v>
       </c>
-      <c r="E18" s="96">
+      <c r="E18" s="107">
         <v>505</v>
       </c>
-      <c r="F18" s="96" t="s">
+      <c r="F18" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="96" t="s">
+      <c r="G18" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="96" t="s">
+      <c r="H18" s="97" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" s="103" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A19" s="107"/>
-      <c r="B19" s="107"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="96">
+    <row r="19" s="104" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A19" s="112"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="107">
         <v>523</v>
       </c>
-      <c r="F19" s="96" t="s">
+      <c r="F19" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="96" t="s">
+      <c r="G19" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="96" t="s">
+      <c r="H19" s="97" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" s="103" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A20" s="107"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="96">
+    <row r="20" s="104" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A20" s="112"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="107">
         <v>524</v>
       </c>
-      <c r="F20" s="96" t="s">
+      <c r="F20" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="96" t="s">
+      <c r="G20" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="96" t="s">
+      <c r="H20" s="97" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" ht="18.75" spans="1:8">
-      <c r="A21" s="107"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="96">
+      <c r="A21" s="112"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="107">
         <v>525</v>
       </c>
-      <c r="F21" s="96" t="s">
+      <c r="F21" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="96" t="s">
+      <c r="G21" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="96" t="s">
+      <c r="H21" s="97" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="22" ht="18.75" spans="1:8">
-      <c r="A22" s="109"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="96">
+      <c r="A22" s="115"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="107">
         <v>526</v>
       </c>
-      <c r="F22" s="96" t="s">
+      <c r="F22" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="96" t="s">
+      <c r="G22" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="96" t="s">
+      <c r="H22" s="97" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5369,7 +5415,7 @@
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="29.3833333333333" customWidth="1"/>
-    <col min="3" max="3" width="5.38333333333333" style="98" customWidth="1"/>
+    <col min="3" max="3" width="5.38333333333333" style="99" customWidth="1"/>
     <col min="4" max="4" width="29.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5385,10 +5431,10 @@
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:3">
-      <c r="A2" s="99">
+      <c r="A2" s="100">
         <v>0</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="101" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -5396,16 +5442,16 @@
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:4">
-      <c r="A3" s="99">
+      <c r="A3" s="100">
         <v>1</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="102" t="s">
+      <c r="D3" s="103" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5413,13 +5459,13 @@
       <c r="A4" s="75">
         <v>10</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="101" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="102"/>
+      <c r="D4" s="103"/>
     </row>
     <row r="5" ht="16.5" spans="1:4">
       <c r="A5" s="75">
@@ -5431,7 +5477,7 @@
       <c r="C5" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="102"/>
+      <c r="D5" s="103"/>
     </row>
     <row r="6" ht="16.5" spans="1:4">
       <c r="A6" s="75">
@@ -5443,7 +5489,7 @@
       <c r="C6" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="102"/>
+      <c r="D6" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5457,352 +5503,376 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.13333333333333" style="94" customWidth="1"/>
-    <col min="2" max="2" width="41" style="94" customWidth="1"/>
-    <col min="3" max="3" width="21.3833333333333" style="94" customWidth="1"/>
-    <col min="4" max="4" width="25.1333333333333" style="94" customWidth="1"/>
-    <col min="5" max="5" width="36" style="94" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="94"/>
+    <col min="1" max="1" width="9.13333333333333" style="95" customWidth="1"/>
+    <col min="2" max="2" width="41" style="95" customWidth="1"/>
+    <col min="3" max="3" width="21.3833333333333" style="95" customWidth="1"/>
+    <col min="4" max="4" width="11.5333333333333" style="95" customWidth="1"/>
+    <col min="5" max="5" width="25.1333333333333" style="95" customWidth="1"/>
+    <col min="6" max="6" width="36" style="95" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="95"/>
   </cols>
   <sheetData>
-    <row r="1" s="94" customFormat="1" spans="1:5">
-      <c r="A1" s="95" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="95" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="95" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="95" t="s">
+    <row r="1" s="95" customFormat="1" spans="1:6">
+      <c r="A1" s="96" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" s="94" customFormat="1" ht="37.5" spans="1:5">
-      <c r="A2" s="96">
+      <c r="B1" s="96" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="96" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="96" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" s="95" customFormat="1" ht="37.5" spans="1:6">
+      <c r="A2" s="97">
         <v>501</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="97"/>
+      <c r="E2" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" s="94" customFormat="1" ht="112.5" spans="1:5">
-      <c r="A3" s="96">
+      <c r="F2" s="98" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" s="95" customFormat="1" ht="112.5" spans="1:6">
+      <c r="A3" s="97">
         <v>502</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="96" t="s">
+      <c r="D3" s="97"/>
+      <c r="E3" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="97" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="96">
+      <c r="F3" s="98" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="97">
         <v>503</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="97"/>
+      <c r="E4" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="97"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="96">
+      <c r="F4" s="98"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="97">
         <v>504</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="97"/>
+      <c r="E5" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="97"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="96">
+      <c r="F5" s="98"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="97">
         <v>505</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="97"/>
+      <c r="E6" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="97"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="96">
+      <c r="F6" s="98"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="97">
         <v>506</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="97"/>
+      <c r="E7" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="97"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="96">
+      <c r="F7" s="98"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="97">
         <v>507</v>
       </c>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="96" t="s">
+      <c r="C8" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="97"/>
+      <c r="E8" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="97"/>
-    </row>
-    <row r="9" ht="75" spans="1:5">
-      <c r="A9" s="96">
+      <c r="F8" s="98"/>
+    </row>
+    <row r="9" ht="75" spans="1:6">
+      <c r="A9" s="97">
         <v>508</v>
       </c>
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="96" t="s">
+      <c r="D9" s="97"/>
+      <c r="E9" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="97" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="96">
+      <c r="F9" s="98" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="97">
         <v>509</v>
       </c>
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="96" t="s">
-        <v>116</v>
-      </c>
-      <c r="E10" s="97"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="96">
+      <c r="D10" s="97"/>
+      <c r="E10" s="97" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="98"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="97">
         <v>511</v>
       </c>
-      <c r="B11" s="96" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="96" t="s">
+      <c r="B11" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="96" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="97"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="96">
+      <c r="D11" s="97"/>
+      <c r="E11" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="98"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="97">
         <v>512</v>
       </c>
-      <c r="B12" s="96" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="96" t="s">
+      <c r="B12" s="97" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="96" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="97"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="96">
+      <c r="D12" s="97"/>
+      <c r="E12" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="98"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="97">
         <v>513</v>
       </c>
-      <c r="B13" s="96" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="96" t="s">
+      <c r="B13" s="97" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="96" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" s="97"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="96">
+      <c r="D13" s="97"/>
+      <c r="E13" s="97" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="98"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="97">
         <v>514</v>
       </c>
-      <c r="B14" s="96" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="96" t="s">
+      <c r="B14" s="97" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="96" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="97"/>
-    </row>
-    <row r="15" ht="56.25" spans="1:5">
-      <c r="A15" s="96">
+      <c r="D14" s="97"/>
+      <c r="E14" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="98"/>
+    </row>
+    <row r="15" ht="56.25" spans="1:6">
+      <c r="A15" s="97">
         <v>516</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="96" t="s">
+      <c r="D15" s="97"/>
+      <c r="E15" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="97" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="96">
+      <c r="F15" s="98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="97">
         <v>517</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="96" t="s">
+      <c r="C16" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="96" t="s">
+      <c r="D16" s="97"/>
+      <c r="E16" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="97"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="96">
+      <c r="F16" s="98"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="97">
         <v>523</v>
       </c>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="96" t="s">
+      <c r="C17" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="96" t="s">
+      <c r="D17" s="97"/>
+      <c r="E17" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="97"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="96">
+      <c r="F17" s="98"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="97">
         <v>524</v>
       </c>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="96" t="s">
+      <c r="C18" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="96" t="s">
+      <c r="D18" s="97"/>
+      <c r="E18" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="97"/>
-    </row>
-    <row r="19" ht="37.5" spans="1:5">
-      <c r="A19" s="96">
+      <c r="F18" s="98"/>
+    </row>
+    <row r="19" ht="37.5" spans="1:6">
+      <c r="A19" s="97">
         <v>525</v>
       </c>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="96" t="s">
+      <c r="C19" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="96" t="s">
+      <c r="D19" s="97"/>
+      <c r="E19" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="97" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" ht="37.5" spans="1:5">
-      <c r="A20" s="96">
+      <c r="F19" s="98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" ht="37.5" spans="1:6">
+      <c r="A20" s="97">
         <v>526</v>
       </c>
-      <c r="B20" s="96" t="s">
+      <c r="B20" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="96" t="s">
+      <c r="C20" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="96" t="s">
+      <c r="D20" s="97"/>
+      <c r="E20" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="97" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="96">
+      <c r="F20" s="98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="97">
         <v>529</v>
       </c>
-      <c r="B21" s="96" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="96" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="96" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="97"/>
+      <c r="B21" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="97" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="98"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5814,30 +5884,30 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.85" customWidth="1"/>
-    <col min="2" max="2" width="50.9333333333333" customWidth="1"/>
+    <col min="1" max="1" width="21.7666666666667" customWidth="1"/>
+    <col min="2" max="2" width="23.35" customWidth="1"/>
     <col min="3" max="3" width="39.4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="89" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C1" s="90" t="s">
-        <v>2</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" ht="40.5" spans="1:3">
@@ -5845,32 +5915,39 @@
         <v>58</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C2" s="92" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="91" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="93" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="93" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="92" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="91" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="93" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="93" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+      <c r="B4" s="93"/>
+      <c r="C4" s="94" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="91" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="94" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="94" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -5883,12 +5960,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5902,24 +5979,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="77" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B1" s="77" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D1" s="77" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E1" s="77" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A2" s="82" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B2" s="80"/>
       <c r="C2" s="80"/>
@@ -5928,24 +6005,24 @@
     </row>
     <row r="3" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A3" s="84" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B3" s="84" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D3" s="84" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E3" s="85" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A4" s="82" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B4" s="80"/>
       <c r="C4" s="80"/>
@@ -5954,24 +6031,24 @@
     </row>
     <row r="5" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A5" s="80" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A6" s="82" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B6" s="80"/>
       <c r="C6" s="80"/>
@@ -5980,24 +6057,24 @@
     </row>
     <row r="7" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A7" s="80" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B7" s="80" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E7" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A8" s="82" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B8" s="80"/>
       <c r="C8" s="80"/>
@@ -6006,19 +6083,19 @@
     </row>
     <row r="9" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A9" s="80" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B9" s="80" t="s">
         <v>57</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E9" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" s="76" customFormat="1" ht="18.75" spans="1:5">
@@ -6032,143 +6109,143 @@
     </row>
     <row r="11" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A11" s="84" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B11" s="84" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C11" s="84" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D11" s="84" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E11" s="85" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A12" s="84" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B12" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="85" t="s">
         <v>165</v>
-      </c>
-      <c r="C12" s="84" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="84" t="s">
-        <v>148</v>
-      </c>
-      <c r="E12" s="85" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="13" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A13" s="84" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B13" s="84" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C13" s="84" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D13" s="84" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E13" s="85" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A14" s="84" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B14" s="84" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C14" s="84" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D14" s="84" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E14" s="85" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A15" s="80" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B15" s="80" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C15" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D15" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E15" s="83" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A16" s="80" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B16" s="80" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D16" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E16" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A17" s="80" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B17" s="80" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C17" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E17" s="83" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A18" s="80" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="B18" s="80" t="s">
-        <v>169</v>
-      </c>
       <c r="C18" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D18" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E18" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A19" s="82" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B19" s="80"/>
       <c r="C19" s="80"/>
@@ -6177,70 +6254,70 @@
     </row>
     <row r="20" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A20" s="80" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B20" s="80" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C20" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D20" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E20" s="83" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A21" s="80" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="B21" s="80" t="s">
-        <v>169</v>
-      </c>
       <c r="C21" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E21" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A22" s="80" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B22" s="80" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C22" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D22" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E22" s="83" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A23" s="84" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B23" s="84" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C23" s="84" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D23" s="84" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E23" s="85" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" s="76" customFormat="1" ht="18.75" spans="1:5">
@@ -6254,75 +6331,75 @@
     </row>
     <row r="25" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A25" s="80" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B25" s="80" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C25" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D25" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E25" s="83" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A26" s="80" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B26" s="80" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C26" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D26" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E26" s="83" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A27" s="80" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B27" s="80" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C27" s="80" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D27" s="80" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E27" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A28" s="84" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B28" s="84" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C28" s="84" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D28" s="84" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E28" s="85" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A29" s="82" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B29" s="80"/>
       <c r="C29" s="80"/>
@@ -6331,517 +6408,517 @@
     </row>
     <row r="30" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A30" s="80" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B30" s="80" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C30" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D30" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E30" s="83" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A31" s="80" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B31" s="80" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C31" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D31" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E31" s="83" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A32" s="80" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B32" s="80" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C32" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D32" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E32" s="83" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A33" s="80" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B33" s="80" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C33" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D33" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E33" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A34" s="80" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B34" s="80" t="s">
         <v>85</v>
       </c>
       <c r="C34" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D34" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E34" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A35" s="80" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B35" s="80" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C35" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D35" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E35" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A36" s="80" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B36" s="80" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C36" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D36" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E36" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A37" s="80" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B37" s="80" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C37" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D37" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E37" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A38" s="80" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B38" s="80" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C38" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D38" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E38" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A39" s="80" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B39" s="80" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C39" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D39" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E39" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A40" s="80" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B40" s="80" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C40" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D40" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E40" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A41" s="80" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B41" s="80" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C41" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D41" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E41" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A42" s="80" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B42" s="80" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C42" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D42" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E42" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A43" s="80" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B43" s="80" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C43" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D43" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E43" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A44" s="80" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B44" s="80" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C44" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D44" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E44" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A45" s="80" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B45" s="80" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C45" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D45" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E45" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A46" s="80" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B46" s="80" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C46" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D46" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E46" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A47" s="80" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B47" s="80" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C47" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D47" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E47" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A48" s="80" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B48" s="80" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C48" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D48" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E48" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A49" s="80" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B49" s="80" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C49" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D49" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E49" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A50" s="80" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B50" s="80" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C50" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D50" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E50" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A51" s="80" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B51" s="80" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C51" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D51" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E51" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A52" s="80" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B52" s="80" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C52" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D52" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E52" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A53" s="80" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B53" s="80" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C53" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D53" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E53" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A54" s="80" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B54" s="80" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C54" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D54" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E54" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A55" s="80" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B55" s="80" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C55" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D55" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E55" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A56" s="80" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B56" s="80" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C56" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D56" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E56" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A57" s="80" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B57" s="80" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C57" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D57" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E57" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A58" s="80" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B58" s="80" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C58" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D58" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E58" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A59" s="84" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B59" s="84" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C59" s="84" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D59" s="84" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E59" s="85" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A60" s="82" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B60" s="80"/>
       <c r="C60" s="80"/>
@@ -6850,376 +6927,376 @@
     </row>
     <row r="61" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A61" s="80" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B61" s="80" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C61" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D61" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E61" s="83" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A62" s="80" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B62" s="80" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C62" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D62" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E62" s="83" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A63" s="80" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B63" s="80" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C63" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D63" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E63" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A64" s="80" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B64" s="80" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C64" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D64" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E64" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A65" s="80" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B65" s="80" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C65" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D65" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E65" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A66" s="80" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B66" s="80" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C66" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D66" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E66" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A67" s="80" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B67" s="80" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C67" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D67" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E67" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A68" s="80" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B68" s="80" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C68" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D68" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E68" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A69" s="80" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B69" s="80" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C69" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D69" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E69" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A70" s="80" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B70" s="80" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C70" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D70" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E70" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A71" s="80" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B71" s="80" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C71" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D71" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E71" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A72" s="80" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B72" s="80" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C72" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D72" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E72" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A73" s="80" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B73" s="80" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C73" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D73" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E73" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="74" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A74" s="80" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B74" s="80" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C74" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D74" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E74" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A75" s="80" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B75" s="80" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C75" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D75" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E75" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A76" s="80" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B76" s="80" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C76" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D76" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E76" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A77" s="80" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B77" s="80" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C77" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D77" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E77" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A78" s="80" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B78" s="80" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C78" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D78" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E78" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="79" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A79" s="80" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B79" s="80" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C79" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D79" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E79" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A80" s="80" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B80" s="80" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C80" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D80" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E80" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A81" s="80" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B81" s="80" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C81" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D81" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E81" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" s="76" customFormat="1" ht="16" customHeight="1" spans="1:9">
       <c r="A82" s="80" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B82" s="80" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C82" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D82" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E82" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="I82" s="76">
         <f>SUM(B79)</f>
@@ -7228,109 +7305,109 @@
     </row>
     <row r="83" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A83" s="80" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B83" s="80" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C83" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D83" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E83" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A84" s="80" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B84" s="80" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C84" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D84" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E84" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A85" s="80" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B85" s="80" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C85" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D85" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E85" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A86" s="80" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B86" s="80" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C86" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D86" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E86" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="87" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A87" s="80" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B87" s="80" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C87" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D87" s="80" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E87" s="83" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A88" s="84" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B88" s="84" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C88" s="84" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D88" s="84" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E88" s="85" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A89" s="82" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B89" s="80"/>
       <c r="C89" s="80"/>
@@ -7339,65 +7416,65 @@
     </row>
     <row r="90" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A90" s="84" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B90" s="84" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C90" s="84" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D90" s="84" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E90" s="85" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="91" customFormat="1" spans="4:9">
-      <c r="D91" s="86"/>
-      <c r="E91" s="86"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A91" s="84" t="s">
+        <v>285</v>
+      </c>
+      <c r="B91" s="84" t="s">
+        <v>286</v>
+      </c>
+      <c r="C91" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D91" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E91" s="85" t="s">
+        <v>165</v>
+      </c>
       <c r="F91" s="86"/>
       <c r="G91" s="87"/>
       <c r="H91" s="86"/>
       <c r="I91" s="87"/>
     </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="87" t="s">
-        <v>279</v>
-      </c>
-      <c r="B92" s="86" t="s">
-        <v>280</v>
-      </c>
-      <c r="C92" s="88" t="s">
-        <v>153</v>
-      </c>
-      <c r="D92" s="88" t="s">
-        <v>154</v>
-      </c>
-      <c r="E92" s="86" t="s">
-        <v>281</v>
-      </c>
+    <row r="92" customFormat="1" spans="4:9">
+      <c r="D92" s="86"/>
+      <c r="E92" s="86"/>
       <c r="F92" s="86"/>
       <c r="G92" s="87"/>
       <c r="H92" s="86"/>
       <c r="I92" s="87"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" t="s">
-        <v>282</v>
+      <c r="A93" s="87" t="s">
+        <v>287</v>
       </c>
       <c r="B93" s="86" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C93" s="88" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D93" s="88" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E93" s="86" t="s">
-        <v>159</v>
+        <v>289</v>
       </c>
       <c r="F93" s="86"/>
       <c r="G93" s="87"/>
@@ -7406,19 +7483,19 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B94" s="86" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C94" s="88" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D94" s="88" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E94" s="86" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="F94" s="86"/>
       <c r="G94" s="87"/>
@@ -7427,19 +7504,19 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B95" s="86" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C95" s="88" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D95" s="88" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E95" s="86" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="F95" s="86"/>
       <c r="G95" s="87"/>
@@ -7448,19 +7525,19 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B96" s="86" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C96" s="88" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D96" s="88" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E96" s="86" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="F96" s="86"/>
       <c r="G96" s="87"/>
@@ -7469,19 +7546,19 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B97" s="86" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C97" s="88" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D97" s="88" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E97" s="86" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="F97" s="86"/>
       <c r="G97" s="87"/>
@@ -7490,19 +7567,19 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B98" s="86" t="s">
+        <v>300</v>
+      </c>
+      <c r="C98" s="88" t="s">
+        <v>159</v>
+      </c>
+      <c r="D98" s="88" t="s">
+        <v>160</v>
+      </c>
+      <c r="E98" s="86" t="s">
         <v>294</v>
-      </c>
-      <c r="C98" s="88" t="s">
-        <v>153</v>
-      </c>
-      <c r="D98" s="88" t="s">
-        <v>154</v>
-      </c>
-      <c r="E98" s="86" t="s">
-        <v>286</v>
       </c>
       <c r="F98" s="86"/>
       <c r="G98" s="87"/>
@@ -7511,19 +7588,19 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B99" s="86" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C99" s="88" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D99" s="88" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E99" s="86" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="F99" s="86"/>
       <c r="G99" s="87"/>
@@ -7532,19 +7609,19 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B100" s="86" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C100" s="88" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D100" s="88" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E100" s="86" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="F100" s="86"/>
       <c r="G100" s="87"/>
@@ -7553,19 +7630,19 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B101" s="86" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C101" s="88" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D101" s="88" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E101" s="86" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="F101" s="86"/>
       <c r="G101" s="87"/>
@@ -7574,19 +7651,19 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B102" s="86" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C102" s="88" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D102" s="88" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E102" s="86" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="F102" s="86"/>
       <c r="G102" s="87"/>
@@ -7595,19 +7672,19 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B103" s="86" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C103" s="88" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D103" s="88" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E103" s="86" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="F103" s="86"/>
       <c r="G103" s="87"/>
@@ -7616,19 +7693,19 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B104" s="86" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C104" s="88" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D104" s="88" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E104" s="86" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="F104" s="86"/>
       <c r="G104" s="87"/>
@@ -7637,19 +7714,19 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B105" s="86" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C105" s="88" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D105" s="88" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E105" s="86" t="s">
-        <v>159</v>
+        <v>294</v>
       </c>
       <c r="F105" s="86"/>
       <c r="G105" s="87"/>
@@ -7658,19 +7735,19 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B106" s="86" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C106" s="88" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D106" s="88" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E106" s="86" t="s">
-        <v>311</v>
+        <v>165</v>
       </c>
       <c r="F106" s="86"/>
       <c r="G106" s="87"/>
@@ -7679,19 +7756,19 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B107" s="86" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C107" s="88" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D107" s="88" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E107" s="86" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F107" s="86"/>
       <c r="G107" s="87"/>
@@ -7700,19 +7777,19 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B108" s="86" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C108" s="88" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D108" s="88" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E108" s="86" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F108" s="86"/>
       <c r="G108" s="87"/>
@@ -7721,19 +7798,19 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B109" s="86" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C109" s="88" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D109" s="88" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E109" s="86" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F109" s="86"/>
       <c r="G109" s="87"/>
@@ -7742,19 +7819,19 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B110" s="86" t="s">
+        <v>325</v>
+      </c>
+      <c r="C110" s="88" t="s">
+        <v>159</v>
+      </c>
+      <c r="D110" s="88" t="s">
+        <v>160</v>
+      </c>
+      <c r="E110" s="86" t="s">
         <v>319</v>
-      </c>
-      <c r="C110" s="88" t="s">
-        <v>153</v>
-      </c>
-      <c r="D110" s="88" t="s">
-        <v>154</v>
-      </c>
-      <c r="E110" s="86" t="s">
-        <v>311</v>
       </c>
       <c r="F110" s="86"/>
       <c r="G110" s="87"/>
@@ -7763,19 +7840,19 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B111" s="86" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C111" s="88" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D111" s="88" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E111" s="86" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F111" s="86"/>
       <c r="G111" s="87"/>
@@ -7784,19 +7861,19 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B112" s="86" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C112" s="88" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D112" s="88" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E112" s="86" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F112" s="86"/>
       <c r="G112" s="87"/>
@@ -7805,61 +7882,82 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B113" s="86" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C113" s="88" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D113" s="88" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E113" s="86" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="F113" s="86"/>
       <c r="G113" s="87"/>
       <c r="H113" s="86"/>
       <c r="I113" s="87"/>
     </row>
-    <row r="114" ht="24" spans="1:9">
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B114" s="86" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C114" s="88" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D114" s="88" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E114" s="86" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="F114" s="86"/>
       <c r="G114" s="87"/>
       <c r="H114" s="86"/>
       <c r="I114" s="87"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" ht="24" spans="1:9">
       <c r="A115" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B115" s="86" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C115" s="88" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D115" s="88" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E115" s="86" t="s">
-        <v>331</v>
+        <v>336</v>
+      </c>
+      <c r="F115" s="86"/>
+      <c r="G115" s="87"/>
+      <c r="H115" s="86"/>
+      <c r="I115" s="87"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>337</v>
+      </c>
+      <c r="B116" s="86" t="s">
+        <v>338</v>
+      </c>
+      <c r="C116" s="88" t="s">
+        <v>159</v>
+      </c>
+      <c r="D116" s="88" t="s">
+        <v>160</v>
+      </c>
+      <c r="E116" s="86" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -7892,34 +7990,34 @@
     <row r="1" spans="1:11">
       <c r="A1" s="77"/>
       <c r="B1" s="77" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="D1" s="77" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="E1" s="77" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="F1" s="77" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="G1" s="77" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="H1" s="77" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="I1" s="77" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="J1" s="77" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="K1" s="77" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -7927,13 +8025,13 @@
         <v>33</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C2" s="79">
         <v>45547</v>
       </c>
       <c r="D2" s="79" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="E2" s="79">
         <v>45555</v>
@@ -7942,17 +8040,17 @@
         <v>45554</v>
       </c>
       <c r="G2" s="78" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="H2" s="78"/>
       <c r="I2" s="78" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="J2" s="78" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="K2" s="78" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7960,13 +8058,13 @@
         <v>24</v>
       </c>
       <c r="B3" s="78" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C3" s="79">
         <v>45547</v>
       </c>
       <c r="D3" s="79" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="E3" s="79">
         <v>45555</v>
@@ -7975,17 +8073,17 @@
         <v>45554</v>
       </c>
       <c r="G3" s="78" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="H3" s="78"/>
       <c r="I3" s="78" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="J3" s="78" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="K3" s="78" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7993,13 +8091,13 @@
         <v>28</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C4" s="79">
         <v>45547</v>
       </c>
       <c r="D4" s="79" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="E4" s="79">
         <v>45555</v>
@@ -8008,29 +8106,29 @@
         <v>45554</v>
       </c>
       <c r="G4" s="78" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="H4" s="78"/>
       <c r="I4" s="78" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="J4" s="78" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="K4" s="78" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="78"/>
       <c r="B5" s="78" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="C5" s="79">
         <v>45547</v>
       </c>
       <c r="D5" s="79" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="E5" s="79">
         <v>45555</v>
@@ -8039,31 +8137,31 @@
         <v>45554</v>
       </c>
       <c r="G5" s="78" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="H5" s="78" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="I5" s="78" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="J5" s="78" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="K5" s="78" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="78"/>
       <c r="B6" s="78" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="C6" s="79">
         <v>45547</v>
       </c>
       <c r="D6" s="79" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="E6" s="79">
         <v>45555</v>
@@ -8072,29 +8170,29 @@
         <v>45554</v>
       </c>
       <c r="G6" s="78" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="H6" s="78"/>
       <c r="I6" s="78" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="J6" s="78" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="K6" s="78" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="78"/>
       <c r="B7" s="78" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="C7" s="79">
         <v>45547</v>
       </c>
       <c r="D7" s="79" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="E7" s="79">
         <v>45555</v>
@@ -8103,31 +8201,31 @@
         <v>45554</v>
       </c>
       <c r="G7" s="78" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="H7" s="78" t="s">
+        <v>361</v>
+      </c>
+      <c r="I7" s="78" t="s">
+        <v>352</v>
+      </c>
+      <c r="J7" s="78" t="s">
         <v>353</v>
       </c>
-      <c r="I7" s="78" t="s">
-        <v>344</v>
-      </c>
-      <c r="J7" s="78" t="s">
-        <v>345</v>
-      </c>
       <c r="K7" s="78" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:11">
       <c r="A8" s="78"/>
       <c r="B8" s="78" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C8" s="79">
         <v>45554</v>
       </c>
       <c r="D8" s="79" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="E8" s="79">
         <v>45555</v>
@@ -8136,29 +8234,29 @@
         <v>45554</v>
       </c>
       <c r="G8" s="78" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="H8" s="78"/>
       <c r="I8" s="78" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="J8" s="78" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="K8" s="78" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" s="76" customFormat="1" spans="1:11">
       <c r="A9" s="80"/>
       <c r="B9" s="80" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C9" s="81">
         <v>45555</v>
       </c>
       <c r="D9" s="81" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="E9" s="79">
         <v>45577</v>
@@ -8167,19 +8265,19 @@
         <v>45573</v>
       </c>
       <c r="G9" s="78" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="H9" s="80" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="I9" s="80" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="J9" s="80" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="K9" s="80" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" s="76" customFormat="1" spans="1:11">
@@ -8187,13 +8285,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="80" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C10" s="81">
         <v>45547</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="E10" s="79">
         <v>45577</v>
@@ -8202,19 +8300,19 @@
         <v>45573</v>
       </c>
       <c r="G10" s="78" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="H10" s="80" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="I10" s="80" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="J10" s="80" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="K10" s="80" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" s="76" customFormat="1" spans="1:11">
@@ -8222,13 +8320,13 @@
         <v>37</v>
       </c>
       <c r="B11" s="80" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C11" s="81">
         <v>45547</v>
       </c>
       <c r="D11" s="81" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="E11" s="79">
         <v>45577</v>
@@ -8237,17 +8335,17 @@
         <v>45573</v>
       </c>
       <c r="G11" s="78" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="H11" s="80"/>
       <c r="I11" s="80" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="J11" s="80" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="K11" s="80" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" s="76" customFormat="1"/>
@@ -8279,41 +8377,41 @@
   <sheetData>
     <row r="1" ht="21" spans="1:5">
       <c r="A1" s="74" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B1" s="74" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="D1" s="74" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="E1" s="74" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" ht="21" spans="1:5">
       <c r="A2" s="74" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="E2" s="75" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" ht="21" spans="1:5">
       <c r="A3" s="74" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B3" s="14">
         <v>5</v>
@@ -8330,44 +8428,44 @@
     </row>
     <row r="4" ht="21" spans="1:6">
       <c r="A4" s="74" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="E4" s="75" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="F4" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" ht="21" spans="1:5">
       <c r="A5" s="74" t="s">
+        <v>386</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>370</v>
-      </c>
       <c r="C5" s="14" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" ht="21" spans="1:5">
       <c r="A6" s="74" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B6" s="14">
         <v>1</v>
@@ -8384,22 +8482,22 @@
     </row>
     <row r="7" ht="21" spans="1:5">
       <c r="A7" s="74" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="75" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" ht="21" spans="1:5">
       <c r="A8" s="74" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B8" s="75">
         <v>0</v>
@@ -8416,7 +8514,7 @@
     </row>
     <row r="9" ht="21" spans="1:5">
       <c r="A9" s="74" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B9" s="75">
         <v>0</v>
@@ -8459,13 +8557,13 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="53" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="D1" s="56"/>
       <c r="E1" s="57"/>
@@ -8478,16 +8576,16 @@
       <c r="A2" s="59"/>
       <c r="B2" s="60"/>
       <c r="C2" s="61" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="F2" s="62" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="G2" s="63"/>
     </row>
@@ -8496,23 +8594,23 @@
         <v>4000</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="D3" s="66"/>
       <c r="E3" s="67"/>
       <c r="F3" s="64"/>
       <c r="G3" s="67" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="64"/>
       <c r="B4" s="68"/>
       <c r="C4" s="66" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="D4" s="66"/>
       <c r="E4" s="67"/>
@@ -8524,16 +8622,16 @@
         <v>4001</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="D5" s="66"/>
       <c r="E5" s="67"/>
       <c r="F5" s="64"/>
       <c r="G5" s="67" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8541,23 +8639,23 @@
         <v>4002</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="D6" s="66"/>
       <c r="E6" s="67"/>
       <c r="F6" s="64"/>
       <c r="G6" s="69" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="71"/>
       <c r="B7" s="68"/>
       <c r="C7" s="66" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="D7" s="66"/>
       <c r="E7" s="67"/>
@@ -8568,10 +8666,10 @@
       <c r="A8" s="71"/>
       <c r="B8" s="68"/>
       <c r="C8" s="66" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="E8" s="67"/>
       <c r="F8" s="64"/>
@@ -8581,7 +8679,7 @@
       <c r="A9" s="72"/>
       <c r="B9" s="73"/>
       <c r="C9" s="66" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="D9" s="66"/>
       <c r="E9" s="66"/>
@@ -8593,13 +8691,13 @@
         <v>4003</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="E10" s="66"/>
       <c r="F10" s="66"/>
@@ -8609,10 +8707,10 @@
       <c r="A11" s="72"/>
       <c r="B11" s="73"/>
       <c r="C11" s="66" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="D11" s="66" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="E11" s="66"/>
       <c r="F11" s="66"/>
@@ -8623,10 +8721,10 @@
         <v>4004</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="C12" s="66" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="D12" s="66"/>
       <c r="E12" s="66"/>
@@ -8637,7 +8735,7 @@
       <c r="A13" s="72"/>
       <c r="B13" s="73"/>
       <c r="C13" s="66" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="D13" s="66"/>
       <c r="E13" s="66"/>
@@ -8649,10 +8747,10 @@
         <v>4005</v>
       </c>
       <c r="B14" s="70" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C14" s="66" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="D14" s="66"/>
       <c r="E14" s="66"/>
@@ -8663,7 +8761,7 @@
       <c r="A15" s="72"/>
       <c r="B15" s="73"/>
       <c r="C15" s="66" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D15" s="66"/>
       <c r="E15" s="66"/>
@@ -8675,10 +8773,10 @@
         <v>4006</v>
       </c>
       <c r="B16" s="70" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="D16" s="66"/>
       <c r="E16" s="66"/>
@@ -8689,7 +8787,7 @@
       <c r="A17" s="72"/>
       <c r="B17" s="73"/>
       <c r="C17" s="66" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="D17" s="66"/>
       <c r="E17" s="66"/>
@@ -8701,10 +8799,10 @@
         <v>4007</v>
       </c>
       <c r="B18" s="70" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="D18" s="66"/>
       <c r="E18" s="66"/>
@@ -8715,7 +8813,7 @@
       <c r="A19" s="72"/>
       <c r="B19" s="73"/>
       <c r="C19" s="66" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="D19" s="66"/>
       <c r="E19" s="66"/>
@@ -8727,10 +8825,10 @@
         <v>4008</v>
       </c>
       <c r="B20" s="70" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C20" s="66" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="D20" s="66"/>
       <c r="E20" s="67"/>
@@ -8741,7 +8839,7 @@
       <c r="A21" s="72"/>
       <c r="B21" s="73"/>
       <c r="C21" s="66" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="D21" s="66"/>
       <c r="E21" s="67"/>

--- a/equipment_cyg/product/zhong_che_yi_xing/zhong_che_yi_xing_manual.xlsx
+++ b/equipment_cyg/product/zhong_che_yi_xing/zhong_che_yi_xing_manual.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="504"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="504" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="secs指令" sheetId="2" r:id="rId1"/>
@@ -1891,6 +1891,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color rgb="FF4472C4"/>
       <name val="Calibri"/>
@@ -1907,13 +1914,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="42">
@@ -3927,7 +3927,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
@@ -4894,7 +4894,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18:C22"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5505,10 +5505,10 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>

--- a/equipment_cyg/product/zhong_che_yi_xing/zhong_che_yi_xing_manual.xlsx
+++ b/equipment_cyg/product/zhong_che_yi_xing/zhong_che_yi_xing_manual.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="504" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="504"/>
   </bookViews>
   <sheets>
     <sheet name="secs指令" sheetId="2" r:id="rId1"/>
@@ -113,7 +113,7 @@
   <si>
     <t>报警/解除报警上报给Host
 alarm_code的数据类型：BINARRY
-alarm_id的数据类型：I4
+alarm_id的数据类型：U4
 alarm_text的数据类型：ASCII</t>
   </si>
   <si>
@@ -1891,13 +1891,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color rgb="FF4472C4"/>
       <name val="Calibri"/>
@@ -1914,6 +1907,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="42">
@@ -3927,10 +3927,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -4894,7 +4894,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5505,10 +5505,10 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>

--- a/equipment_cyg/product/zhong_che_yi_xing/zhong_che_yi_xing_manual.xlsx
+++ b/equipment_cyg/product/zhong_che_yi_xing/zhong_che_yi_xing_manual.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="504"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="504" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="secs指令" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="485">
   <si>
     <t>direction</t>
   </si>
@@ -113,7 +113,7 @@
   <si>
     <t>报警/解除报警上报给Host
 alarm_code的数据类型：BINARRY
-alarm_id的数据类型：U4
+alarm_id的数据类型：I4
 alarm_text的数据类型：ASCII</t>
   </si>
   <si>
@@ -218,7 +218,7 @@
     <t>运行状态变化</t>
   </si>
   <si>
-    <t>current_machine_state</t>
+    <t>currnet_machine_state</t>
   </si>
   <si>
     <t>当前运行状态</t>
@@ -384,21 +384,6 @@
   </si>
   <si>
     <t>FrameSN</t>
-  </si>
-  <si>
-    <t>svid</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>value_type</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>description</t>
   </si>
   <si>
     <t>values</t>
@@ -470,10 +455,10 @@
     <t>remote_command</t>
   </si>
   <si>
-    <t>params</t>
-  </si>
-  <si>
-    <t>recipe_id_name</t>
+    <t>param_values</t>
+  </si>
+  <si>
+    <t>["recipe_id_name","recipe_id_name_value"]</t>
   </si>
   <si>
     <r>
@@ -499,22 +484,19 @@
     </r>
   </si>
   <si>
-    <t>equipment_start</t>
-  </si>
-  <si>
-    <t>设备启动</t>
-  </si>
-  <si>
     <t>equipment_stop</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>设备停止</t>
   </si>
   <si>
     <t>track_in_reply</t>
   </si>
   <si>
-    <t>state</t>
+    <t>["state","state_value"]</t>
   </si>
   <si>
     <t>1:ok,2:ng</t>
@@ -934,13 +916,7 @@
     <t>Application.gvl_OPMODE01_MES.mes2plc.geneal.response_partDone[2]</t>
   </si>
   <si>
-    <t>进站设备停止，1：run，2：stop</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_MES.Stop_command</t>
-  </si>
-  <si>
-    <t>拨针设备停止，1：stop</t>
+    <t>设备停止，1：run，2：stop</t>
   </si>
   <si>
     <t>Application.gvl_OPMODE01_RECIPE.ActiveParameters.Direction_selection.Direction_selection[0..50]</t>
@@ -1174,6 +1150,9 @@
     <t>进站只回复，只发送进站事件</t>
   </si>
   <si>
+    <t>修改完成,待plc修改</t>
+  </si>
+  <si>
     <t>取消track_in_reply远程命令</t>
   </si>
   <si>
@@ -1193,6 +1172,9 @@
   </si>
   <si>
     <t>需要显示弹框信息</t>
+  </si>
+  <si>
+    <t>修改中</t>
   </si>
   <si>
     <t>低</t>
@@ -1621,12 +1603,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -1916,7 +1897,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1968,6 +1949,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2576,7 +2563,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2600,7 +2587,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -2609,7 +2596,7 @@
     <xf numFmtId="0" fontId="28" fillId="5" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2618,89 +2605,89 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2939,15 +2926,21 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2957,6 +2950,12 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2969,7 +2968,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2978,16 +2977,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2999,13 +2995,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3014,15 +3010,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3032,20 +3019,11 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3137,13 +3115,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>176530</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3868420</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3161,7 +3139,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="176530" y="25760045"/>
+          <a:off x="176530" y="25521920"/>
           <a:ext cx="11807190" cy="5368290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3179,13 +3157,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>149225</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2091690</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3203,7 +3181,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="149225" y="31055945"/>
+          <a:off x="149225" y="30817820"/>
           <a:ext cx="10057765" cy="2571750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3221,13 +3199,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>92075</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3395345</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3245,7 +3223,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="92075" y="33757235"/>
+          <a:off x="92075" y="33519110"/>
           <a:ext cx="11418570" cy="3177540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3263,13 +3241,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>168275</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3357245</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3287,7 +3265,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="168275" y="37193855"/>
+          <a:off x="168275" y="36955730"/>
           <a:ext cx="11304270" cy="4690110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3305,13 +3283,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>275590</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2042795</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3329,7 +3307,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="275590" y="41891585"/>
+          <a:off x="275590" y="41653460"/>
           <a:ext cx="9882505" cy="3756660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3347,13 +3325,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>351155</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2065020</xdr:colOff>
-      <xdr:row>259</xdr:row>
+      <xdr:row>258</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3371,7 +3349,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="351155" y="45686345"/>
+          <a:off x="351155" y="45448220"/>
           <a:ext cx="9829165" cy="4522470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3389,13 +3367,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>328295</xdr:colOff>
-      <xdr:row>259</xdr:row>
+      <xdr:row>258</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1965960</xdr:colOff>
-      <xdr:row>290</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3413,7 +3391,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="328295" y="50170715"/>
+          <a:off x="328295" y="49932590"/>
           <a:ext cx="9752965" cy="5303520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3431,13 +3409,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>274955</xdr:colOff>
-      <xdr:row>289</xdr:row>
+      <xdr:row>288</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1927860</xdr:colOff>
-      <xdr:row>320</xdr:row>
+      <xdr:row>319</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3455,7 +3433,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="274955" y="55458995"/>
+          <a:off x="274955" y="55220870"/>
           <a:ext cx="9768205" cy="5223510"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3473,13 +3451,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>252095</xdr:colOff>
-      <xdr:row>320</xdr:row>
+      <xdr:row>319</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1935480</xdr:colOff>
-      <xdr:row>346</xdr:row>
+      <xdr:row>345</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3497,7 +3475,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="252095" y="60674885"/>
+          <a:off x="252095" y="60436760"/>
           <a:ext cx="9798685" cy="4511040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3515,13 +3493,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>229235</xdr:colOff>
-      <xdr:row>346</xdr:row>
+      <xdr:row>345</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1874520</xdr:colOff>
-      <xdr:row>377</xdr:row>
+      <xdr:row>376</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3539,7 +3517,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="229235" y="65239265"/>
+          <a:off x="229235" y="65001140"/>
           <a:ext cx="9760585" cy="5238750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3557,13 +3535,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>175895</xdr:colOff>
-      <xdr:row>377</xdr:row>
+      <xdr:row>376</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1889760</xdr:colOff>
-      <xdr:row>408</xdr:row>
+      <xdr:row>407</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3581,7 +3559,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="175895" y="70462775"/>
+          <a:off x="175895" y="70224650"/>
           <a:ext cx="9829165" cy="5246370"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3599,13 +3577,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>198755</xdr:colOff>
-      <xdr:row>408</xdr:row>
+      <xdr:row>407</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3144520</xdr:colOff>
-      <xdr:row>412</xdr:row>
+      <xdr:row>411</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3623,7 +3601,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="198755" y="75762485"/>
+          <a:off x="198755" y="75524360"/>
           <a:ext cx="11061065" cy="640080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3927,233 +3905,233 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17.1333333333333" style="104" customWidth="1"/>
-    <col min="2" max="2" width="9" style="104"/>
-    <col min="3" max="3" width="27.7333333333333" style="104" customWidth="1"/>
-    <col min="4" max="4" width="4.75833333333333" style="104" customWidth="1"/>
-    <col min="5" max="5" width="17.1333333333333" style="104" customWidth="1"/>
-    <col min="6" max="6" width="9" style="104"/>
-    <col min="7" max="7" width="29.525" style="104" customWidth="1"/>
-    <col min="8" max="8" width="42.5" style="104" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="104"/>
+    <col min="1" max="1" width="17.1333333333333" style="107" customWidth="1"/>
+    <col min="2" max="2" width="9" style="107"/>
+    <col min="3" max="3" width="27.7333333333333" style="107" customWidth="1"/>
+    <col min="4" max="4" width="4.75833333333333" style="107" customWidth="1"/>
+    <col min="5" max="5" width="17.1333333333333" style="107" customWidth="1"/>
+    <col min="6" max="6" width="9" style="107"/>
+    <col min="7" max="7" width="29.525" style="107" customWidth="1"/>
+    <col min="8" max="8" width="42.5" style="107" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="107"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="119"/>
-      <c r="E1" s="118" t="s">
+      <c r="D1" s="116"/>
+      <c r="E1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="118" t="s">
+      <c r="G1" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="115" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="120" t="s">
+      <c r="E2" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="120" t="s">
+      <c r="F2" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120" t="s">
+      <c r="G2" s="117"/>
+      <c r="H2" s="117" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:8">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="120" t="s">
+      <c r="E3" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="120" t="s">
+      <c r="F3" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="120"/>
-      <c r="H3" s="121" t="s">
+      <c r="G3" s="117"/>
+      <c r="H3" s="118" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="1:8">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="120" t="s">
+      <c r="C4" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="120" t="s">
+      <c r="E4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="120" t="s">
+      <c r="F4" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="120" t="s">
+      <c r="G4" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="121" t="s">
+      <c r="H4" s="118" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="120"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="E5" s="120" t="s">
+      <c r="A5" s="117"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="E5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="120" t="s">
+      <c r="F5" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="120" t="s">
+      <c r="G5" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="120"/>
+      <c r="H5" s="117"/>
     </row>
     <row r="6" ht="54" spans="1:8">
-      <c r="A6" s="120"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="E6" s="120" t="s">
+      <c r="A6" s="117"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="E6" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="120" t="s">
+      <c r="F6" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="121" t="s">
+      <c r="G6" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="121" t="s">
+      <c r="H6" s="118" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="120" t="s">
+      <c r="E7" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="120" t="s">
+      <c r="F7" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="120" t="s">
+      <c r="G7" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="121" t="s">
+      <c r="H7" s="118" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="120" t="s">
+      <c r="E8" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="120" t="s">
+      <c r="F8" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="121" t="s">
+      <c r="G8" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="121" t="s">
+      <c r="H8" s="118" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="120" t="s">
+      <c r="E9" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="120" t="s">
+      <c r="F9" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="120"/>
+      <c r="H9" s="117"/>
     </row>
     <row r="10" ht="27" spans="1:8">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="120" t="s">
+      <c r="B10" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="120" t="s">
+      <c r="E10" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="120" t="s">
+      <c r="F10" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="120" t="s">
+      <c r="G10" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="121" t="s">
+      <c r="H10" s="118" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4191,24 +4169,24 @@
   <sheetData>
     <row r="1" ht="21.75" spans="4:4">
       <c r="D1" s="2" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="4:9">
       <c r="D2" s="3" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>102</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>101</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>102</v>
@@ -4219,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="F3" s="7">
         <v>1</v>
@@ -4228,7 +4206,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="I3" s="40" t="s">
         <v>106</v>
@@ -4240,7 +4218,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="8" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="I4" s="41"/>
     </row>
@@ -4250,7 +4228,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="8" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="I5" s="41"/>
     </row>
@@ -4260,7 +4238,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="8" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="I6" s="41"/>
     </row>
@@ -4270,7 +4248,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="8" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="I7" s="42"/>
     </row>
@@ -4279,7 +4257,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F8" s="7">
         <v>2</v>
@@ -4288,13 +4266,13 @@
         <v>2</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="I8" s="40" t="s">
         <v>104</v>
       </c>
       <c r="K8" s="43" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>102</v>
@@ -4307,7 +4285,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="8" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="I9" s="41"/>
       <c r="K9" s="14">
@@ -4317,7 +4295,7 @@
         <v>106</v>
       </c>
       <c r="M9" s="45" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="4:13">
@@ -4326,13 +4304,13 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="8" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="I10" s="41"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="45" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="4:13">
@@ -4341,13 +4319,13 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="8" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="I11" s="42"/>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
       <c r="M11" s="45" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="4:13">
@@ -4355,7 +4333,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F12" s="12">
         <v>3</v>
@@ -4364,15 +4342,15 @@
         <v>3</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
       <c r="M12" s="45" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="4:13">
@@ -4380,7 +4358,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="F13" s="15">
         <v>4</v>
@@ -4389,15 +4367,15 @@
         <v>4</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="46" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="4:13">
@@ -4408,10 +4386,10 @@
         <v>5</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="K14" s="14">
         <v>2</v>
@@ -4420,7 +4398,7 @@
         <v>104</v>
       </c>
       <c r="M14" s="45" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="4:13">
@@ -4428,7 +4406,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F15" s="15">
         <v>5</v>
@@ -4437,15 +4415,15 @@
         <v>4</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
       <c r="M15" s="45" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="4:13">
@@ -4456,15 +4434,15 @@
         <v>5</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
       <c r="M16" s="45" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="4:13">
@@ -4475,15 +4453,15 @@
         <v>6</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="46" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="4:13">
@@ -4491,7 +4469,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F18" s="15">
         <v>6</v>
@@ -4500,19 +4478,19 @@
         <v>4</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="K18" s="11">
         <v>3</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="M18" s="46" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="4:13">
@@ -4520,7 +4498,7 @@
         <v>7</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -4530,10 +4508,10 @@
         <v>4</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="M19" s="46" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="4:9">
@@ -4541,7 +4519,7 @@
         <v>8</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F20" s="15">
         <v>8</v>
@@ -4550,10 +4528,10 @@
         <v>8</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="4:9">
@@ -4561,7 +4539,7 @@
         <v>9</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -4573,7 +4551,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="F22" s="16">
         <v>10</v>
@@ -4582,10 +4560,10 @@
         <v>10</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="4:9">
@@ -4612,16 +4590,16 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="K25" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="L25" s="48" t="s">
         <v>102</v>
       </c>
       <c r="M25" s="48" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="N25" s="48" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" ht="32.25" spans="4:14">
@@ -4632,20 +4610,20 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="K26" s="49" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="L26" s="50" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="M26" s="50"/>
       <c r="N26" s="50" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="4:14">
       <c r="D27" s="11"/>
       <c r="E27" s="16" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -4655,17 +4633,17 @@
         <v>101</v>
       </c>
       <c r="L27" s="50" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="M27" s="50"/>
       <c r="N27" s="50" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="4:9">
       <c r="D28" s="23"/>
       <c r="E28" s="16" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -4675,45 +4653,45 @@
     <row r="37" ht="14.25"/>
     <row r="38" ht="16.5" spans="4:10">
       <c r="D38" s="24" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I38" s="51" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="J38" s="52" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="39" ht="16.5" spans="4:10">
       <c r="D39" s="27" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="H39" s="11">
         <v>1</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="J39" s="12">
         <v>2</v>
@@ -4723,14 +4701,14 @@
       <c r="D40" s="30"/>
       <c r="E40" s="31"/>
       <c r="F40" s="29" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="G40" s="31"/>
       <c r="H40" s="11">
         <v>2</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="J40" s="12">
         <v>2</v>
@@ -4740,7 +4718,7 @@
       <c r="D41" s="30"/>
       <c r="E41" s="31"/>
       <c r="F41" s="32" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="G41" s="31"/>
     </row>
@@ -4748,7 +4726,7 @@
       <c r="D42" s="30"/>
       <c r="E42" s="31"/>
       <c r="F42" s="33" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G42" s="31"/>
     </row>
@@ -4756,7 +4734,7 @@
       <c r="D43" s="30"/>
       <c r="E43" s="31"/>
       <c r="F43" s="33" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="G43" s="31"/>
     </row>
@@ -4764,7 +4742,7 @@
       <c r="D44" s="30"/>
       <c r="E44" s="31"/>
       <c r="F44" s="33" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G44" s="31"/>
     </row>
@@ -4772,7 +4750,7 @@
       <c r="D45" s="30"/>
       <c r="E45" s="31"/>
       <c r="F45" s="33" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G45" s="31"/>
     </row>
@@ -4780,7 +4758,7 @@
       <c r="D46" s="30"/>
       <c r="E46" s="31"/>
       <c r="F46" s="33" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G46" s="31"/>
     </row>
@@ -4788,7 +4766,7 @@
       <c r="D47" s="30"/>
       <c r="E47" s="31"/>
       <c r="F47" s="33" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="G47" s="31"/>
     </row>
@@ -4796,7 +4774,7 @@
       <c r="D48" s="30"/>
       <c r="E48" s="31"/>
       <c r="F48" s="33" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G48" s="31"/>
     </row>
@@ -4804,7 +4782,7 @@
       <c r="D49" s="30"/>
       <c r="E49" s="31"/>
       <c r="F49" s="33" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="G49" s="31"/>
     </row>
@@ -4812,7 +4790,7 @@
       <c r="D50" s="30"/>
       <c r="E50" s="31"/>
       <c r="F50" s="33" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G50" s="31"/>
     </row>
@@ -4820,7 +4798,7 @@
       <c r="D51" s="30"/>
       <c r="E51" s="31"/>
       <c r="F51" s="33" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="G51" s="31"/>
     </row>
@@ -4828,23 +4806,23 @@
       <c r="D52" s="34"/>
       <c r="E52" s="35"/>
       <c r="F52" s="36" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G52" s="35"/>
     </row>
     <row r="53" ht="21" spans="4:4">
       <c r="D53" s="37" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="54" ht="15.75" spans="4:4">
       <c r="D54" s="38" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="55" ht="15.75" spans="4:4">
       <c r="D55" s="39" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -4894,76 +4872,76 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18:B22"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="105" customWidth="1"/>
-    <col min="2" max="2" width="30.6333333333333" style="104" customWidth="1"/>
-    <col min="3" max="3" width="25.6333333333333" style="104" customWidth="1"/>
-    <col min="4" max="4" width="11.1333333333333" style="104" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="104" customWidth="1"/>
-    <col min="6" max="6" width="32.625" style="104" customWidth="1"/>
-    <col min="7" max="7" width="17.8833333333333" style="104" customWidth="1"/>
-    <col min="8" max="8" width="28.25" style="104" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="104"/>
+    <col min="1" max="1" width="15.25" style="107" customWidth="1"/>
+    <col min="2" max="2" width="30.6333333333333" style="107" customWidth="1"/>
+    <col min="3" max="3" width="25.6333333333333" style="107" customWidth="1"/>
+    <col min="4" max="4" width="11.1333333333333" style="107" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="107" customWidth="1"/>
+    <col min="6" max="6" width="32.625" style="107" customWidth="1"/>
+    <col min="7" max="7" width="17.8833333333333" style="107" customWidth="1"/>
+    <col min="8" max="8" width="28.25" style="107" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="107"/>
   </cols>
   <sheetData>
-    <row r="1" s="104" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A1" s="106" t="s">
+    <row r="1" s="107" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A1" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="96" t="s">
+      <c r="H1" s="99" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" s="104" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A2" s="107">
+    <row r="2" s="107" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A2" s="100">
         <v>1001</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="100" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="107">
+      <c r="D2" s="100">
         <v>1</v>
       </c>
-      <c r="E2" s="107">
+      <c r="E2" s="100">
         <v>501</v>
       </c>
-      <c r="F2" s="97" t="s">
+      <c r="F2" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="97" t="s">
+      <c r="G2" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="97" t="s">
+      <c r="H2" s="100" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" s="104" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A3" s="107">
+    <row r="3" s="107" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A3" s="100">
         <v>1002</v>
       </c>
       <c r="B3" s="109" t="s">
@@ -4972,24 +4950,24 @@
       <c r="C3" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="107">
+      <c r="D3" s="100">
         <v>2</v>
       </c>
-      <c r="E3" s="107">
+      <c r="E3" s="100">
         <v>502</v>
       </c>
-      <c r="F3" s="97" t="s">
+      <c r="F3" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="97" t="s">
+      <c r="G3" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="97" t="s">
+      <c r="H3" s="100" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" s="104" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A4" s="111">
+    <row r="4" s="107" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A4" s="109">
         <v>1003</v>
       </c>
       <c r="B4" s="109" t="s">
@@ -4998,60 +4976,60 @@
       <c r="C4" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="111">
+      <c r="D4" s="109">
         <v>3</v>
       </c>
-      <c r="E4" s="107">
+      <c r="E4" s="100">
         <v>503</v>
       </c>
-      <c r="F4" s="97" t="s">
+      <c r="F4" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="97" t="s">
+      <c r="G4" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="97" t="s">
+      <c r="H4" s="100" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" s="104" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A5" s="112"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="107">
+    <row r="5" s="107" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="100">
         <v>516</v>
       </c>
-      <c r="F5" s="97" t="s">
+      <c r="F5" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="97" t="s">
+      <c r="G5" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="97" t="s">
+      <c r="H5" s="100" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" s="104" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A6" s="115"/>
-      <c r="B6" s="113"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="107">
+    <row r="6" s="107" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A6" s="113"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="100">
         <v>517</v>
       </c>
-      <c r="F6" s="97" t="s">
+      <c r="F6" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="97" t="s">
+      <c r="G6" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="97" t="s">
+      <c r="H6" s="100" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" s="104" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A7" s="112">
+    <row r="7" s="107" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A7" s="111">
         <v>1004</v>
       </c>
       <c r="B7" s="109" t="s">
@@ -5063,57 +5041,57 @@
       <c r="D7" s="111">
         <v>4</v>
       </c>
-      <c r="E7" s="107">
+      <c r="E7" s="100">
         <v>504</v>
       </c>
-      <c r="F7" s="97" t="s">
+      <c r="F7" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="97" t="s">
+      <c r="G7" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="97" t="s">
+      <c r="H7" s="100" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" s="104" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A8" s="112"/>
-      <c r="B8" s="113"/>
+    <row r="8" s="107" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A8" s="111"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="108"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="107">
+      <c r="D8" s="111"/>
+      <c r="E8" s="100">
         <v>527</v>
       </c>
-      <c r="F8" s="97" t="s">
+      <c r="F8" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="97" t="s">
+      <c r="G8" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="97" t="s">
+      <c r="H8" s="100" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" s="104" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A9" s="115"/>
-      <c r="B9" s="116"/>
+    <row r="9" s="107" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A9" s="113"/>
+      <c r="B9" s="113"/>
       <c r="C9" s="108"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="107">
+      <c r="D9" s="113"/>
+      <c r="E9" s="100">
         <v>528</v>
       </c>
-      <c r="F9" s="97" t="s">
+      <c r="F9" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="97" t="s">
+      <c r="G9" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="97" t="s">
+      <c r="H9" s="100" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" s="104" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A10" s="111">
+    <row r="10" s="107" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A10" s="109">
         <v>1005</v>
       </c>
       <c r="B10" s="109" t="s">
@@ -5122,98 +5100,98 @@
       <c r="C10" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="111">
+      <c r="D10" s="109">
         <v>5</v>
       </c>
-      <c r="E10" s="107">
+      <c r="E10" s="100">
         <v>505</v>
       </c>
-      <c r="F10" s="97" t="s">
+      <c r="F10" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="97" t="s">
+      <c r="G10" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="97" t="s">
+      <c r="H10" s="100" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" s="104" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A11" s="112"/>
-      <c r="B11" s="113"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="107">
+    <row r="11" s="107" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A11" s="111"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="100">
         <v>506</v>
       </c>
-      <c r="F11" s="97" t="s">
+      <c r="F11" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="97" t="s">
+      <c r="G11" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="97" t="s">
+      <c r="H11" s="100" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" s="104" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A12" s="112"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="107">
+    <row r="12" s="107" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A12" s="111"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="100">
         <v>507</v>
       </c>
-      <c r="F12" s="97" t="s">
+      <c r="F12" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="97" t="s">
+      <c r="G12" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="97" t="s">
+      <c r="H12" s="100" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" s="104" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A13" s="112"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="107">
+    <row r="13" s="107" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A13" s="111"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="100">
         <v>508</v>
       </c>
-      <c r="F13" s="97" t="s">
+      <c r="F13" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="97" t="s">
+      <c r="G13" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="97" t="s">
+      <c r="H13" s="100" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" s="104" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A14" s="115"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="107">
+    <row r="14" s="107" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="100">
         <v>6</v>
       </c>
-      <c r="E14" s="107">
+      <c r="E14" s="100">
         <v>509</v>
       </c>
-      <c r="F14" s="97" t="s">
+      <c r="F14" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="97" t="s">
+      <c r="G14" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="97" t="s">
+      <c r="H14" s="100" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" s="104" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A15" s="111">
+    <row r="15" s="107" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A15" s="109">
         <v>1006</v>
       </c>
       <c r="B15" s="109" t="s">
@@ -5222,62 +5200,62 @@
       <c r="C15" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="111">
+      <c r="D15" s="109">
         <v>7</v>
       </c>
-      <c r="E15" s="107">
+      <c r="E15" s="100">
         <v>506</v>
       </c>
-      <c r="F15" s="97" t="s">
+      <c r="F15" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="97" t="s">
+      <c r="G15" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="97" t="s">
+      <c r="H15" s="100" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" s="104" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A16" s="112"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="107">
+    <row r="16" s="107" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A16" s="111"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="100">
         <v>508</v>
       </c>
-      <c r="F16" s="97" t="s">
+      <c r="F16" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="97" t="s">
+      <c r="G16" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="97" t="s">
+      <c r="H16" s="100" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" s="104" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A17" s="115"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="107">
+    <row r="17" s="107" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A17" s="113"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="100">
         <v>6</v>
       </c>
-      <c r="E17" s="107">
+      <c r="E17" s="100">
         <v>509</v>
       </c>
-      <c r="F17" s="97" t="s">
+      <c r="F17" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="97" t="s">
+      <c r="G17" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="97" t="s">
+      <c r="H17" s="100" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" s="104" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A18" s="111">
+    <row r="18" s="107" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A18" s="109">
         <v>1007</v>
       </c>
       <c r="B18" s="109" t="s">
@@ -5286,91 +5264,91 @@
       <c r="C18" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="111">
+      <c r="D18" s="109">
         <v>8</v>
       </c>
-      <c r="E18" s="107">
+      <c r="E18" s="100">
         <v>505</v>
       </c>
-      <c r="F18" s="97" t="s">
+      <c r="F18" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="97" t="s">
+      <c r="G18" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="97" t="s">
+      <c r="H18" s="100" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" s="104" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A19" s="112"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="107">
+    <row r="19" s="107" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A19" s="111"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="100">
         <v>523</v>
       </c>
-      <c r="F19" s="97" t="s">
+      <c r="F19" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="97" t="s">
+      <c r="G19" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="97" t="s">
+      <c r="H19" s="100" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" s="104" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A20" s="112"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="107">
+    <row r="20" s="107" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A20" s="111"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="100">
         <v>524</v>
       </c>
-      <c r="F20" s="97" t="s">
+      <c r="F20" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="97" t="s">
+      <c r="G20" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="97" t="s">
+      <c r="H20" s="100" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" ht="18.75" spans="1:8">
-      <c r="A21" s="112"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="107">
+      <c r="A21" s="111"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="100">
         <v>525</v>
       </c>
-      <c r="F21" s="97" t="s">
+      <c r="F21" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="97" t="s">
+      <c r="G21" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="97" t="s">
+      <c r="H21" s="100" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="22" ht="18.75" spans="1:8">
-      <c r="A22" s="115"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="107">
+      <c r="A22" s="113"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="100">
         <v>526</v>
       </c>
-      <c r="F22" s="97" t="s">
+      <c r="F22" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="97" t="s">
+      <c r="G22" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="97" t="s">
+      <c r="H22" s="100" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5415,7 +5393,7 @@
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="29.3833333333333" customWidth="1"/>
-    <col min="3" max="3" width="5.38333333333333" style="99" customWidth="1"/>
+    <col min="3" max="3" width="5.38333333333333" style="102" customWidth="1"/>
     <col min="4" max="4" width="29.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5431,10 +5409,10 @@
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:3">
-      <c r="A2" s="100">
+      <c r="A2" s="103">
         <v>0</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="104" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -5442,16 +5420,16 @@
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:4">
-      <c r="A3" s="100">
+      <c r="A3" s="103">
         <v>1</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="103" t="s">
+      <c r="D3" s="106" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5459,13 +5437,13 @@
       <c r="A4" s="75">
         <v>10</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="104" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="103"/>
+      <c r="D4" s="106"/>
     </row>
     <row r="5" ht="16.5" spans="1:4">
       <c r="A5" s="75">
@@ -5477,7 +5455,7 @@
       <c r="C5" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="103"/>
+      <c r="D5" s="106"/>
     </row>
     <row r="6" ht="16.5" spans="1:4">
       <c r="A6" s="75">
@@ -5489,7 +5467,7 @@
       <c r="C6" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="103"/>
+      <c r="D6" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5503,376 +5481,352 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.13333333333333" style="95" customWidth="1"/>
-    <col min="2" max="2" width="41" style="95" customWidth="1"/>
-    <col min="3" max="3" width="21.3833333333333" style="95" customWidth="1"/>
-    <col min="4" max="4" width="11.5333333333333" style="95" customWidth="1"/>
-    <col min="5" max="5" width="25.1333333333333" style="95" customWidth="1"/>
-    <col min="6" max="6" width="36" style="95" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="95"/>
+    <col min="1" max="1" width="9.13333333333333" style="98" customWidth="1"/>
+    <col min="2" max="2" width="41" style="98" customWidth="1"/>
+    <col min="3" max="3" width="21.3833333333333" style="98" customWidth="1"/>
+    <col min="4" max="4" width="25.1333333333333" style="98" customWidth="1"/>
+    <col min="5" max="5" width="36" style="98" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" s="95" customFormat="1" spans="1:6">
-      <c r="A1" s="96" t="s">
+    <row r="1" s="98" customFormat="1" spans="1:5">
+      <c r="A1" s="99" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="99" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="96" t="s">
+    </row>
+    <row r="2" s="98" customFormat="1" ht="37.5" spans="1:5">
+      <c r="A2" s="100">
+        <v>501</v>
+      </c>
+      <c r="B2" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="96" t="s">
+    </row>
+    <row r="3" s="98" customFormat="1" ht="112.5" spans="1:5">
+      <c r="A3" s="100">
+        <v>502</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="96" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="100">
+        <v>503</v>
+      </c>
+      <c r="B4" s="100" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="101"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="100">
+        <v>504</v>
+      </c>
+      <c r="B5" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="101"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="100">
+        <v>505</v>
+      </c>
+      <c r="B6" s="100" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="100" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="101"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="100">
+        <v>506</v>
+      </c>
+      <c r="B7" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="100" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="101"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="100">
+        <v>507</v>
+      </c>
+      <c r="B8" s="100" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="100" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="101"/>
+    </row>
+    <row r="9" ht="75" spans="1:5">
+      <c r="A9" s="100">
+        <v>508</v>
+      </c>
+      <c r="B9" s="100" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="100" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="100" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="101" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="96" t="s">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="100">
+        <v>509</v>
+      </c>
+      <c r="B10" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="100" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="E10" s="101"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="100">
+        <v>511</v>
+      </c>
+      <c r="B11" s="100" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" s="95" customFormat="1" ht="37.5" spans="1:6">
-      <c r="A2" s="97">
-        <v>501</v>
-      </c>
-      <c r="B2" s="97" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="98" t="s">
+      <c r="C11" s="100" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="100" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="3" s="95" customFormat="1" ht="112.5" spans="1:6">
-      <c r="A3" s="97">
-        <v>502</v>
-      </c>
-      <c r="B3" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="98" t="s">
+      <c r="E11" s="101"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="100">
+        <v>512</v>
+      </c>
+      <c r="B12" s="100" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="97">
-        <v>503</v>
-      </c>
-      <c r="B4" s="97" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="97" t="s">
+      <c r="C12" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="98"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="97">
-        <v>504</v>
-      </c>
-      <c r="B5" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="97" t="s">
+      <c r="D12" s="100" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="101"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="100">
+        <v>513</v>
+      </c>
+      <c r="B13" s="100" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="100" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="100" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="101"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="100">
+        <v>514</v>
+      </c>
+      <c r="B14" s="100" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="98"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="97">
-        <v>505</v>
-      </c>
-      <c r="B6" s="97" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="97" t="s">
+      <c r="D14" s="100" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="101"/>
+    </row>
+    <row r="15" ht="56.25" spans="1:5">
+      <c r="A15" s="100">
+        <v>516</v>
+      </c>
+      <c r="B15" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="100" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="101" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="100">
+        <v>517</v>
+      </c>
+      <c r="B16" s="100" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="98"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="97">
-        <v>506</v>
-      </c>
-      <c r="B7" s="97" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="97" t="s">
+      <c r="D16" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="101"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="100">
+        <v>523</v>
+      </c>
+      <c r="B17" s="100" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="98"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="97">
-        <v>507</v>
-      </c>
-      <c r="B8" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="97" t="s">
+      <c r="D17" s="100" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="101"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="100">
+        <v>524</v>
+      </c>
+      <c r="B18" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="101"/>
+    </row>
+    <row r="19" ht="37.5" spans="1:5">
+      <c r="A19" s="100">
+        <v>525</v>
+      </c>
+      <c r="B19" s="100" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="98"/>
-    </row>
-    <row r="9" ht="75" spans="1:6">
-      <c r="A9" s="97">
-        <v>508</v>
-      </c>
-      <c r="B9" s="97" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="97" t="s">
+      <c r="D19" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" ht="37.5" spans="1:5">
+      <c r="A20" s="100">
+        <v>526</v>
+      </c>
+      <c r="B20" s="100" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="98" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="97">
-        <v>509</v>
-      </c>
-      <c r="B10" s="97" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="97" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="98"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="97">
-        <v>511</v>
-      </c>
-      <c r="B11" s="97" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" s="98"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="97">
-        <v>512</v>
-      </c>
-      <c r="B12" s="97" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="97" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="98"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="97">
-        <v>513</v>
-      </c>
-      <c r="B13" s="97" t="s">
+      <c r="D20" s="100" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="101" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97" t="s">
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="100">
+        <v>529</v>
+      </c>
+      <c r="B21" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="F13" s="98"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="97">
-        <v>514</v>
-      </c>
-      <c r="B14" s="97" t="s">
+      <c r="C21" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="97" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97" t="s">
+      <c r="D21" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="F14" s="98"/>
-    </row>
-    <row r="15" ht="56.25" spans="1:6">
-      <c r="A15" s="97">
-        <v>516</v>
-      </c>
-      <c r="B15" s="97" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="98" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="97">
-        <v>517</v>
-      </c>
-      <c r="B16" s="97" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="97" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="98"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="97">
-        <v>523</v>
-      </c>
-      <c r="B17" s="97" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="97" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="98"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="97">
-        <v>524</v>
-      </c>
-      <c r="B18" s="97" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="97" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="98"/>
-    </row>
-    <row r="19" ht="37.5" spans="1:6">
-      <c r="A19" s="97">
-        <v>525</v>
-      </c>
-      <c r="B19" s="97" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="98" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" ht="37.5" spans="1:6">
-      <c r="A20" s="97">
-        <v>526</v>
-      </c>
-      <c r="B20" s="97" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="98" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="97">
-        <v>529</v>
-      </c>
-      <c r="B21" s="97" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" s="97" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" s="98"/>
+      <c r="E21" s="101"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5884,70 +5838,63 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="21.7666666666667" customWidth="1"/>
-    <col min="2" max="2" width="23.35" customWidth="1"/>
+    <col min="1" max="1" width="20.85" customWidth="1"/>
+    <col min="2" max="2" width="50.9333333333333" customWidth="1"/>
     <col min="3" max="3" width="39.4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="40.5" spans="1:3">
+      <c r="A2" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="95" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="97" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="C3" s="97" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="90" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" ht="40.5" spans="1:3">
-      <c r="A2" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="91" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="B4" s="97" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="91" t="s">
+      <c r="C4" s="97" t="s">
         <v>139</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="92" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="91" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="94" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="91" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="94" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -5960,12 +5907,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
+      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5979,1324 +5926,1324 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="77" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B1" s="77" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A2" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85"/>
+    </row>
+    <row r="3" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A3" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D3" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E3" s="87" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A2" s="82" t="s">
+    <row r="4" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A4" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="83"/>
-    </row>
-    <row r="3" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A3" s="84" t="s">
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="85"/>
+    </row>
+    <row r="5" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A5" s="84" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B5" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D3" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" s="85" t="s">
+      <c r="C5" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="85" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A4" s="82" t="s">
+    <row r="6" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A6" s="83" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="83"/>
-    </row>
-    <row r="5" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A5" s="80" t="s">
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="85"/>
+    </row>
+    <row r="7" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A7" s="84" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B7" s="84" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C7" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="80" t="s">
+    </row>
+    <row r="8" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A8" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="85"/>
+    </row>
+    <row r="9" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A9" s="84" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="6" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A6" s="82" t="s">
+      <c r="B9" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A10" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="85"/>
+    </row>
+    <row r="11" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A11" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="83"/>
-    </row>
-    <row r="7" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A7" s="80" t="s">
+      <c r="B11" s="86" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="C11" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="87" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A12" s="86" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="B12" s="86" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E7" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A8" s="82" t="s">
+    </row>
+    <row r="13" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A13" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="83"/>
-    </row>
-    <row r="9" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A9" s="80" t="s">
+      <c r="B13" s="86" t="s">
         <v>167</v>
       </c>
-      <c r="B9" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="80" t="s">
+      <c r="C13" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="87" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A14" s="86" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A10" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="83"/>
-    </row>
-    <row r="11" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A11" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11" s="84" t="s">
+    </row>
+    <row r="15" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A15" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="85" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A16" s="84" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="84" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A17" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="84" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="85" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A18" s="84" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" s="84" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E11" s="85" t="s">
+      <c r="C18" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A19" s="83" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="85"/>
+    </row>
+    <row r="20" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A20" s="84" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="85" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A21" s="84" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A22" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="84" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="85" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="12" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A12" s="84" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E12" s="85" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A13" s="84" t="s">
-        <v>172</v>
-      </c>
-      <c r="B13" s="84" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E13" s="85" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A14" s="84" t="s">
-        <v>174</v>
-      </c>
-      <c r="B14" s="84" t="s">
-        <v>175</v>
-      </c>
-      <c r="C14" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" s="85" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A15" s="80" t="s">
-        <v>176</v>
-      </c>
-      <c r="B15" s="80" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" s="80" t="s">
+    <row r="23" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A23" s="86" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="87" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A24" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="85"/>
+    </row>
+    <row r="25" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A25" s="84" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25" s="84" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="85" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A26" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" s="84" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" s="85" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" s="82" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A27" s="88" t="s">
+        <v>185</v>
+      </c>
+      <c r="B27" s="88" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="D15" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E15" s="83" t="s">
+    </row>
+    <row r="28" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A28" s="86" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" s="86" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="87" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A29" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="85"/>
+    </row>
+    <row r="30" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A30" s="84" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" s="85" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A31" s="84" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31" s="84" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" s="85" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A16" s="80" t="s">
-        <v>178</v>
-      </c>
-      <c r="B16" s="80" t="s">
-        <v>179</v>
-      </c>
-      <c r="C16" s="80" t="s">
+    <row r="32" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A32" s="84" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32" s="84" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="85" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A33" s="84" t="s">
+        <v>195</v>
+      </c>
+      <c r="B33" s="84" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="D16" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A17" s="80" t="s">
-        <v>180</v>
-      </c>
-      <c r="B17" s="80" t="s">
-        <v>173</v>
-      </c>
-      <c r="C17" s="80" t="s">
+    </row>
+    <row r="34" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A34" s="84" t="s">
+        <v>197</v>
+      </c>
+      <c r="B34" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="D17" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E17" s="83" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A18" s="80" t="s">
-        <v>181</v>
-      </c>
-      <c r="B18" s="80" t="s">
-        <v>175</v>
-      </c>
-      <c r="C18" s="80" t="s">
+    </row>
+    <row r="35" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A35" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="D18" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E18" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A19" s="82" t="s">
-        <v>182</v>
-      </c>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="83"/>
-    </row>
-    <row r="20" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A20" s="80" t="s">
-        <v>183</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>184</v>
-      </c>
-      <c r="C20" s="80" t="s">
+    </row>
+    <row r="36" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A36" s="84" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" s="84" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="D20" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E20" s="83" t="s">
+    </row>
+    <row r="37" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A37" s="84" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" s="84" t="s">
+        <v>203</v>
+      </c>
+      <c r="C37" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A38" s="84" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" s="84" t="s">
+        <v>205</v>
+      </c>
+      <c r="C38" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E38" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A39" s="84" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39" s="84" t="s">
+        <v>207</v>
+      </c>
+      <c r="C39" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A40" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" s="84" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A41" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="B41" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="C41" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A42" s="84" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="C42" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A43" s="84" t="s">
+        <v>214</v>
+      </c>
+      <c r="B43" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A44" s="84" t="s">
+        <v>216</v>
+      </c>
+      <c r="B44" s="84" t="s">
+        <v>217</v>
+      </c>
+      <c r="C44" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E44" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A45" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="B45" s="84" t="s">
+        <v>219</v>
+      </c>
+      <c r="C45" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A46" s="84" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46" s="84" t="s">
+        <v>221</v>
+      </c>
+      <c r="C46" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E46" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A47" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="B47" s="84" t="s">
+        <v>223</v>
+      </c>
+      <c r="C47" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E47" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A48" s="84" t="s">
+        <v>224</v>
+      </c>
+      <c r="B48" s="84" t="s">
+        <v>225</v>
+      </c>
+      <c r="C48" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A49" s="84" t="s">
+        <v>226</v>
+      </c>
+      <c r="B49" s="84" t="s">
+        <v>227</v>
+      </c>
+      <c r="C49" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D49" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A50" s="84" t="s">
+        <v>228</v>
+      </c>
+      <c r="B50" s="84" t="s">
+        <v>229</v>
+      </c>
+      <c r="C50" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A51" s="84" t="s">
+        <v>230</v>
+      </c>
+      <c r="B51" s="84" t="s">
+        <v>231</v>
+      </c>
+      <c r="C51" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A52" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="B52" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="C52" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A53" s="84" t="s">
+        <v>234</v>
+      </c>
+      <c r="B53" s="84" t="s">
+        <v>235</v>
+      </c>
+      <c r="C53" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E53" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A54" s="84" t="s">
+        <v>236</v>
+      </c>
+      <c r="B54" s="84" t="s">
+        <v>237</v>
+      </c>
+      <c r="C54" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A55" s="84" t="s">
+        <v>238</v>
+      </c>
+      <c r="B55" s="84" t="s">
+        <v>239</v>
+      </c>
+      <c r="C55" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E55" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A56" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="B56" s="84" t="s">
+        <v>241</v>
+      </c>
+      <c r="C56" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E56" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A57" s="84" t="s">
+        <v>242</v>
+      </c>
+      <c r="B57" s="84" t="s">
+        <v>243</v>
+      </c>
+      <c r="C57" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D57" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A58" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="B58" s="84" t="s">
+        <v>245</v>
+      </c>
+      <c r="C58" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A59" s="86" t="s">
+        <v>246</v>
+      </c>
+      <c r="B59" s="86" t="s">
+        <v>247</v>
+      </c>
+      <c r="C59" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="E59" s="87" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A60" s="83" t="s">
+        <v>248</v>
+      </c>
+      <c r="B60" s="84"/>
+      <c r="C60" s="84"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="85"/>
+    </row>
+    <row r="61" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A61" s="84" t="s">
+        <v>249</v>
+      </c>
+      <c r="B61" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="C61" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E61" s="85" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A62" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="B62" s="84" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D62" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E62" s="85" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="21" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A21" s="80" t="s">
-        <v>181</v>
-      </c>
-      <c r="B21" s="80" t="s">
-        <v>175</v>
-      </c>
-      <c r="C21" s="80" t="s">
+    <row r="63" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A63" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="B63" s="84" t="s">
+        <v>252</v>
+      </c>
+      <c r="C63" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D63" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E63" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="D21" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E21" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A22" s="80" t="s">
-        <v>180</v>
-      </c>
-      <c r="B22" s="80" t="s">
-        <v>173</v>
-      </c>
-      <c r="C22" s="80" t="s">
+    </row>
+    <row r="64" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A64" s="84" t="s">
+        <v>253</v>
+      </c>
+      <c r="B64" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="C64" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D64" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E64" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="D22" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E22" s="83" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A23" s="84" t="s">
-        <v>185</v>
-      </c>
-      <c r="B23" s="84" t="s">
-        <v>186</v>
-      </c>
-      <c r="C23" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D23" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E23" s="85" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A24" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="83"/>
-    </row>
-    <row r="25" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A25" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="B25" s="80" t="s">
-        <v>188</v>
-      </c>
-      <c r="C25" s="80" t="s">
+    </row>
+    <row r="65" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A65" s="84" t="s">
+        <v>254</v>
+      </c>
+      <c r="B65" s="84" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D65" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E65" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="D25" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E25" s="83" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A26" s="80" t="s">
-        <v>189</v>
-      </c>
-      <c r="B26" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="C26" s="80" t="s">
+    </row>
+    <row r="66" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A66" s="84" t="s">
+        <v>255</v>
+      </c>
+      <c r="B66" s="84" t="s">
+        <v>203</v>
+      </c>
+      <c r="C66" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D66" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E66" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="D26" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E26" s="83" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A27" s="80" t="s">
-        <v>191</v>
-      </c>
-      <c r="B27" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="C27" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="D27" s="80" t="s">
-        <v>154</v>
-      </c>
-      <c r="E27" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A28" s="84" t="s">
-        <v>193</v>
-      </c>
-      <c r="B28" s="84" t="s">
-        <v>194</v>
-      </c>
-      <c r="C28" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D28" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E28" s="85" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A29" s="82" t="s">
-        <v>195</v>
-      </c>
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="83"/>
-    </row>
-    <row r="30" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A30" s="80" t="s">
-        <v>196</v>
-      </c>
-      <c r="B30" s="80" t="s">
-        <v>197</v>
-      </c>
-      <c r="C30" s="80" t="s">
+    </row>
+    <row r="67" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A67" s="84" t="s">
+        <v>256</v>
+      </c>
+      <c r="B67" s="84" t="s">
+        <v>205</v>
+      </c>
+      <c r="C67" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D67" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E67" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="D30" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E30" s="83" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A31" s="80" t="s">
-        <v>198</v>
-      </c>
-      <c r="B31" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="C31" s="80" t="s">
+    </row>
+    <row r="68" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A68" s="84" t="s">
+        <v>257</v>
+      </c>
+      <c r="B68" s="84" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D68" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E68" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="D31" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E31" s="83" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="32" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A32" s="80" t="s">
-        <v>199</v>
-      </c>
-      <c r="B32" s="80" t="s">
-        <v>200</v>
-      </c>
-      <c r="C32" s="80" t="s">
+    </row>
+    <row r="69" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A69" s="84" t="s">
+        <v>258</v>
+      </c>
+      <c r="B69" s="84" t="s">
+        <v>209</v>
+      </c>
+      <c r="C69" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D69" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="D32" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E32" s="83" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="33" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A33" s="80" t="s">
-        <v>201</v>
-      </c>
-      <c r="B33" s="80" t="s">
-        <v>202</v>
-      </c>
-      <c r="C33" s="80" t="s">
+    </row>
+    <row r="70" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A70" s="84" t="s">
+        <v>259</v>
+      </c>
+      <c r="B70" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="C70" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D70" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E70" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="D33" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E33" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="34" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A34" s="80" t="s">
-        <v>203</v>
-      </c>
-      <c r="B34" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="80" t="s">
+    </row>
+    <row r="71" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A71" s="84" t="s">
+        <v>260</v>
+      </c>
+      <c r="B71" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="C71" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D71" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="D34" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E34" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="35" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A35" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="B35" s="80" t="s">
-        <v>205</v>
-      </c>
-      <c r="C35" s="80" t="s">
+    </row>
+    <row r="72" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A72" s="84" t="s">
+        <v>261</v>
+      </c>
+      <c r="B72" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="C72" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D72" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E72" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="D35" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E35" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A36" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="B36" s="80" t="s">
-        <v>207</v>
-      </c>
-      <c r="C36" s="80" t="s">
+    </row>
+    <row r="73" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A73" s="84" t="s">
+        <v>262</v>
+      </c>
+      <c r="B73" s="84" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D73" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E73" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="D36" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E36" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="37" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A37" s="80" t="s">
-        <v>208</v>
-      </c>
-      <c r="B37" s="80" t="s">
-        <v>209</v>
-      </c>
-      <c r="C37" s="80" t="s">
+    </row>
+    <row r="74" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A74" s="84" t="s">
+        <v>263</v>
+      </c>
+      <c r="B74" s="84" t="s">
+        <v>219</v>
+      </c>
+      <c r="C74" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D74" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E74" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="D37" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E37" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A38" s="80" t="s">
-        <v>210</v>
-      </c>
-      <c r="B38" s="80" t="s">
-        <v>211</v>
-      </c>
-      <c r="C38" s="80" t="s">
+    </row>
+    <row r="75" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A75" s="84" t="s">
+        <v>264</v>
+      </c>
+      <c r="B75" s="84" t="s">
+        <v>221</v>
+      </c>
+      <c r="C75" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E75" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="D38" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E38" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="39" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A39" s="80" t="s">
-        <v>212</v>
-      </c>
-      <c r="B39" s="80" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="80" t="s">
+    </row>
+    <row r="76" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A76" s="84" t="s">
+        <v>265</v>
+      </c>
+      <c r="B76" s="84" t="s">
+        <v>223</v>
+      </c>
+      <c r="C76" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D76" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E76" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="D39" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E39" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="40" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A40" s="80" t="s">
-        <v>214</v>
-      </c>
-      <c r="B40" s="80" t="s">
-        <v>215</v>
-      </c>
-      <c r="C40" s="80" t="s">
+    </row>
+    <row r="77" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
+      <c r="A77" s="84" t="s">
+        <v>266</v>
+      </c>
+      <c r="B77" s="84" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D77" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E77" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="D40" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E40" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="41" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A41" s="80" t="s">
-        <v>216</v>
-      </c>
-      <c r="B41" s="80" t="s">
-        <v>217</v>
-      </c>
-      <c r="C41" s="80" t="s">
+    </row>
+    <row r="78" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
+      <c r="A78" s="84" t="s">
+        <v>267</v>
+      </c>
+      <c r="B78" s="84" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D78" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E78" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="D41" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E41" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="42" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A42" s="80" t="s">
-        <v>218</v>
-      </c>
-      <c r="B42" s="80" t="s">
-        <v>219</v>
-      </c>
-      <c r="C42" s="80" t="s">
+    </row>
+    <row r="79" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
+      <c r="A79" s="84" t="s">
+        <v>268</v>
+      </c>
+      <c r="B79" s="84" t="s">
+        <v>229</v>
+      </c>
+      <c r="C79" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D79" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E79" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="D42" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E42" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="43" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A43" s="80" t="s">
-        <v>220</v>
-      </c>
-      <c r="B43" s="80" t="s">
-        <v>221</v>
-      </c>
-      <c r="C43" s="80" t="s">
+    </row>
+    <row r="80" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
+      <c r="A80" s="84" t="s">
+        <v>269</v>
+      </c>
+      <c r="B80" s="84" t="s">
+        <v>231</v>
+      </c>
+      <c r="C80" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D80" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E80" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="D43" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E43" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="44" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A44" s="80" t="s">
-        <v>222</v>
-      </c>
-      <c r="B44" s="80" t="s">
-        <v>223</v>
-      </c>
-      <c r="C44" s="80" t="s">
+    </row>
+    <row r="81" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
+      <c r="A81" s="84" t="s">
+        <v>270</v>
+      </c>
+      <c r="B81" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="C81" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D81" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E81" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="D44" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E44" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A45" s="80" t="s">
-        <v>224</v>
-      </c>
-      <c r="B45" s="80" t="s">
-        <v>225</v>
-      </c>
-      <c r="C45" s="80" t="s">
+    </row>
+    <row r="82" s="76" customFormat="1" ht="16" customHeight="1" spans="1:9">
+      <c r="A82" s="84" t="s">
+        <v>271</v>
+      </c>
+      <c r="B82" s="84" t="s">
+        <v>235</v>
+      </c>
+      <c r="C82" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D82" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E82" s="85" t="s">
         <v>159</v>
-      </c>
-      <c r="D45" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E45" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="46" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A46" s="80" t="s">
-        <v>226</v>
-      </c>
-      <c r="B46" s="80" t="s">
-        <v>227</v>
-      </c>
-      <c r="C46" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D46" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E46" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="47" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A47" s="80" t="s">
-        <v>228</v>
-      </c>
-      <c r="B47" s="80" t="s">
-        <v>229</v>
-      </c>
-      <c r="C47" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D47" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E47" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="48" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A48" s="80" t="s">
-        <v>230</v>
-      </c>
-      <c r="B48" s="80" t="s">
-        <v>231</v>
-      </c>
-      <c r="C48" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D48" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E48" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="49" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A49" s="80" t="s">
-        <v>232</v>
-      </c>
-      <c r="B49" s="80" t="s">
-        <v>233</v>
-      </c>
-      <c r="C49" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D49" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E49" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="50" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A50" s="80" t="s">
-        <v>234</v>
-      </c>
-      <c r="B50" s="80" t="s">
-        <v>235</v>
-      </c>
-      <c r="C50" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D50" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E50" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="51" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A51" s="80" t="s">
-        <v>236</v>
-      </c>
-      <c r="B51" s="80" t="s">
-        <v>237</v>
-      </c>
-      <c r="C51" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D51" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E51" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="52" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A52" s="80" t="s">
-        <v>238</v>
-      </c>
-      <c r="B52" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="C52" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D52" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E52" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="53" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A53" s="80" t="s">
-        <v>240</v>
-      </c>
-      <c r="B53" s="80" t="s">
-        <v>241</v>
-      </c>
-      <c r="C53" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D53" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E53" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="54" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A54" s="80" t="s">
-        <v>242</v>
-      </c>
-      <c r="B54" s="80" t="s">
-        <v>243</v>
-      </c>
-      <c r="C54" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D54" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E54" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="55" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A55" s="80" t="s">
-        <v>244</v>
-      </c>
-      <c r="B55" s="80" t="s">
-        <v>245</v>
-      </c>
-      <c r="C55" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D55" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E55" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="56" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A56" s="80" t="s">
-        <v>246</v>
-      </c>
-      <c r="B56" s="80" t="s">
-        <v>247</v>
-      </c>
-      <c r="C56" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D56" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E56" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="57" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A57" s="80" t="s">
-        <v>248</v>
-      </c>
-      <c r="B57" s="80" t="s">
-        <v>249</v>
-      </c>
-      <c r="C57" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D57" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E57" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="58" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A58" s="80" t="s">
-        <v>250</v>
-      </c>
-      <c r="B58" s="80" t="s">
-        <v>251</v>
-      </c>
-      <c r="C58" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D58" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E58" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="59" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A59" s="84" t="s">
-        <v>252</v>
-      </c>
-      <c r="B59" s="84" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D59" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E59" s="85" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A60" s="82" t="s">
-        <v>254</v>
-      </c>
-      <c r="B60" s="80"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="83"/>
-    </row>
-    <row r="61" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A61" s="80" t="s">
-        <v>255</v>
-      </c>
-      <c r="B61" s="80" t="s">
-        <v>197</v>
-      </c>
-      <c r="C61" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D61" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E61" s="83" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="62" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A62" s="80" t="s">
-        <v>256</v>
-      </c>
-      <c r="B62" s="80" t="s">
-        <v>200</v>
-      </c>
-      <c r="C62" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D62" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E62" s="83" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="63" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A63" s="80" t="s">
-        <v>257</v>
-      </c>
-      <c r="B63" s="80" t="s">
-        <v>258</v>
-      </c>
-      <c r="C63" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D63" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E63" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="64" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A64" s="80" t="s">
-        <v>259</v>
-      </c>
-      <c r="B64" s="80" t="s">
-        <v>205</v>
-      </c>
-      <c r="C64" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D64" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E64" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="65" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A65" s="80" t="s">
-        <v>260</v>
-      </c>
-      <c r="B65" s="80" t="s">
-        <v>207</v>
-      </c>
-      <c r="C65" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D65" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E65" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="66" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A66" s="80" t="s">
-        <v>261</v>
-      </c>
-      <c r="B66" s="80" t="s">
-        <v>209</v>
-      </c>
-      <c r="C66" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D66" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E66" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="67" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A67" s="80" t="s">
-        <v>262</v>
-      </c>
-      <c r="B67" s="80" t="s">
-        <v>211</v>
-      </c>
-      <c r="C67" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D67" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E67" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="68" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A68" s="80" t="s">
-        <v>263</v>
-      </c>
-      <c r="B68" s="80" t="s">
-        <v>213</v>
-      </c>
-      <c r="C68" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D68" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E68" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="69" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A69" s="80" t="s">
-        <v>264</v>
-      </c>
-      <c r="B69" s="80" t="s">
-        <v>215</v>
-      </c>
-      <c r="C69" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D69" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E69" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="70" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A70" s="80" t="s">
-        <v>265</v>
-      </c>
-      <c r="B70" s="80" t="s">
-        <v>217</v>
-      </c>
-      <c r="C70" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D70" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E70" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="71" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A71" s="80" t="s">
-        <v>266</v>
-      </c>
-      <c r="B71" s="80" t="s">
-        <v>219</v>
-      </c>
-      <c r="C71" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D71" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E71" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="72" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A72" s="80" t="s">
-        <v>267</v>
-      </c>
-      <c r="B72" s="80" t="s">
-        <v>221</v>
-      </c>
-      <c r="C72" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D72" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E72" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="73" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A73" s="80" t="s">
-        <v>268</v>
-      </c>
-      <c r="B73" s="80" t="s">
-        <v>223</v>
-      </c>
-      <c r="C73" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D73" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E73" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="74" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A74" s="80" t="s">
-        <v>269</v>
-      </c>
-      <c r="B74" s="80" t="s">
-        <v>225</v>
-      </c>
-      <c r="C74" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D74" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E74" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="75" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A75" s="80" t="s">
-        <v>270</v>
-      </c>
-      <c r="B75" s="80" t="s">
-        <v>227</v>
-      </c>
-      <c r="C75" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D75" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E75" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="76" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A76" s="80" t="s">
-        <v>271</v>
-      </c>
-      <c r="B76" s="80" t="s">
-        <v>229</v>
-      </c>
-      <c r="C76" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D76" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E76" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="77" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A77" s="80" t="s">
-        <v>272</v>
-      </c>
-      <c r="B77" s="80" t="s">
-        <v>231</v>
-      </c>
-      <c r="C77" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D77" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E77" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="78" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A78" s="80" t="s">
-        <v>273</v>
-      </c>
-      <c r="B78" s="80" t="s">
-        <v>233</v>
-      </c>
-      <c r="C78" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D78" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E78" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="79" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A79" s="80" t="s">
-        <v>274</v>
-      </c>
-      <c r="B79" s="80" t="s">
-        <v>235</v>
-      </c>
-      <c r="C79" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D79" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E79" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="80" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A80" s="80" t="s">
-        <v>275</v>
-      </c>
-      <c r="B80" s="80" t="s">
-        <v>237</v>
-      </c>
-      <c r="C80" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D80" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E80" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="81" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A81" s="80" t="s">
-        <v>276</v>
-      </c>
-      <c r="B81" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="C81" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D81" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E81" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="82" s="76" customFormat="1" ht="16" customHeight="1" spans="1:9">
-      <c r="A82" s="80" t="s">
-        <v>277</v>
-      </c>
-      <c r="B82" s="80" t="s">
-        <v>241</v>
-      </c>
-      <c r="C82" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D82" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E82" s="83" t="s">
-        <v>165</v>
       </c>
       <c r="I82" s="76">
         <f>SUM(B79)</f>
@@ -7304,660 +7251,639 @@
       </c>
     </row>
     <row r="83" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A83" s="80" t="s">
+      <c r="A83" s="84" t="s">
+        <v>272</v>
+      </c>
+      <c r="B83" s="84" t="s">
+        <v>237</v>
+      </c>
+      <c r="C83" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D83" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E83" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="84" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
+      <c r="A84" s="84" t="s">
+        <v>273</v>
+      </c>
+      <c r="B84" s="84" t="s">
+        <v>239</v>
+      </c>
+      <c r="C84" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D84" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E84" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="85" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
+      <c r="A85" s="84" t="s">
+        <v>274</v>
+      </c>
+      <c r="B85" s="84" t="s">
+        <v>241</v>
+      </c>
+      <c r="C85" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D85" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E85" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="86" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
+      <c r="A86" s="84" t="s">
+        <v>275</v>
+      </c>
+      <c r="B86" s="84" t="s">
+        <v>243</v>
+      </c>
+      <c r="C86" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D86" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E86" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
+      <c r="A87" s="84" t="s">
+        <v>276</v>
+      </c>
+      <c r="B87" s="84" t="s">
+        <v>245</v>
+      </c>
+      <c r="C87" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D87" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E87" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A88" s="86" t="s">
+        <v>277</v>
+      </c>
+      <c r="B88" s="86" t="s">
+        <v>247</v>
+      </c>
+      <c r="C88" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="D88" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="E88" s="87" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="89" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A89" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="B89" s="84"/>
+      <c r="C89" s="84"/>
+      <c r="D89" s="84"/>
+      <c r="E89" s="85"/>
+    </row>
+    <row r="90" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A90" s="86" t="s">
+        <v>185</v>
+      </c>
+      <c r="B90" s="86" t="s">
         <v>278</v>
       </c>
-      <c r="B83" s="80" t="s">
-        <v>243</v>
-      </c>
-      <c r="C83" s="80" t="s">
+      <c r="C90" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="D90" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="E90" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="D83" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E83" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="84" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A84" s="80" t="s">
+    </row>
+    <row r="91" customFormat="1" spans="4:9">
+      <c r="D91" s="90"/>
+      <c r="E91" s="90"/>
+      <c r="F91" s="90"/>
+      <c r="G91" s="91"/>
+      <c r="H91" s="90"/>
+      <c r="I91" s="91"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="91" t="s">
         <v>279</v>
       </c>
-      <c r="B84" s="80" t="s">
-        <v>245</v>
-      </c>
-      <c r="C84" s="80" t="s">
+      <c r="B92" s="90" t="s">
+        <v>280</v>
+      </c>
+      <c r="C92" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="D92" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="E92" s="90" t="s">
+        <v>281</v>
+      </c>
+      <c r="F92" s="90"/>
+      <c r="G92" s="91"/>
+      <c r="H92" s="90"/>
+      <c r="I92" s="91"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>282</v>
+      </c>
+      <c r="B93" s="90" t="s">
+        <v>283</v>
+      </c>
+      <c r="C93" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="D93" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="E93" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="D84" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E84" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="85" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A85" s="80" t="s">
-        <v>280</v>
-      </c>
-      <c r="B85" s="80" t="s">
-        <v>247</v>
-      </c>
-      <c r="C85" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D85" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E85" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="86" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A86" s="80" t="s">
-        <v>281</v>
-      </c>
-      <c r="B86" s="80" t="s">
-        <v>249</v>
-      </c>
-      <c r="C86" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D86" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E86" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="87" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A87" s="80" t="s">
-        <v>282</v>
-      </c>
-      <c r="B87" s="80" t="s">
-        <v>251</v>
-      </c>
-      <c r="C87" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D87" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E87" s="83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="88" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A88" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="B88" s="84" t="s">
-        <v>253</v>
-      </c>
-      <c r="C88" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D88" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E88" s="85" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="89" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A89" s="82" t="s">
-        <v>142</v>
-      </c>
-      <c r="B89" s="80"/>
-      <c r="C89" s="80"/>
-      <c r="D89" s="80"/>
-      <c r="E89" s="83"/>
-    </row>
-    <row r="90" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A90" s="84" t="s">
-        <v>191</v>
-      </c>
-      <c r="B90" s="84" t="s">
-        <v>284</v>
-      </c>
-      <c r="C90" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D90" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E90" s="85" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="91" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A91" s="84" t="s">
-        <v>285</v>
-      </c>
-      <c r="B91" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="C91" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D91" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E91" s="85" t="s">
-        <v>165</v>
-      </c>
-      <c r="F91" s="86"/>
-      <c r="G91" s="87"/>
-      <c r="H91" s="86"/>
-      <c r="I91" s="87"/>
-    </row>
-    <row r="92" customFormat="1" spans="4:9">
-      <c r="D92" s="86"/>
-      <c r="E92" s="86"/>
-      <c r="F92" s="86"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="86"/>
-      <c r="I92" s="87"/>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="87" t="s">
-        <v>287</v>
-      </c>
-      <c r="B93" s="86" t="s">
-        <v>288</v>
-      </c>
-      <c r="C93" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D93" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="E93" s="86" t="s">
-        <v>289</v>
-      </c>
-      <c r="F93" s="86"/>
-      <c r="G93" s="87"/>
-      <c r="H93" s="86"/>
-      <c r="I93" s="87"/>
+      <c r="F93" s="90"/>
+      <c r="G93" s="91"/>
+      <c r="H93" s="90"/>
+      <c r="I93" s="91"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>290</v>
-      </c>
-      <c r="B94" s="86" t="s">
-        <v>291</v>
-      </c>
-      <c r="C94" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D94" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="E94" s="86" t="s">
-        <v>165</v>
-      </c>
-      <c r="F94" s="86"/>
-      <c r="G94" s="87"/>
-      <c r="H94" s="86"/>
-      <c r="I94" s="87"/>
+        <v>284</v>
+      </c>
+      <c r="B94" s="90" t="s">
+        <v>285</v>
+      </c>
+      <c r="C94" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="D94" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="E94" s="90" t="s">
+        <v>286</v>
+      </c>
+      <c r="F94" s="90"/>
+      <c r="G94" s="91"/>
+      <c r="H94" s="90"/>
+      <c r="I94" s="91"/>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>292</v>
-      </c>
-      <c r="B95" s="86" t="s">
-        <v>293</v>
-      </c>
-      <c r="C95" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D95" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="E95" s="86" t="s">
-        <v>294</v>
-      </c>
-      <c r="F95" s="86"/>
-      <c r="G95" s="87"/>
-      <c r="H95" s="86"/>
-      <c r="I95" s="87"/>
+        <v>287</v>
+      </c>
+      <c r="B95" s="90" t="s">
+        <v>288</v>
+      </c>
+      <c r="C95" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="D95" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="E95" s="90" t="s">
+        <v>286</v>
+      </c>
+      <c r="F95" s="90"/>
+      <c r="G95" s="91"/>
+      <c r="H95" s="90"/>
+      <c r="I95" s="91"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>295</v>
-      </c>
-      <c r="B96" s="86" t="s">
-        <v>296</v>
-      </c>
-      <c r="C96" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D96" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="E96" s="86" t="s">
-        <v>294</v>
-      </c>
-      <c r="F96" s="86"/>
-      <c r="G96" s="87"/>
-      <c r="H96" s="86"/>
-      <c r="I96" s="87"/>
+        <v>289</v>
+      </c>
+      <c r="B96" s="90" t="s">
+        <v>290</v>
+      </c>
+      <c r="C96" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="D96" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="E96" s="90" t="s">
+        <v>286</v>
+      </c>
+      <c r="F96" s="90"/>
+      <c r="G96" s="91"/>
+      <c r="H96" s="90"/>
+      <c r="I96" s="91"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>297</v>
-      </c>
-      <c r="B97" s="86" t="s">
-        <v>298</v>
-      </c>
-      <c r="C97" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D97" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="E97" s="86" t="s">
-        <v>294</v>
-      </c>
-      <c r="F97" s="86"/>
-      <c r="G97" s="87"/>
-      <c r="H97" s="86"/>
-      <c r="I97" s="87"/>
+        <v>291</v>
+      </c>
+      <c r="B97" s="90" t="s">
+        <v>292</v>
+      </c>
+      <c r="C97" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="D97" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="E97" s="90" t="s">
+        <v>286</v>
+      </c>
+      <c r="F97" s="90"/>
+      <c r="G97" s="91"/>
+      <c r="H97" s="90"/>
+      <c r="I97" s="91"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>299</v>
-      </c>
-      <c r="B98" s="86" t="s">
-        <v>300</v>
-      </c>
-      <c r="C98" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D98" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="E98" s="86" t="s">
+        <v>293</v>
+      </c>
+      <c r="B98" s="90" t="s">
         <v>294</v>
       </c>
-      <c r="F98" s="86"/>
-      <c r="G98" s="87"/>
-      <c r="H98" s="86"/>
-      <c r="I98" s="87"/>
+      <c r="C98" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="D98" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="E98" s="90" t="s">
+        <v>286</v>
+      </c>
+      <c r="F98" s="90"/>
+      <c r="G98" s="91"/>
+      <c r="H98" s="90"/>
+      <c r="I98" s="91"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>301</v>
-      </c>
-      <c r="B99" s="86" t="s">
-        <v>302</v>
-      </c>
-      <c r="C99" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D99" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="E99" s="86" t="s">
-        <v>294</v>
-      </c>
-      <c r="F99" s="86"/>
-      <c r="G99" s="87"/>
-      <c r="H99" s="86"/>
-      <c r="I99" s="87"/>
+        <v>295</v>
+      </c>
+      <c r="B99" s="90" t="s">
+        <v>296</v>
+      </c>
+      <c r="C99" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="D99" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="E99" s="90" t="s">
+        <v>286</v>
+      </c>
+      <c r="F99" s="90"/>
+      <c r="G99" s="91"/>
+      <c r="H99" s="90"/>
+      <c r="I99" s="91"/>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>303</v>
-      </c>
-      <c r="B100" s="86" t="s">
-        <v>304</v>
-      </c>
-      <c r="C100" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D100" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="E100" s="86" t="s">
-        <v>294</v>
-      </c>
-      <c r="F100" s="86"/>
-      <c r="G100" s="87"/>
-      <c r="H100" s="86"/>
-      <c r="I100" s="87"/>
+        <v>297</v>
+      </c>
+      <c r="B100" s="90" t="s">
+        <v>298</v>
+      </c>
+      <c r="C100" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="D100" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="E100" s="90" t="s">
+        <v>286</v>
+      </c>
+      <c r="F100" s="90"/>
+      <c r="G100" s="91"/>
+      <c r="H100" s="90"/>
+      <c r="I100" s="91"/>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>305</v>
-      </c>
-      <c r="B101" s="86" t="s">
-        <v>306</v>
-      </c>
-      <c r="C101" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D101" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="E101" s="86" t="s">
-        <v>294</v>
-      </c>
-      <c r="F101" s="86"/>
-      <c r="G101" s="87"/>
-      <c r="H101" s="86"/>
-      <c r="I101" s="87"/>
+        <v>299</v>
+      </c>
+      <c r="B101" s="90" t="s">
+        <v>300</v>
+      </c>
+      <c r="C101" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="D101" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="E101" s="90" t="s">
+        <v>286</v>
+      </c>
+      <c r="F101" s="90"/>
+      <c r="G101" s="91"/>
+      <c r="H101" s="90"/>
+      <c r="I101" s="91"/>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>307</v>
-      </c>
-      <c r="B102" s="86" t="s">
-        <v>308</v>
-      </c>
-      <c r="C102" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D102" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="E102" s="86" t="s">
-        <v>294</v>
-      </c>
-      <c r="F102" s="86"/>
-      <c r="G102" s="87"/>
-      <c r="H102" s="86"/>
-      <c r="I102" s="87"/>
+        <v>301</v>
+      </c>
+      <c r="B102" s="90" t="s">
+        <v>302</v>
+      </c>
+      <c r="C102" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="D102" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="E102" s="90" t="s">
+        <v>286</v>
+      </c>
+      <c r="F102" s="90"/>
+      <c r="G102" s="91"/>
+      <c r="H102" s="90"/>
+      <c r="I102" s="91"/>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>309</v>
-      </c>
-      <c r="B103" s="86" t="s">
-        <v>310</v>
-      </c>
-      <c r="C103" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D103" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="E103" s="86" t="s">
-        <v>294</v>
-      </c>
-      <c r="F103" s="86"/>
-      <c r="G103" s="87"/>
-      <c r="H103" s="86"/>
-      <c r="I103" s="87"/>
+        <v>303</v>
+      </c>
+      <c r="B103" s="90" t="s">
+        <v>304</v>
+      </c>
+      <c r="C103" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="D103" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="E103" s="90" t="s">
+        <v>286</v>
+      </c>
+      <c r="F103" s="90"/>
+      <c r="G103" s="91"/>
+      <c r="H103" s="90"/>
+      <c r="I103" s="91"/>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>311</v>
-      </c>
-      <c r="B104" s="86" t="s">
-        <v>312</v>
-      </c>
-      <c r="C104" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D104" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="E104" s="86" t="s">
-        <v>294</v>
-      </c>
-      <c r="F104" s="86"/>
-      <c r="G104" s="87"/>
-      <c r="H104" s="86"/>
-      <c r="I104" s="87"/>
+        <v>305</v>
+      </c>
+      <c r="B104" s="90" t="s">
+        <v>306</v>
+      </c>
+      <c r="C104" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="D104" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="E104" s="90" t="s">
+        <v>286</v>
+      </c>
+      <c r="F104" s="90"/>
+      <c r="G104" s="91"/>
+      <c r="H104" s="90"/>
+      <c r="I104" s="91"/>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>313</v>
-      </c>
-      <c r="B105" s="86" t="s">
-        <v>314</v>
-      </c>
-      <c r="C105" s="88" t="s">
+        <v>307</v>
+      </c>
+      <c r="B105" s="90" t="s">
+        <v>308</v>
+      </c>
+      <c r="C105" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="D105" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="E105" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="D105" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="E105" s="86" t="s">
-        <v>294</v>
-      </c>
-      <c r="F105" s="86"/>
-      <c r="G105" s="87"/>
-      <c r="H105" s="86"/>
-      <c r="I105" s="87"/>
+      <c r="F105" s="90"/>
+      <c r="G105" s="91"/>
+      <c r="H105" s="90"/>
+      <c r="I105" s="91"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>315</v>
-      </c>
-      <c r="B106" s="86" t="s">
-        <v>316</v>
-      </c>
-      <c r="C106" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D106" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="E106" s="86" t="s">
-        <v>165</v>
-      </c>
-      <c r="F106" s="86"/>
-      <c r="G106" s="87"/>
-      <c r="H106" s="86"/>
-      <c r="I106" s="87"/>
+        <v>309</v>
+      </c>
+      <c r="B106" s="90" t="s">
+        <v>310</v>
+      </c>
+      <c r="C106" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="D106" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="E106" s="90" t="s">
+        <v>311</v>
+      </c>
+      <c r="F106" s="90"/>
+      <c r="G106" s="91"/>
+      <c r="H106" s="90"/>
+      <c r="I106" s="91"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>317</v>
-      </c>
-      <c r="B107" s="86" t="s">
-        <v>318</v>
-      </c>
-      <c r="C107" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D107" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="E107" s="86" t="s">
-        <v>319</v>
-      </c>
-      <c r="F107" s="86"/>
-      <c r="G107" s="87"/>
-      <c r="H107" s="86"/>
-      <c r="I107" s="87"/>
+        <v>312</v>
+      </c>
+      <c r="B107" s="90" t="s">
+        <v>313</v>
+      </c>
+      <c r="C107" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="D107" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="E107" s="90" t="s">
+        <v>311</v>
+      </c>
+      <c r="F107" s="90"/>
+      <c r="G107" s="91"/>
+      <c r="H107" s="90"/>
+      <c r="I107" s="91"/>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>320</v>
-      </c>
-      <c r="B108" s="86" t="s">
-        <v>321</v>
-      </c>
-      <c r="C108" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D108" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="E108" s="86" t="s">
-        <v>319</v>
-      </c>
-      <c r="F108" s="86"/>
-      <c r="G108" s="87"/>
-      <c r="H108" s="86"/>
-      <c r="I108" s="87"/>
+        <v>314</v>
+      </c>
+      <c r="B108" s="90" t="s">
+        <v>315</v>
+      </c>
+      <c r="C108" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="D108" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="E108" s="90" t="s">
+        <v>311</v>
+      </c>
+      <c r="F108" s="90"/>
+      <c r="G108" s="91"/>
+      <c r="H108" s="90"/>
+      <c r="I108" s="91"/>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>322</v>
-      </c>
-      <c r="B109" s="86" t="s">
-        <v>323</v>
-      </c>
-      <c r="C109" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D109" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="E109" s="86" t="s">
-        <v>319</v>
-      </c>
-      <c r="F109" s="86"/>
-      <c r="G109" s="87"/>
-      <c r="H109" s="86"/>
-      <c r="I109" s="87"/>
+        <v>316</v>
+      </c>
+      <c r="B109" s="90" t="s">
+        <v>317</v>
+      </c>
+      <c r="C109" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="D109" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="E109" s="90" t="s">
+        <v>311</v>
+      </c>
+      <c r="F109" s="90"/>
+      <c r="G109" s="91"/>
+      <c r="H109" s="90"/>
+      <c r="I109" s="91"/>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>324</v>
-      </c>
-      <c r="B110" s="86" t="s">
-        <v>325</v>
-      </c>
-      <c r="C110" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D110" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="E110" s="86" t="s">
+        <v>318</v>
+      </c>
+      <c r="B110" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="F110" s="86"/>
-      <c r="G110" s="87"/>
-      <c r="H110" s="86"/>
-      <c r="I110" s="87"/>
+      <c r="C110" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="D110" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="E110" s="90" t="s">
+        <v>311</v>
+      </c>
+      <c r="F110" s="90"/>
+      <c r="G110" s="91"/>
+      <c r="H110" s="90"/>
+      <c r="I110" s="91"/>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>326</v>
-      </c>
-      <c r="B111" s="86" t="s">
-        <v>327</v>
-      </c>
-      <c r="C111" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D111" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="E111" s="86" t="s">
-        <v>319</v>
-      </c>
-      <c r="F111" s="86"/>
-      <c r="G111" s="87"/>
-      <c r="H111" s="86"/>
-      <c r="I111" s="87"/>
+        <v>320</v>
+      </c>
+      <c r="B111" s="90" t="s">
+        <v>321</v>
+      </c>
+      <c r="C111" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="D111" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="E111" s="90" t="s">
+        <v>311</v>
+      </c>
+      <c r="F111" s="90"/>
+      <c r="G111" s="91"/>
+      <c r="H111" s="90"/>
+      <c r="I111" s="91"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>328</v>
-      </c>
-      <c r="B112" s="86" t="s">
-        <v>329</v>
-      </c>
-      <c r="C112" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D112" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="E112" s="86" t="s">
-        <v>319</v>
-      </c>
-      <c r="F112" s="86"/>
-      <c r="G112" s="87"/>
-      <c r="H112" s="86"/>
-      <c r="I112" s="87"/>
+        <v>322</v>
+      </c>
+      <c r="B112" s="90" t="s">
+        <v>323</v>
+      </c>
+      <c r="C112" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="D112" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="E112" s="90" t="s">
+        <v>311</v>
+      </c>
+      <c r="F112" s="90"/>
+      <c r="G112" s="91"/>
+      <c r="H112" s="90"/>
+      <c r="I112" s="91"/>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
+        <v>324</v>
+      </c>
+      <c r="B113" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="C113" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="D113" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="E113" s="90" t="s">
+        <v>286</v>
+      </c>
+      <c r="F113" s="90"/>
+      <c r="G113" s="91"/>
+      <c r="H113" s="90"/>
+      <c r="I113" s="91"/>
+    </row>
+    <row r="114" ht="24" spans="1:9">
+      <c r="A114" t="s">
+        <v>326</v>
+      </c>
+      <c r="B114" s="90" t="s">
+        <v>327</v>
+      </c>
+      <c r="C114" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="D114" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="E114" s="90" t="s">
+        <v>328</v>
+      </c>
+      <c r="F114" s="90"/>
+      <c r="G114" s="91"/>
+      <c r="H114" s="90"/>
+      <c r="I114" s="91"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>329</v>
+      </c>
+      <c r="B115" s="90" t="s">
         <v>330</v>
       </c>
-      <c r="B113" s="86" t="s">
+      <c r="C115" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="D115" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="E115" s="90" t="s">
         <v>331</v>
-      </c>
-      <c r="C113" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D113" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="E113" s="86" t="s">
-        <v>319</v>
-      </c>
-      <c r="F113" s="86"/>
-      <c r="G113" s="87"/>
-      <c r="H113" s="86"/>
-      <c r="I113" s="87"/>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" t="s">
-        <v>332</v>
-      </c>
-      <c r="B114" s="86" t="s">
-        <v>333</v>
-      </c>
-      <c r="C114" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D114" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="E114" s="86" t="s">
-        <v>294</v>
-      </c>
-      <c r="F114" s="86"/>
-      <c r="G114" s="87"/>
-      <c r="H114" s="86"/>
-      <c r="I114" s="87"/>
-    </row>
-    <row r="115" ht="24" spans="1:9">
-      <c r="A115" t="s">
-        <v>334</v>
-      </c>
-      <c r="B115" s="86" t="s">
-        <v>335</v>
-      </c>
-      <c r="C115" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D115" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="E115" s="86" t="s">
-        <v>336</v>
-      </c>
-      <c r="F115" s="86"/>
-      <c r="G115" s="87"/>
-      <c r="H115" s="86"/>
-      <c r="I115" s="87"/>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" t="s">
-        <v>337</v>
-      </c>
-      <c r="B116" s="86" t="s">
-        <v>338</v>
-      </c>
-      <c r="C116" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D116" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="E116" s="86" t="s">
-        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -7971,10 +7897,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7990,34 +7916,34 @@
     <row r="1" spans="1:11">
       <c r="A1" s="77"/>
       <c r="B1" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>335</v>
+      </c>
+      <c r="F1" s="77" t="s">
+        <v>336</v>
+      </c>
+      <c r="G1" s="77" t="s">
+        <v>337</v>
+      </c>
+      <c r="H1" s="77" t="s">
+        <v>338</v>
+      </c>
+      <c r="I1" s="77" t="s">
+        <v>337</v>
+      </c>
+      <c r="J1" s="77" t="s">
+        <v>339</v>
+      </c>
+      <c r="K1" s="77" t="s">
         <v>340</v>
-      </c>
-      <c r="C1" s="77" t="s">
-        <v>341</v>
-      </c>
-      <c r="D1" s="77" t="s">
-        <v>342</v>
-      </c>
-      <c r="E1" s="77" t="s">
-        <v>343</v>
-      </c>
-      <c r="F1" s="77" t="s">
-        <v>344</v>
-      </c>
-      <c r="G1" s="77" t="s">
-        <v>345</v>
-      </c>
-      <c r="H1" s="77" t="s">
-        <v>346</v>
-      </c>
-      <c r="I1" s="77" t="s">
-        <v>345</v>
-      </c>
-      <c r="J1" s="77" t="s">
-        <v>347</v>
-      </c>
-      <c r="K1" s="77" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -8025,32 +7951,32 @@
         <v>33</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C2" s="79">
-        <v>45547</v>
+        <v>45181</v>
       </c>
       <c r="D2" s="79" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E2" s="79">
-        <v>45555</v>
+        <v>45189</v>
       </c>
       <c r="F2" s="79">
-        <v>45554</v>
+        <v>45188</v>
       </c>
       <c r="G2" s="78" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H2" s="78"/>
       <c r="I2" s="78" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="J2" s="78" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="K2" s="78" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8058,32 +7984,32 @@
         <v>24</v>
       </c>
       <c r="B3" s="78" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C3" s="79">
-        <v>45547</v>
+        <v>45181</v>
       </c>
       <c r="D3" s="79" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E3" s="79">
-        <v>45555</v>
+        <v>45189</v>
       </c>
       <c r="F3" s="79">
-        <v>45554</v>
+        <v>45188</v>
       </c>
       <c r="G3" s="78" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H3" s="78"/>
       <c r="I3" s="78" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="J3" s="78" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="K3" s="78" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -8091,193 +8017,191 @@
         <v>28</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C4" s="79">
-        <v>45547</v>
+        <v>45181</v>
       </c>
       <c r="D4" s="79" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E4" s="79">
-        <v>45555</v>
+        <v>45189</v>
       </c>
       <c r="F4" s="79">
-        <v>45554</v>
+        <v>45188</v>
       </c>
       <c r="G4" s="78" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H4" s="78"/>
       <c r="I4" s="78" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="J4" s="78" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="K4" s="78" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="78"/>
       <c r="B5" s="78" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C5" s="79">
-        <v>45547</v>
+        <v>45181</v>
       </c>
       <c r="D5" s="79" t="s">
+        <v>342</v>
+      </c>
+      <c r="E5" s="79">
+        <v>45189</v>
+      </c>
+      <c r="F5" s="79">
+        <v>45188</v>
+      </c>
+      <c r="G5" s="78" t="s">
+        <v>343</v>
+      </c>
+      <c r="H5" s="78" t="s">
         <v>350</v>
       </c>
-      <c r="E5" s="79">
-        <v>45555</v>
-      </c>
-      <c r="F5" s="79">
-        <v>45554</v>
-      </c>
-      <c r="G5" s="78" t="s">
-        <v>351</v>
-      </c>
-      <c r="H5" s="78" t="s">
-        <v>358</v>
-      </c>
       <c r="I5" s="78" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="J5" s="78" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="K5" s="78" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="78"/>
       <c r="B6" s="78" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C6" s="79">
-        <v>45547</v>
+        <v>45181</v>
       </c>
       <c r="D6" s="79" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E6" s="79">
-        <v>45555</v>
+        <v>45189</v>
       </c>
       <c r="F6" s="79">
-        <v>45554</v>
+        <v>45188</v>
       </c>
       <c r="G6" s="78" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H6" s="78"/>
       <c r="I6" s="78" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="J6" s="78" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="K6" s="78" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="78"/>
       <c r="B7" s="78" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C7" s="79">
-        <v>45547</v>
+        <v>45181</v>
       </c>
       <c r="D7" s="79" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E7" s="79">
-        <v>45555</v>
+        <v>45189</v>
       </c>
       <c r="F7" s="79">
-        <v>45554</v>
+        <v>45188</v>
       </c>
       <c r="G7" s="78" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H7" s="78" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="I7" s="78" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="J7" s="78" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="K7" s="78" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:11">
       <c r="A8" s="78"/>
       <c r="B8" s="78" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C8" s="79">
-        <v>45554</v>
+        <v>45188</v>
       </c>
       <c r="D8" s="79" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E8" s="79">
-        <v>45555</v>
+        <v>45189</v>
       </c>
       <c r="F8" s="79">
-        <v>45554</v>
+        <v>45188</v>
       </c>
       <c r="G8" s="78" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H8" s="78"/>
       <c r="I8" s="78" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="J8" s="78" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="K8" s="78" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" s="76" customFormat="1" spans="1:11">
       <c r="A9" s="80"/>
       <c r="B9" s="80" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C9" s="81">
-        <v>45555</v>
+        <v>45189</v>
       </c>
       <c r="D9" s="81" t="s">
-        <v>350</v>
-      </c>
-      <c r="E9" s="79">
-        <v>45577</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="E9" s="81"/>
       <c r="F9" s="81">
-        <v>45573</v>
-      </c>
-      <c r="G9" s="78" t="s">
-        <v>351</v>
+        <v>45207</v>
+      </c>
+      <c r="G9" s="81" t="s">
+        <v>356</v>
       </c>
       <c r="H9" s="80" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="I9" s="80" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="J9" s="80" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="K9" s="80" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" s="76" customFormat="1" spans="1:11">
@@ -8285,34 +8209,32 @@
         <v>14</v>
       </c>
       <c r="B10" s="80" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C10" s="81">
-        <v>45547</v>
+        <v>45181</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>350</v>
-      </c>
-      <c r="E10" s="79">
-        <v>45577</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="E10" s="81"/>
       <c r="F10" s="81">
-        <v>45573</v>
-      </c>
-      <c r="G10" s="78" t="s">
-        <v>351</v>
+        <v>45207</v>
+      </c>
+      <c r="G10" s="81" t="s">
+        <v>356</v>
       </c>
       <c r="H10" s="80" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="I10" s="80" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="J10" s="80" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="K10" s="80" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" s="76" customFormat="1" spans="1:11">
@@ -8320,37 +8242,32 @@
         <v>37</v>
       </c>
       <c r="B11" s="80" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C11" s="81">
-        <v>45547</v>
+        <v>45181</v>
       </c>
       <c r="D11" s="81" t="s">
-        <v>350</v>
-      </c>
-      <c r="E11" s="79">
-        <v>45577</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="E11" s="81"/>
       <c r="F11" s="81">
-        <v>45573</v>
-      </c>
-      <c r="G11" s="78" t="s">
-        <v>351</v>
+        <v>45207</v>
+      </c>
+      <c r="G11" s="81" t="s">
+        <v>364</v>
       </c>
       <c r="H11" s="80"/>
       <c r="I11" s="80" t="s">
+        <v>358</v>
+      </c>
+      <c r="J11" s="80" t="s">
+        <v>359</v>
+      </c>
+      <c r="K11" s="80" t="s">
         <v>365</v>
       </c>
-      <c r="J11" s="80" t="s">
-        <v>366</v>
-      </c>
-      <c r="K11" s="80" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="12" s="76" customFormat="1"/>
-    <row r="13" s="76" customFormat="1"/>
-    <row r="14" s="76" customFormat="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -8377,41 +8294,41 @@
   <sheetData>
     <row r="1" ht="21" spans="1:5">
       <c r="A1" s="74" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B1" s="74" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D1" s="74" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E1" s="74" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" ht="21" spans="1:5">
       <c r="A2" s="74" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E2" s="75" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" ht="21" spans="1:5">
       <c r="A3" s="74" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B3" s="14">
         <v>5</v>
@@ -8428,44 +8345,44 @@
     </row>
     <row r="4" ht="21" spans="1:6">
       <c r="A4" s="74" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E4" s="75" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F4" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" ht="21" spans="1:5">
       <c r="A5" s="74" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" ht="21" spans="1:5">
       <c r="A6" s="74" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B6" s="14">
         <v>1</v>
@@ -8482,22 +8399,22 @@
     </row>
     <row r="7" ht="21" spans="1:5">
       <c r="A7" s="74" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="75" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" ht="21" spans="1:5">
       <c r="A8" s="74" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B8" s="75">
         <v>0</v>
@@ -8514,7 +8431,7 @@
     </row>
     <row r="9" ht="21" spans="1:5">
       <c r="A9" s="74" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B9" s="75">
         <v>0</v>
@@ -8557,13 +8474,13 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="53" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D1" s="56"/>
       <c r="E1" s="57"/>
@@ -8576,16 +8493,16 @@
       <c r="A2" s="59"/>
       <c r="B2" s="60"/>
       <c r="C2" s="61" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F2" s="62" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G2" s="63"/>
     </row>
@@ -8594,23 +8511,23 @@
         <v>4000</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D3" s="66"/>
       <c r="E3" s="67"/>
       <c r="F3" s="64"/>
       <c r="G3" s="67" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="64"/>
       <c r="B4" s="68"/>
       <c r="C4" s="66" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D4" s="66"/>
       <c r="E4" s="67"/>
@@ -8622,16 +8539,16 @@
         <v>4001</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D5" s="66"/>
       <c r="E5" s="67"/>
       <c r="F5" s="64"/>
       <c r="G5" s="67" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8639,23 +8556,23 @@
         <v>4002</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D6" s="66"/>
       <c r="E6" s="67"/>
       <c r="F6" s="64"/>
       <c r="G6" s="69" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="71"/>
       <c r="B7" s="68"/>
       <c r="C7" s="66" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D7" s="66"/>
       <c r="E7" s="67"/>
@@ -8666,10 +8583,10 @@
       <c r="A8" s="71"/>
       <c r="B8" s="68"/>
       <c r="C8" s="66" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="E8" s="67"/>
       <c r="F8" s="64"/>
@@ -8679,7 +8596,7 @@
       <c r="A9" s="72"/>
       <c r="B9" s="73"/>
       <c r="C9" s="66" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D9" s="66"/>
       <c r="E9" s="66"/>
@@ -8691,13 +8608,13 @@
         <v>4003</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="E10" s="66"/>
       <c r="F10" s="66"/>
@@ -8707,10 +8624,10 @@
       <c r="A11" s="72"/>
       <c r="B11" s="73"/>
       <c r="C11" s="66" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D11" s="66" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E11" s="66"/>
       <c r="F11" s="66"/>
@@ -8721,10 +8638,10 @@
         <v>4004</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C12" s="66" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D12" s="66"/>
       <c r="E12" s="66"/>
@@ -8735,7 +8652,7 @@
       <c r="A13" s="72"/>
       <c r="B13" s="73"/>
       <c r="C13" s="66" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D13" s="66"/>
       <c r="E13" s="66"/>
@@ -8747,10 +8664,10 @@
         <v>4005</v>
       </c>
       <c r="B14" s="70" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C14" s="66" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D14" s="66"/>
       <c r="E14" s="66"/>
@@ -8761,7 +8678,7 @@
       <c r="A15" s="72"/>
       <c r="B15" s="73"/>
       <c r="C15" s="66" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D15" s="66"/>
       <c r="E15" s="66"/>
@@ -8773,10 +8690,10 @@
         <v>4006</v>
       </c>
       <c r="B16" s="70" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D16" s="66"/>
       <c r="E16" s="66"/>
@@ -8787,7 +8704,7 @@
       <c r="A17" s="72"/>
       <c r="B17" s="73"/>
       <c r="C17" s="66" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D17" s="66"/>
       <c r="E17" s="66"/>
@@ -8799,10 +8716,10 @@
         <v>4007</v>
       </c>
       <c r="B18" s="70" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D18" s="66"/>
       <c r="E18" s="66"/>
@@ -8813,7 +8730,7 @@
       <c r="A19" s="72"/>
       <c r="B19" s="73"/>
       <c r="C19" s="66" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D19" s="66"/>
       <c r="E19" s="66"/>
@@ -8825,10 +8742,10 @@
         <v>4008</v>
       </c>
       <c r="B20" s="70" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C20" s="66" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D20" s="66"/>
       <c r="E20" s="67"/>
@@ -8839,7 +8756,7 @@
       <c r="A21" s="72"/>
       <c r="B21" s="73"/>
       <c r="C21" s="66" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D21" s="66"/>
       <c r="E21" s="67"/>

--- a/equipment_cyg/product/zhong_che_yi_xing/zhong_che_yi_xing_manual.xlsx
+++ b/equipment_cyg/product/zhong_che_yi_xing/zhong_che_yi_xing_manual.xlsx
@@ -2961,8 +2961,8 @@
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3868420</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>147</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
@@ -3004,7 +3004,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2091690</xdr:colOff>
+      <xdr:colOff>2672715</xdr:colOff>
       <xdr:row>161</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
@@ -3046,7 +3046,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3395345</xdr:colOff>
+      <xdr:colOff>3976370</xdr:colOff>
       <xdr:row>180</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -3088,7 +3088,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3357245</xdr:colOff>
+      <xdr:colOff>3938270</xdr:colOff>
       <xdr:row>209</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
@@ -3130,7 +3130,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2042795</xdr:colOff>
+      <xdr:colOff>2623820</xdr:colOff>
       <xdr:row>231</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
@@ -3172,7 +3172,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2065020</xdr:colOff>
+      <xdr:colOff>2646045</xdr:colOff>
       <xdr:row>258</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
@@ -3214,7 +3214,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1965960</xdr:colOff>
+      <xdr:colOff>2546985</xdr:colOff>
       <xdr:row>289</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
@@ -3256,7 +3256,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1927860</xdr:colOff>
+      <xdr:colOff>2508885</xdr:colOff>
       <xdr:row>319</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
@@ -3298,7 +3298,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1935480</xdr:colOff>
+      <xdr:colOff>2516505</xdr:colOff>
       <xdr:row>345</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -3340,7 +3340,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1874520</xdr:colOff>
+      <xdr:colOff>2455545</xdr:colOff>
       <xdr:row>376</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
@@ -3382,7 +3382,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1889760</xdr:colOff>
+      <xdr:colOff>2470785</xdr:colOff>
       <xdr:row>407</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
@@ -3424,7 +3424,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3144520</xdr:colOff>
+      <xdr:colOff>3725545</xdr:colOff>
       <xdr:row>411</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
@@ -3992,7 +3992,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E9:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4552,9 +4552,9 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="4"/>
@@ -4847,7 +4847,7 @@
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -4916,12 +4916,12 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="106.5" customWidth="1"/>
+    <col min="1" max="1" width="98.875" customWidth="1"/>
     <col min="2" max="2" width="54.8916666666667" customWidth="1"/>
     <col min="3" max="3" width="5.95" customWidth="1"/>
     <col min="4" max="4" width="14.325" customWidth="1"/>

--- a/equipment_cyg/product/zhong_che_yi_xing/zhong_che_yi_xing_manual.xlsx
+++ b/equipment_cyg/product/zhong_che_yi_xing/zhong_che_yi_xing_manual.xlsx
@@ -1741,6 +1741,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color rgb="FF4472C4"/>
       <name val="Calibri"/>
@@ -1757,13 +1764,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="42">
@@ -4914,9 +4914,9 @@
   <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
